--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -1758,49 +1758,49 @@
         <v>198</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.12520303030303</v>
+        <v>90.874795959596</v>
       </c>
       <c r="E22" t="n">
-        <v>4.37635068012405</v>
+        <v>4.37635199353916</v>
       </c>
       <c r="F22" t="n">
-        <v>-9.35635</v>
+        <v>90.64365</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.9257725</v>
+        <v>91.0742275</v>
       </c>
       <c r="H22" t="n">
         <v>4.03007745</v>
       </c>
       <c r="I22" t="n">
-        <v>-21.4792</v>
+        <v>78.5208</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.4</v>
+        <v>98.6</v>
       </c>
       <c r="K22" t="n">
         <v>20.0792</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.365022779954126</v>
+        <v>-0.365022989356409</v>
       </c>
       <c r="M22" t="n">
-        <v>0.100209988636462</v>
+        <v>0.100208204576704</v>
       </c>
       <c r="N22" t="n">
-        <v>0.311013700008604</v>
+        <v>0.311013793348951</v>
       </c>
       <c r="O22" t="n">
-        <v>-11.774525</v>
+        <v>88.225475</v>
       </c>
       <c r="P22" t="n">
-        <v>-9.35635</v>
+        <v>90.64365</v>
       </c>
       <c r="Q22" t="n">
-        <v>-5.79185</v>
+        <v>94.20815</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.4</v>
+        <v>98.6</v>
       </c>
     </row>
     <row r="23">
@@ -1926,49 +1926,49 @@
         <v>198</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0222853535353535</v>
+        <v>-2.22863131313131</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0145799472061553</v>
+        <v>1.45828729917437</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01985</v>
+        <v>-1.9813</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0206175</v>
+        <v>-2.061786875</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01178667</v>
+        <v>1.16880771</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0798</v>
+        <v>-7.983</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0798</v>
+        <v>7.9798</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.32711682260432</v>
+        <v>-1.32785639044366</v>
       </c>
       <c r="M25" t="n">
-        <v>2.42986023466552</v>
+        <v>2.43244052505035</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0010361517295931</v>
+        <v>0.103635965612088</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.029</v>
+        <v>-2.900325</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.01985</v>
+        <v>-1.9813</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.0124</v>
+        <v>-1.23915</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="26">
@@ -2150,25 +2150,25 @@
         <v>198</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.455551515151515</v>
+        <v>0.544448484848485</v>
       </c>
       <c r="E29" t="n">
         <v>0.566973320863775</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2411</v>
+        <v>0.7589</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.348294375</v>
+        <v>0.651705625</v>
       </c>
       <c r="H29" t="n">
         <v>0.30252453</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.3837</v>
+        <v>-2.3837</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>3.3837</v>
@@ -2183,16 +2183,16 @@
         <v>0.0402930393875587</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.5542</v>
+        <v>0.4458</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.2411</v>
+        <v>0.7589</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.069875</v>
+        <v>0.930125</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2206,49 +2206,49 @@
         <v>198</v>
       </c>
       <c r="D30" t="n">
-        <v>74.995303030303</v>
+        <v>-25.004696969697</v>
       </c>
       <c r="E30" t="n">
         <v>0.689657944415446</v>
       </c>
       <c r="F30" t="n">
-        <v>75.07</v>
+        <v>-24.93</v>
       </c>
       <c r="G30" t="n">
-        <v>75.0475625</v>
+        <v>-24.9524375</v>
       </c>
       <c r="H30" t="n">
-        <v>0.541148999999992</v>
+        <v>0.541149</v>
       </c>
       <c r="I30" t="n">
-        <v>72.8</v>
+        <v>-27.2</v>
       </c>
       <c r="J30" t="n">
-        <v>76.6</v>
+        <v>-23.4</v>
       </c>
       <c r="K30" t="n">
         <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.884112948353198</v>
+        <v>-0.884112948353181</v>
       </c>
       <c r="M30" t="n">
-        <v>1.61535932391408</v>
+        <v>1.61535932391407</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0490118559299036</v>
+        <v>0.0490118559299037</v>
       </c>
       <c r="O30" t="n">
-        <v>74.7025</v>
+        <v>-25.2975</v>
       </c>
       <c r="P30" t="n">
-        <v>75.07</v>
+        <v>-24.93</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.415</v>
+        <v>-24.585</v>
       </c>
       <c r="R30" t="n">
-        <v>76.6</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="31">
@@ -2598,25 +2598,25 @@
         <v>198</v>
       </c>
       <c r="D37" t="n">
-        <v>41.9121212121212</v>
+        <v>-58.0878787878788</v>
       </c>
       <c r="E37" t="n">
         <v>9.91654795765142</v>
       </c>
       <c r="F37" t="n">
-        <v>41.7</v>
+        <v>-58.3</v>
       </c>
       <c r="G37" t="n">
-        <v>41.84125</v>
+        <v>-58.15875</v>
       </c>
       <c r="H37" t="n">
         <v>11.26776</v>
       </c>
       <c r="I37" t="n">
-        <v>19.3</v>
+        <v>-80.7</v>
       </c>
       <c r="J37" t="n">
-        <v>68.5</v>
+        <v>-31.5</v>
       </c>
       <c r="K37" t="n">
         <v>49.2</v>
@@ -2625,22 +2625,22 @@
         <v>0.125555764638885</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.24578332557544</v>
+        <v>-0.245783325575439</v>
       </c>
       <c r="N37" t="n">
         <v>0.70473837611535</v>
       </c>
       <c r="O37" t="n">
-        <v>34.1</v>
+        <v>-65.9</v>
       </c>
       <c r="P37" t="n">
-        <v>41.7</v>
+        <v>-58.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.7</v>
+        <v>-51.3</v>
       </c>
       <c r="R37" t="n">
-        <v>68.5</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="38">
@@ -2654,49 +2654,49 @@
         <v>198</v>
       </c>
       <c r="D38" t="n">
-        <v>86.9126626262626</v>
+        <v>-13.0873388888889</v>
       </c>
       <c r="E38" t="n">
-        <v>5.75866315063262</v>
+        <v>5.7586626340977</v>
       </c>
       <c r="F38" t="n">
-        <v>87.5971</v>
+        <v>-12.4029</v>
       </c>
       <c r="G38" t="n">
-        <v>87.198710625</v>
+        <v>-12.80129125</v>
       </c>
       <c r="H38" t="n">
         <v>5.58161835</v>
       </c>
       <c r="I38" t="n">
-        <v>69.4404</v>
+        <v>-30.5596</v>
       </c>
       <c r="J38" t="n">
-        <v>97.8688</v>
+        <v>-2.1312</v>
       </c>
       <c r="K38" t="n">
         <v>28.4284</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.484394149660486</v>
+        <v>-0.484393589138627</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0773257339747482</v>
+        <v>-0.0773252414139582</v>
       </c>
       <c r="N38" t="n">
-        <v>0.409250369655177</v>
+        <v>0.409250332946639</v>
       </c>
       <c r="O38" t="n">
-        <v>83.754175</v>
+        <v>-16.245825</v>
       </c>
       <c r="P38" t="n">
-        <v>87.5971</v>
+        <v>-12.4029</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.193425</v>
+        <v>-8.806575</v>
       </c>
       <c r="R38" t="n">
-        <v>97.8688</v>
+        <v>-2.1312</v>
       </c>
     </row>
     <row r="39">
@@ -2934,25 +2934,25 @@
         <v>198</v>
       </c>
       <c r="D43" t="n">
-        <v>-74.9798858585859</v>
+        <v>25.0201141414141</v>
       </c>
       <c r="E43" t="n">
         <v>6.20925141293518</v>
       </c>
       <c r="F43" t="n">
-        <v>-75.1646</v>
+        <v>24.8354</v>
       </c>
       <c r="G43" t="n">
-        <v>-75.08205875</v>
+        <v>24.91794125</v>
       </c>
       <c r="H43" t="n">
         <v>5.9222457</v>
       </c>
       <c r="I43" t="n">
-        <v>-89.3316</v>
+        <v>10.6684</v>
       </c>
       <c r="J43" t="n">
-        <v>-59.5297</v>
+        <v>40.4703</v>
       </c>
       <c r="K43" t="n">
         <v>29.8019</v>
@@ -2967,16 +2967,16 @@
         <v>0.441272283089956</v>
       </c>
       <c r="O43" t="n">
-        <v>-79.0956</v>
+        <v>20.9044</v>
       </c>
       <c r="P43" t="n">
-        <v>-75.1646</v>
+        <v>24.8354</v>
       </c>
       <c r="Q43" t="n">
-        <v>-70.728675</v>
+        <v>29.271325</v>
       </c>
       <c r="R43" t="n">
-        <v>-59.5297</v>
+        <v>40.4703</v>
       </c>
     </row>
     <row r="44">
@@ -3270,49 +3270,49 @@
         <v>198</v>
       </c>
       <c r="D49" t="n">
-        <v>66.1469696969697</v>
+        <v>-33.8530303030303</v>
       </c>
       <c r="E49" t="n">
         <v>4.60342687505742</v>
       </c>
       <c r="F49" t="n">
-        <v>66.8</v>
+        <v>-33.2</v>
       </c>
       <c r="G49" t="n">
-        <v>66.34125</v>
+        <v>-33.65875</v>
       </c>
       <c r="H49" t="n">
-        <v>5.1891</v>
+        <v>5.18910000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>53.1</v>
+        <v>-46.9</v>
       </c>
       <c r="J49" t="n">
-        <v>74.7</v>
+        <v>-25.3</v>
       </c>
       <c r="K49" t="n">
         <v>21.6</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.42869780841254</v>
+        <v>-0.428697808412544</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.499300335447267</v>
+        <v>-0.499300335447264</v>
       </c>
       <c r="N49" t="n">
         <v>0.327151302484304</v>
       </c>
       <c r="O49" t="n">
-        <v>62.6</v>
+        <v>-37.4</v>
       </c>
       <c r="P49" t="n">
-        <v>66.8</v>
+        <v>-33.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>69.7</v>
+        <v>-30.3</v>
       </c>
       <c r="R49" t="n">
-        <v>74.7</v>
+        <v>-25.3</v>
       </c>
     </row>
     <row r="50">
@@ -3382,25 +3382,25 @@
         <v>198</v>
       </c>
       <c r="D51" t="n">
-        <v>48.9498909090909</v>
+        <v>-51.0501090909091</v>
       </c>
       <c r="E51" t="n">
         <v>14.1627810937994</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="G51" t="n">
-        <v>49.971894375</v>
+        <v>-50.028105625</v>
       </c>
       <c r="H51" t="n">
         <v>12.35495058</v>
       </c>
       <c r="I51" t="n">
-        <v>9.0909</v>
+        <v>-90.9091</v>
       </c>
       <c r="J51" t="n">
-        <v>75</v>
+        <v>-25</v>
       </c>
       <c r="K51" t="n">
         <v>65.9091</v>
@@ -3409,22 +3409,22 @@
         <v>-0.64866715731297</v>
       </c>
       <c r="M51" t="n">
-        <v>0.267160685303493</v>
+        <v>0.267160685303492</v>
       </c>
       <c r="N51" t="n">
         <v>1.00650502492858</v>
       </c>
       <c r="O51" t="n">
-        <v>41.3949</v>
+        <v>-58.6051</v>
       </c>
       <c r="P51" t="n">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="Q51" t="n">
-        <v>58.3333</v>
+        <v>-41.6667</v>
       </c>
       <c r="R51" t="n">
-        <v>75</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="52">
@@ -3547,22 +3547,22 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D54" t="n">
-        <v>80.9796954314721</v>
+        <v>80.9227272727273</v>
       </c>
       <c r="E54" t="n">
-        <v>19.5550477305349</v>
+        <v>19.521817513277</v>
       </c>
       <c r="F54" t="n">
         <v>80.2</v>
       </c>
       <c r="G54" t="n">
-        <v>81.0566037735849</v>
+        <v>80.985625</v>
       </c>
       <c r="H54" t="n">
-        <v>20.60814</v>
+        <v>20.53401</v>
       </c>
       <c r="I54" t="n">
         <v>31.6</v>
@@ -3574,22 +3574,22 @@
         <v>101.4</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.0208603817438649</v>
+        <v>-0.013125088349585</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.358136750465492</v>
+        <v>-0.353177704531993</v>
       </c>
       <c r="N54" t="n">
-        <v>1.39323946317338</v>
+        <v>1.38735515946472</v>
       </c>
       <c r="O54" t="n">
-        <v>66.8</v>
+        <v>66.875</v>
       </c>
       <c r="P54" t="n">
         <v>80.2</v>
       </c>
       <c r="Q54" t="n">
-        <v>94.5</v>
+        <v>94.45</v>
       </c>
       <c r="R54" t="n">
         <v>133</v>
@@ -3718,49 +3718,49 @@
         <v>198</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.146975757575758</v>
+        <v>-14.697551010101</v>
       </c>
       <c r="E57" t="n">
-        <v>0.096974439660112</v>
+        <v>9.69740557584923</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1361</v>
+        <v>-13.6129</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.143185</v>
+        <v>-14.31862125</v>
       </c>
       <c r="H57" t="n">
-        <v>0.11897865</v>
+        <v>11.90512974</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.4234</v>
+        <v>-42.3358</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.0015</v>
+        <v>-0.1459</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4219</v>
+        <v>42.1899</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.29705352868063</v>
+        <v>-0.297055409708941</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.789948571131085</v>
+        <v>-0.790004512241786</v>
       </c>
       <c r="N57" t="n">
-        <v>0.00689167333457327</v>
+        <v>0.689164605187315</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.219375</v>
+        <v>-21.94075</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.1361</v>
+        <v>-13.6129</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.071175</v>
+        <v>-7.118975</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.0015</v>
+        <v>-0.1459</v>
       </c>
     </row>
     <row r="58">
@@ -3774,49 +3774,49 @@
         <v>198</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.08128686868687</v>
+        <v>-108.128758080808</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0784383195828263</v>
+        <v>7.84400781568312</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.0841</v>
+        <v>-108.4105</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.0795625</v>
+        <v>-107.9563725</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0855460200000001</v>
+        <v>8.55430547999999</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.2659</v>
+        <v>-126.5916</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.9089</v>
+        <v>-90.8852</v>
       </c>
       <c r="K58" t="n">
-        <v>0.357</v>
+        <v>35.7064</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.139373343691161</v>
+        <v>-0.139306013846975</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.742062439906256</v>
+        <v>-0.742058031615904</v>
       </c>
       <c r="N58" t="n">
-        <v>0.00557436864159629</v>
+        <v>0.557449361800882</v>
       </c>
       <c r="O58" t="n">
-        <v>-1.140425</v>
+        <v>-114.0457</v>
       </c>
       <c r="P58" t="n">
-        <v>-1.0841</v>
+        <v>-108.4105</v>
       </c>
       <c r="Q58" t="n">
-        <v>-1.024</v>
+        <v>-102.396275</v>
       </c>
       <c r="R58" t="n">
-        <v>-0.9089</v>
+        <v>-90.8852</v>
       </c>
     </row>
     <row r="59">
@@ -3827,19 +3827,19 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D59" t="n">
-        <v>134.505102040816</v>
+        <v>134.152284263959</v>
       </c>
       <c r="E59" t="n">
-        <v>379.846790942375</v>
+        <v>378.908915818964</v>
       </c>
       <c r="F59" t="n">
         <v>52</v>
       </c>
       <c r="G59" t="n">
-        <v>55.3607594936709</v>
+        <v>55.4213836477987</v>
       </c>
       <c r="H59" t="n">
         <v>47.4432</v>
@@ -3854,16 +3854,16 @@
         <v>2341</v>
       </c>
       <c r="L59" t="n">
-        <v>5.07199820134883</v>
+        <v>5.08656419719666</v>
       </c>
       <c r="M59" t="n">
-        <v>25.1186647069904</v>
+        <v>25.2728902908518</v>
       </c>
       <c r="N59" t="n">
-        <v>27.1319136387411</v>
+        <v>26.9961424662183</v>
       </c>
       <c r="O59" t="n">
-        <v>20.75</v>
+        <v>21</v>
       </c>
       <c r="P59" t="n">
         <v>52</v>

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -974,49 +974,49 @@
         <v>198</v>
       </c>
       <c r="D8" t="n">
-        <v>-1069.0202020202</v>
+        <v>-14.5359080808081</v>
       </c>
       <c r="E8" t="n">
-        <v>2983.37208789286</v>
+        <v>5.26558027692355</v>
       </c>
       <c r="F8" t="n">
-        <v>-426</v>
+        <v>-14.09875</v>
       </c>
       <c r="G8" t="n">
-        <v>-511.45</v>
+        <v>-14.111663125</v>
       </c>
       <c r="H8" t="n">
-        <v>361.0131</v>
+        <v>5.61171513</v>
       </c>
       <c r="I8" t="n">
-        <v>-19762</v>
+        <v>-32.1638</v>
       </c>
       <c r="J8" t="n">
-        <v>-72</v>
+        <v>-6.1591</v>
       </c>
       <c r="K8" t="n">
-        <v>19690</v>
+        <v>26.0047</v>
       </c>
       <c r="L8" t="n">
-        <v>-5.33877728821326</v>
+        <v>-0.818504095105099</v>
       </c>
       <c r="M8" t="n">
-        <v>27.6232996560422</v>
+        <v>0.704206718789325</v>
       </c>
       <c r="N8" t="n">
-        <v>212.019022098031</v>
+        <v>0.374208495689358</v>
       </c>
       <c r="O8" t="n">
-        <v>-711.75</v>
+        <v>-17.857475</v>
       </c>
       <c r="P8" t="n">
-        <v>-426</v>
+        <v>-14.09875</v>
       </c>
       <c r="Q8" t="n">
-        <v>-215.25</v>
+        <v>-10.361075</v>
       </c>
       <c r="R8" t="n">
-        <v>-72</v>
+        <v>-6.1591</v>
       </c>
     </row>
     <row r="9">
@@ -2318,49 +2318,49 @@
         <v>198</v>
       </c>
       <c r="D32" t="n">
-        <v>-11129.9797979798</v>
+        <v>-143.461568686869</v>
       </c>
       <c r="E32" t="n">
-        <v>30995.6191533594</v>
+        <v>27.8248412564862</v>
       </c>
       <c r="F32" t="n">
-        <v>-4636</v>
+        <v>-145.3262</v>
       </c>
       <c r="G32" t="n">
-        <v>-5188.125</v>
+        <v>-142.8983375</v>
       </c>
       <c r="H32" t="n">
-        <v>3324.7305</v>
+        <v>22.46606019</v>
       </c>
       <c r="I32" t="n">
-        <v>-195266</v>
+        <v>-234.5766</v>
       </c>
       <c r="J32" t="n">
-        <v>-796</v>
+        <v>-71.2846</v>
       </c>
       <c r="K32" t="n">
-        <v>194470</v>
+        <v>163.292</v>
       </c>
       <c r="L32" t="n">
-        <v>-5.27088682827167</v>
+        <v>-0.421408146724669</v>
       </c>
       <c r="M32" t="n">
-        <v>26.7200461064147</v>
+        <v>1.32095709211251</v>
       </c>
       <c r="N32" t="n">
-        <v>2202.76273579396</v>
+        <v>1.977425362788</v>
       </c>
       <c r="O32" t="n">
-        <v>-6984.25</v>
+        <v>-157.943475</v>
       </c>
       <c r="P32" t="n">
-        <v>-4636</v>
+        <v>-145.3262</v>
       </c>
       <c r="Q32" t="n">
-        <v>-2483</v>
+        <v>-126.55355</v>
       </c>
       <c r="R32" t="n">
-        <v>-796</v>
+        <v>-71.2846</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D41" t="n">
-        <v>29.4781725888325</v>
+        <v>29.4757575757576</v>
       </c>
       <c r="E41" t="n">
-        <v>5.65496717818836</v>
+        <v>5.64069857266214</v>
       </c>
       <c r="F41" t="n">
         <v>29</v>
       </c>
       <c r="G41" t="n">
-        <v>29.1622641509434</v>
+        <v>29.16125</v>
       </c>
       <c r="H41" t="n">
         <v>4.89258</v>
@@ -2846,13 +2846,13 @@
         <v>31.1</v>
       </c>
       <c r="L41" t="n">
-        <v>0.681038686505073</v>
+        <v>0.684029100246517</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06159148415613</v>
+        <v>1.08329336015017</v>
       </c>
       <c r="N41" t="n">
-        <v>0.402899729224375</v>
+        <v>0.400866992145879</v>
       </c>
       <c r="O41" t="n">
         <v>25.7</v>
@@ -2861,7 +2861,7 @@
         <v>29</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.4</v>
+        <v>32.375</v>
       </c>
       <c r="R41" t="n">
         <v>49.2</v>
@@ -3827,52 +3827,52 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D59" t="n">
-        <v>134.152284263959</v>
+        <v>1.74146262626263</v>
       </c>
       <c r="E59" t="n">
-        <v>378.908915818964</v>
+        <v>1.01897143911055</v>
       </c>
       <c r="F59" t="n">
-        <v>52</v>
+        <v>1.5435</v>
       </c>
       <c r="G59" t="n">
-        <v>55.4213836477987</v>
+        <v>1.604493125</v>
       </c>
       <c r="H59" t="n">
-        <v>47.4432</v>
+        <v>0.83462967</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>0.4727</v>
       </c>
       <c r="J59" t="n">
-        <v>2346</v>
+        <v>5.685</v>
       </c>
       <c r="K59" t="n">
-        <v>2341</v>
+        <v>5.2123</v>
       </c>
       <c r="L59" t="n">
-        <v>5.08656419719666</v>
+        <v>1.52862871922926</v>
       </c>
       <c r="M59" t="n">
-        <v>25.2728902908518</v>
+        <v>2.88173928908851</v>
       </c>
       <c r="N59" t="n">
-        <v>26.9961424662183</v>
+        <v>0.0724151469214252</v>
       </c>
       <c r="O59" t="n">
-        <v>21</v>
+        <v>1.010225</v>
       </c>
       <c r="P59" t="n">
-        <v>52</v>
+        <v>1.5435</v>
       </c>
       <c r="Q59" t="n">
-        <v>84</v>
+        <v>2.1298</v>
       </c>
       <c r="R59" t="n">
-        <v>2346</v>
+        <v>5.685</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -1478,49 +1478,49 @@
         <v>198</v>
       </c>
       <c r="D17" t="n">
-        <v>-328.06091010101</v>
+        <v>-3.73056717171717</v>
       </c>
       <c r="E17" t="n">
-        <v>270.208235421447</v>
+        <v>2.08956592055096</v>
       </c>
       <c r="F17" t="n">
-        <v>-290.7043</v>
+        <v>-3.487</v>
       </c>
       <c r="G17" t="n">
-        <v>-282.63572375</v>
+        <v>-3.580295625</v>
       </c>
       <c r="H17" t="n">
-        <v>210.99570009</v>
+        <v>2.31545055</v>
       </c>
       <c r="I17" t="n">
-        <v>-1661.0555</v>
+        <v>-9.4503</v>
       </c>
       <c r="J17" t="n">
-        <v>-36.9267</v>
+        <v>-0.2873</v>
       </c>
       <c r="K17" t="n">
-        <v>1624.1288</v>
+        <v>9.163</v>
       </c>
       <c r="L17" t="n">
-        <v>-2.27923286694555</v>
+        <v>-0.5884130979906</v>
       </c>
       <c r="M17" t="n">
-        <v>6.8489712025885</v>
+        <v>-0.343945237994749</v>
       </c>
       <c r="N17" t="n">
-        <v>19.2028631190127</v>
+        <v>0.148498983711245</v>
       </c>
       <c r="O17" t="n">
-        <v>-413.850325</v>
+        <v>-5.087925</v>
       </c>
       <c r="P17" t="n">
-        <v>-290.7043</v>
+        <v>-3.487</v>
       </c>
       <c r="Q17" t="n">
-        <v>-134.2295</v>
+        <v>-2.075275</v>
       </c>
       <c r="R17" t="n">
-        <v>-36.9267</v>
+        <v>-0.2873</v>
       </c>
     </row>
     <row r="18">

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -1758,49 +1758,49 @@
         <v>198</v>
       </c>
       <c r="D22" t="n">
-        <v>90.874795959596</v>
+        <v>-9.12520303030303</v>
       </c>
       <c r="E22" t="n">
-        <v>4.37635199353916</v>
+        <v>4.37635068012405</v>
       </c>
       <c r="F22" t="n">
-        <v>90.64365</v>
+        <v>-9.35635</v>
       </c>
       <c r="G22" t="n">
-        <v>91.0742275</v>
+        <v>-8.9257725</v>
       </c>
       <c r="H22" t="n">
         <v>4.03007745</v>
       </c>
       <c r="I22" t="n">
-        <v>78.5208</v>
+        <v>-21.4792</v>
       </c>
       <c r="J22" t="n">
-        <v>98.6</v>
+        <v>-1.4</v>
       </c>
       <c r="K22" t="n">
         <v>20.0792</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.365022989356409</v>
+        <v>-0.365022779954126</v>
       </c>
       <c r="M22" t="n">
-        <v>0.100208204576704</v>
+        <v>0.100209988636462</v>
       </c>
       <c r="N22" t="n">
-        <v>0.311013793348951</v>
+        <v>0.311013700008604</v>
       </c>
       <c r="O22" t="n">
-        <v>88.225475</v>
+        <v>-11.774525</v>
       </c>
       <c r="P22" t="n">
-        <v>90.64365</v>
+        <v>-9.35635</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.20815</v>
+        <v>-5.79185</v>
       </c>
       <c r="R22" t="n">
-        <v>98.6</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="23">
@@ -1926,49 +1926,49 @@
         <v>198</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.22863131313131</v>
+        <v>-0.0222853535353535</v>
       </c>
       <c r="E25" t="n">
-        <v>1.45828729917437</v>
+        <v>0.0145799472061553</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.9813</v>
+        <v>-0.01985</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.061786875</v>
+        <v>-0.0206175</v>
       </c>
       <c r="H25" t="n">
-        <v>1.16880771</v>
+        <v>0.01178667</v>
       </c>
       <c r="I25" t="n">
-        <v>-7.983</v>
+        <v>-0.0798</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0032</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.9798</v>
+        <v>0.0798</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.32785639044366</v>
+        <v>-1.32711682260432</v>
       </c>
       <c r="M25" t="n">
-        <v>2.43244052505035</v>
+        <v>2.42986023466552</v>
       </c>
       <c r="N25" t="n">
-        <v>0.103635965612088</v>
+        <v>0.0010361517295931</v>
       </c>
       <c r="O25" t="n">
-        <v>-2.900325</v>
+        <v>-0.029</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.9813</v>
+        <v>-0.01985</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.23915</v>
+        <v>-0.0124</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.0032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2206,49 +2206,49 @@
         <v>198</v>
       </c>
       <c r="D30" t="n">
-        <v>-25.004696969697</v>
+        <v>74.995303030303</v>
       </c>
       <c r="E30" t="n">
         <v>0.689657944415446</v>
       </c>
       <c r="F30" t="n">
-        <v>-24.93</v>
+        <v>75.07</v>
       </c>
       <c r="G30" t="n">
-        <v>-24.9524375</v>
+        <v>75.0475625</v>
       </c>
       <c r="H30" t="n">
-        <v>0.541149</v>
+        <v>0.541148999999992</v>
       </c>
       <c r="I30" t="n">
-        <v>-27.2</v>
+        <v>72.8</v>
       </c>
       <c r="J30" t="n">
-        <v>-23.4</v>
+        <v>76.6</v>
       </c>
       <c r="K30" t="n">
         <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.884112948353181</v>
+        <v>-0.884112948353198</v>
       </c>
       <c r="M30" t="n">
-        <v>1.61535932391407</v>
+        <v>1.61535932391408</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0490118559299037</v>
+        <v>0.0490118559299036</v>
       </c>
       <c r="O30" t="n">
-        <v>-25.2975</v>
+        <v>74.7025</v>
       </c>
       <c r="P30" t="n">
-        <v>-24.93</v>
+        <v>75.07</v>
       </c>
       <c r="Q30" t="n">
-        <v>-24.585</v>
+        <v>75.415</v>
       </c>
       <c r="R30" t="n">
-        <v>-23.4</v>
+        <v>76.6</v>
       </c>
     </row>
     <row r="31">
@@ -2598,25 +2598,25 @@
         <v>198</v>
       </c>
       <c r="D37" t="n">
-        <v>-58.0878787878788</v>
+        <v>41.9121212121212</v>
       </c>
       <c r="E37" t="n">
         <v>9.91654795765142</v>
       </c>
       <c r="F37" t="n">
-        <v>-58.3</v>
+        <v>41.7</v>
       </c>
       <c r="G37" t="n">
-        <v>-58.15875</v>
+        <v>41.84125</v>
       </c>
       <c r="H37" t="n">
         <v>11.26776</v>
       </c>
       <c r="I37" t="n">
-        <v>-80.7</v>
+        <v>19.3</v>
       </c>
       <c r="J37" t="n">
-        <v>-31.5</v>
+        <v>68.5</v>
       </c>
       <c r="K37" t="n">
         <v>49.2</v>
@@ -2625,22 +2625,22 @@
         <v>0.125555764638885</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.245783325575439</v>
+        <v>-0.24578332557544</v>
       </c>
       <c r="N37" t="n">
         <v>0.70473837611535</v>
       </c>
       <c r="O37" t="n">
-        <v>-65.9</v>
+        <v>34.1</v>
       </c>
       <c r="P37" t="n">
-        <v>-58.3</v>
+        <v>41.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>-51.3</v>
+        <v>48.7</v>
       </c>
       <c r="R37" t="n">
-        <v>-31.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="38">
@@ -2654,49 +2654,49 @@
         <v>198</v>
       </c>
       <c r="D38" t="n">
-        <v>-13.0873388888889</v>
+        <v>86.9126626262626</v>
       </c>
       <c r="E38" t="n">
-        <v>5.7586626340977</v>
+        <v>5.75866315063262</v>
       </c>
       <c r="F38" t="n">
-        <v>-12.4029</v>
+        <v>87.5971</v>
       </c>
       <c r="G38" t="n">
-        <v>-12.80129125</v>
+        <v>87.198710625</v>
       </c>
       <c r="H38" t="n">
         <v>5.58161835</v>
       </c>
       <c r="I38" t="n">
-        <v>-30.5596</v>
+        <v>69.4404</v>
       </c>
       <c r="J38" t="n">
-        <v>-2.1312</v>
+        <v>97.8688</v>
       </c>
       <c r="K38" t="n">
         <v>28.4284</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.484393589138627</v>
+        <v>-0.484394149660486</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0773252414139582</v>
+        <v>-0.0773257339747482</v>
       </c>
       <c r="N38" t="n">
-        <v>0.409250332946639</v>
+        <v>0.409250369655177</v>
       </c>
       <c r="O38" t="n">
-        <v>-16.245825</v>
+        <v>83.754175</v>
       </c>
       <c r="P38" t="n">
-        <v>-12.4029</v>
+        <v>87.5971</v>
       </c>
       <c r="Q38" t="n">
-        <v>-8.806575</v>
+        <v>91.193425</v>
       </c>
       <c r="R38" t="n">
-        <v>-2.1312</v>
+        <v>97.8688</v>
       </c>
     </row>
     <row r="39">

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -1198,10 +1198,10 @@
         <v>198</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.41507323232323</v>
+        <v>-1.41507343434343</v>
       </c>
       <c r="E12" t="n">
-        <v>1.56748508202672</v>
+        <v>1.56748489872447</v>
       </c>
       <c r="F12" t="n">
         <v>-0.8311</v>
@@ -1216,19 +1216,19 @@
         <v>-6.1954</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-0.00001</v>
       </c>
       <c r="K12" t="n">
-        <v>6.1954</v>
+        <v>6.19539</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.2913423391581</v>
+        <v>-1.2913427226047</v>
       </c>
       <c r="M12" t="n">
-        <v>0.662263235426702</v>
+        <v>0.662263903478532</v>
       </c>
       <c r="N12" t="n">
-        <v>0.11139631412161</v>
+        <v>0.111396301094886</v>
       </c>
       <c r="O12" t="n">
         <v>-2.0751</v>
@@ -1240,7 +1240,7 @@
         <v>-0.228</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-0.00001</v>
       </c>
     </row>
     <row r="13">
@@ -3323,22 +3323,22 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.561100602409639</v>
+        <v>-0.77475404040404</v>
       </c>
       <c r="E50" t="n">
-        <v>0.770517376477767</v>
+        <v>1.00768713875036</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.3333</v>
+        <v>-0.40285</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.392658955223881</v>
+        <v>-0.550559375</v>
       </c>
       <c r="H50" t="n">
-        <v>0.35619465</v>
+        <v>0.47376483</v>
       </c>
       <c r="I50" t="n">
         <v>-4.8182</v>
@@ -3350,22 +3350,22 @@
         <v>4.8182</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.90292907167511</v>
+        <v>-2.18400736058925</v>
       </c>
       <c r="M50" t="n">
-        <v>9.6557961262619</v>
+        <v>4.58259072393368</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0598037466819083</v>
+        <v>0.0716132066146372</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.6237</v>
+        <v>-1</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.3333</v>
+        <v>-0.40285</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.1176</v>
+        <v>-0.125</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -1198,10 +1198,10 @@
         <v>198</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.41507343434343</v>
+        <v>-1.41509343434343</v>
       </c>
       <c r="E12" t="n">
-        <v>1.56748489872447</v>
+        <v>1.56746675797857</v>
       </c>
       <c r="F12" t="n">
         <v>-0.8311</v>
@@ -1216,19 +1216,19 @@
         <v>-6.1954</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.00001</v>
+        <v>-0.001</v>
       </c>
       <c r="K12" t="n">
-        <v>6.19539</v>
+        <v>6.1944</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.2913427226047</v>
+        <v>-1.29138064820845</v>
       </c>
       <c r="M12" t="n">
-        <v>0.662263903478532</v>
+        <v>0.662330022165488</v>
       </c>
       <c r="N12" t="n">
-        <v>0.111396301094886</v>
+        <v>0.111395011888212</v>
       </c>
       <c r="O12" t="n">
         <v>-2.0751</v>
@@ -1240,7 +1240,7 @@
         <v>-0.228</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.00001</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="13">
@@ -1702,49 +1702,49 @@
         <v>198</v>
       </c>
       <c r="D21" t="n">
-        <v>3.93894898989899</v>
+        <v>72.2387808080808</v>
       </c>
       <c r="E21" t="n">
-        <v>0.586117360931901</v>
+        <v>7.72301640004512</v>
       </c>
       <c r="F21" t="n">
-        <v>3.8896</v>
+        <v>71.4994</v>
       </c>
       <c r="G21" t="n">
-        <v>3.88153375</v>
+        <v>71.815005</v>
       </c>
       <c r="H21" t="n">
-        <v>0.55701282</v>
+        <v>8.30648889</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8555</v>
+        <v>59.1607</v>
       </c>
       <c r="J21" t="n">
-        <v>5.5002</v>
+        <v>88.9683</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6447</v>
+        <v>29.8076</v>
       </c>
       <c r="L21" t="n">
-        <v>0.788704118923588</v>
+        <v>0.42521065088481</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0320410169167524</v>
+        <v>-0.695198743794922</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0416535470730471</v>
+        <v>0.548850876305249</v>
       </c>
       <c r="O21" t="n">
-        <v>3.45995</v>
+        <v>66.799875</v>
       </c>
       <c r="P21" t="n">
-        <v>3.8896</v>
+        <v>71.4994</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.11985</v>
+        <v>77.7625</v>
       </c>
       <c r="R21" t="n">
-        <v>5.5002</v>
+        <v>88.9683</v>
       </c>
     </row>
     <row r="22">
@@ -1814,49 +1814,49 @@
         <v>198</v>
       </c>
       <c r="D23" t="n">
-        <v>11.3565661616162</v>
+        <v>78.1571994949495</v>
       </c>
       <c r="E23" t="n">
-        <v>0.936322767365354</v>
+        <v>3.24944437865918</v>
       </c>
       <c r="F23" t="n">
-        <v>11.28415</v>
+        <v>78.0458</v>
       </c>
       <c r="G23" t="n">
-        <v>11.3026325</v>
+        <v>77.987935</v>
       </c>
       <c r="H23" t="n">
-        <v>0.82669776</v>
+        <v>2.70322458</v>
       </c>
       <c r="I23" t="n">
-        <v>8.7482</v>
+        <v>71.0144</v>
       </c>
       <c r="J23" t="n">
-        <v>14.6282</v>
+        <v>90.0559</v>
       </c>
       <c r="K23" t="n">
-        <v>5.88</v>
+        <v>19.0415</v>
       </c>
       <c r="L23" t="n">
-        <v>0.742140860242092</v>
+        <v>0.892210298557736</v>
       </c>
       <c r="M23" t="n">
-        <v>1.81616772950842</v>
+        <v>2.23383943151262</v>
       </c>
       <c r="N23" t="n">
-        <v>0.066541561580787</v>
+        <v>0.230927956429283</v>
       </c>
       <c r="O23" t="n">
-        <v>10.7372</v>
+        <v>76.1756</v>
       </c>
       <c r="P23" t="n">
-        <v>11.28415</v>
+        <v>78.0458</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.850425</v>
+        <v>79.8061</v>
       </c>
       <c r="R23" t="n">
-        <v>14.6282</v>
+        <v>90.0559</v>
       </c>
     </row>
     <row r="24">
@@ -1870,49 +1870,49 @@
         <v>198</v>
       </c>
       <c r="D24" t="n">
-        <v>5.32961717171717</v>
+        <v>73.5350267676768</v>
       </c>
       <c r="E24" t="n">
-        <v>0.368864877668974</v>
+        <v>4.90347623532496</v>
       </c>
       <c r="F24" t="n">
-        <v>5.31875</v>
+        <v>73.2554</v>
       </c>
       <c r="G24" t="n">
-        <v>5.3165525</v>
+        <v>73.150140625</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4054911</v>
+        <v>4.14564612</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5657</v>
+        <v>63.8368</v>
       </c>
       <c r="J24" t="n">
-        <v>6.2437</v>
+        <v>93.2365</v>
       </c>
       <c r="K24" t="n">
-        <v>1.678</v>
+        <v>29.3997</v>
       </c>
       <c r="L24" t="n">
-        <v>0.27715142671212</v>
+        <v>1.39247640350756</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.630881471090674</v>
+        <v>3.81021520198331</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0262140853858166</v>
+        <v>0.348474882001331</v>
       </c>
       <c r="O24" t="n">
-        <v>5.0413</v>
+        <v>70.063725</v>
       </c>
       <c r="P24" t="n">
-        <v>5.31875</v>
+        <v>73.2554</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.585875</v>
+        <v>75.95585</v>
       </c>
       <c r="R24" t="n">
-        <v>6.2437</v>
+        <v>93.2365</v>
       </c>
     </row>
     <row r="25">
@@ -2150,49 +2150,49 @@
         <v>198</v>
       </c>
       <c r="D29" t="n">
-        <v>0.544448484848485</v>
+        <v>-0.455554545454545</v>
       </c>
       <c r="E29" t="n">
-        <v>0.566973320863775</v>
+        <v>0.56697087397286</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7589</v>
+        <v>-0.2411</v>
       </c>
       <c r="G29" t="n">
-        <v>0.651705625</v>
+        <v>-0.348294375</v>
       </c>
       <c r="H29" t="n">
         <v>0.30252453</v>
       </c>
       <c r="I29" t="n">
-        <v>-2.3837</v>
+        <v>-3.3837</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>3.3837</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.17434694532701</v>
+        <v>-2.17436949306371</v>
       </c>
       <c r="M29" t="n">
-        <v>5.68757164393999</v>
+        <v>5.68766404589136</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0402930393875587</v>
+        <v>0.0402928654945934</v>
       </c>
       <c r="O29" t="n">
-        <v>0.4458</v>
+        <v>-0.5542</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7589</v>
+        <v>-0.2411</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.930125</v>
+        <v>-0.069875</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3270,49 +3270,49 @@
         <v>198</v>
       </c>
       <c r="D49" t="n">
-        <v>-33.8530303030303</v>
+        <v>66.1469696969697</v>
       </c>
       <c r="E49" t="n">
         <v>4.60342687505742</v>
       </c>
       <c r="F49" t="n">
-        <v>-33.2</v>
+        <v>66.8</v>
       </c>
       <c r="G49" t="n">
-        <v>-33.65875</v>
+        <v>66.34125</v>
       </c>
       <c r="H49" t="n">
-        <v>5.18910000000001</v>
+        <v>5.1891</v>
       </c>
       <c r="I49" t="n">
-        <v>-46.9</v>
+        <v>53.1</v>
       </c>
       <c r="J49" t="n">
-        <v>-25.3</v>
+        <v>74.7</v>
       </c>
       <c r="K49" t="n">
         <v>21.6</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.428697808412544</v>
+        <v>-0.42869780841254</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.499300335447264</v>
+        <v>-0.499300335447267</v>
       </c>
       <c r="N49" t="n">
         <v>0.327151302484304</v>
       </c>
       <c r="O49" t="n">
-        <v>-37.4</v>
+        <v>62.6</v>
       </c>
       <c r="P49" t="n">
-        <v>-33.2</v>
+        <v>66.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>-30.3</v>
+        <v>69.7</v>
       </c>
       <c r="R49" t="n">
-        <v>-25.3</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="50">
@@ -3323,49 +3323,49 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.77475404040404</v>
+        <v>-56.1103704819277</v>
       </c>
       <c r="E50" t="n">
-        <v>1.00768713875036</v>
+        <v>77.0516094424606</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.40285</v>
+        <v>-33.3333</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.550559375</v>
+        <v>-39.2663052238806</v>
       </c>
       <c r="H50" t="n">
-        <v>0.47376483</v>
+        <v>35.6209476</v>
       </c>
       <c r="I50" t="n">
-        <v>-4.8182</v>
+        <v>-481.8182</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>4.8182</v>
+        <v>481.8182</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.18400736058925</v>
+        <v>-2.90291717003353</v>
       </c>
       <c r="M50" t="n">
-        <v>4.58259072393368</v>
+        <v>9.65569069234934</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0716132066146372</v>
+        <v>5.98036471752849</v>
       </c>
       <c r="O50" t="n">
-        <v>-1</v>
+        <v>-62.368425</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.40285</v>
+        <v>-33.3333</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.125</v>
+        <v>-11.7647</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -3547,22 +3547,22 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D54" t="n">
-        <v>80.9227272727273</v>
+        <v>80.9796954314721</v>
       </c>
       <c r="E54" t="n">
-        <v>19.521817513277</v>
+        <v>19.5550477305349</v>
       </c>
       <c r="F54" t="n">
         <v>80.2</v>
       </c>
       <c r="G54" t="n">
-        <v>80.985625</v>
+        <v>81.0566037735849</v>
       </c>
       <c r="H54" t="n">
-        <v>20.53401</v>
+        <v>20.60814</v>
       </c>
       <c r="I54" t="n">
         <v>31.6</v>
@@ -3574,22 +3574,22 @@
         <v>101.4</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.013125088349585</v>
+        <v>-0.0208603817438649</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.353177704531993</v>
+        <v>-0.358136750465492</v>
       </c>
       <c r="N54" t="n">
-        <v>1.38735515946472</v>
+        <v>1.39323946317338</v>
       </c>
       <c r="O54" t="n">
-        <v>66.875</v>
+        <v>66.8</v>
       </c>
       <c r="P54" t="n">
         <v>80.2</v>
       </c>
       <c r="Q54" t="n">
-        <v>94.45</v>
+        <v>94.5</v>
       </c>
       <c r="R54" t="n">
         <v>133</v>
@@ -3606,49 +3606,49 @@
         <v>198</v>
       </c>
       <c r="D55" t="n">
-        <v>0.288215151515152</v>
+        <v>28.8213939393939</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0870214167741947</v>
+        <v>8.70222692988128</v>
       </c>
       <c r="F55" t="n">
-        <v>0.28005</v>
+        <v>28.00595</v>
       </c>
       <c r="G55" t="n">
-        <v>0.282470625</v>
+        <v>28.24688</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0622692</v>
+        <v>6.23314692</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1273</v>
+        <v>12.7308</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6817</v>
+        <v>68.1657</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5544</v>
+        <v>55.4349</v>
       </c>
       <c r="L55" t="n">
-        <v>1.75761562226109</v>
+        <v>1.75733854869569</v>
       </c>
       <c r="M55" t="n">
-        <v>6.25715357342662</v>
+        <v>6.25528919462736</v>
       </c>
       <c r="N55" t="n">
-        <v>0.00618434279817948</v>
+        <v>0.618440338446591</v>
       </c>
       <c r="O55" t="n">
-        <v>0.244075</v>
+        <v>24.4031</v>
       </c>
       <c r="P55" t="n">
-        <v>0.28005</v>
+        <v>28.00595</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.32675</v>
+        <v>32.678625</v>
       </c>
       <c r="R55" t="n">
-        <v>0.6817</v>
+        <v>68.1657</v>
       </c>
     </row>
     <row r="56">

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -3323,22 +3323,22 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D50" t="n">
-        <v>-56.1103704819277</v>
+        <v>-77.4756691919192</v>
       </c>
       <c r="E50" t="n">
-        <v>77.0516094424606</v>
+        <v>100.768467681994</v>
       </c>
       <c r="F50" t="n">
-        <v>-33.3333</v>
+        <v>-40.2834</v>
       </c>
       <c r="G50" t="n">
-        <v>-39.2663052238806</v>
+        <v>-55.05633125</v>
       </c>
       <c r="H50" t="n">
-        <v>35.6209476</v>
+        <v>47.36921826</v>
       </c>
       <c r="I50" t="n">
         <v>-481.8182</v>
@@ -3350,22 +3350,22 @@
         <v>481.8182</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.90291717003353</v>
+        <v>-2.18399871151502</v>
       </c>
       <c r="M50" t="n">
-        <v>9.65569069234934</v>
+        <v>4.58253607020871</v>
       </c>
       <c r="N50" t="n">
-        <v>5.98036471752849</v>
+        <v>7.16130316528613</v>
       </c>
       <c r="O50" t="n">
-        <v>-62.368425</v>
+        <v>-100</v>
       </c>
       <c r="P50" t="n">
-        <v>-33.3333</v>
+        <v>-40.2834</v>
       </c>
       <c r="Q50" t="n">
-        <v>-11.7647</v>
+        <v>-12.5</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -3547,22 +3547,22 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D54" t="n">
-        <v>80.9796954314721</v>
+        <v>80.9227272727273</v>
       </c>
       <c r="E54" t="n">
-        <v>19.5550477305349</v>
+        <v>19.521817513277</v>
       </c>
       <c r="F54" t="n">
         <v>80.2</v>
       </c>
       <c r="G54" t="n">
-        <v>81.0566037735849</v>
+        <v>80.985625</v>
       </c>
       <c r="H54" t="n">
-        <v>20.60814</v>
+        <v>20.53401</v>
       </c>
       <c r="I54" t="n">
         <v>31.6</v>
@@ -3574,22 +3574,22 @@
         <v>101.4</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.0208603817438649</v>
+        <v>-0.013125088349585</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.358136750465492</v>
+        <v>-0.353177704531993</v>
       </c>
       <c r="N54" t="n">
-        <v>1.39323946317338</v>
+        <v>1.38735515946472</v>
       </c>
       <c r="O54" t="n">
-        <v>66.8</v>
+        <v>66.875</v>
       </c>
       <c r="P54" t="n">
         <v>80.2</v>
       </c>
       <c r="Q54" t="n">
-        <v>94.5</v>
+        <v>94.45</v>
       </c>
       <c r="R54" t="n">
         <v>133</v>

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -862,49 +862,49 @@
         <v>198</v>
       </c>
       <c r="D6" t="n">
-        <v>-33.7241686868687</v>
+        <v>-37.7517782828283</v>
       </c>
       <c r="E6" t="n">
-        <v>10.9912820336519</v>
+        <v>18.0622821991859</v>
       </c>
       <c r="F6" t="n">
-        <v>-32.80255</v>
+        <v>-33.32935</v>
       </c>
       <c r="G6" t="n">
-        <v>-33.368765625</v>
+        <v>-35.56570375</v>
       </c>
       <c r="H6" t="n">
-        <v>8.85571806000001</v>
+        <v>11.93189067</v>
       </c>
       <c r="I6" t="n">
-        <v>-63.8108</v>
+        <v>-133.8161</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.2532</v>
+        <v>-0.001</v>
       </c>
       <c r="K6" t="n">
-        <v>56.5576</v>
+        <v>133.8151</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.325414476642618</v>
+        <v>-1.73713928889976</v>
       </c>
       <c r="M6" t="n">
-        <v>0.163319544875759</v>
+        <v>5.10589212695284</v>
       </c>
       <c r="N6" t="n">
-        <v>0.781116401080377</v>
+        <v>1.28363050129454</v>
       </c>
       <c r="O6" t="n">
-        <v>-40.167975</v>
+        <v>-43.27055</v>
       </c>
       <c r="P6" t="n">
-        <v>-32.80255</v>
+        <v>-33.32935</v>
       </c>
       <c r="Q6" t="n">
-        <v>-27.5511</v>
+        <v>-27.27445</v>
       </c>
       <c r="R6" t="n">
-        <v>-7.2532</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="7">
@@ -918,49 +918,49 @@
         <v>198</v>
       </c>
       <c r="D7" t="n">
-        <v>-12.0870338383838</v>
+        <v>-1092.02917373737</v>
       </c>
       <c r="E7" t="n">
-        <v>3.01773933986468</v>
+        <v>271.080968001669</v>
       </c>
       <c r="F7" t="n">
-        <v>-11.0157</v>
+        <v>-1080.5109</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.678564375</v>
+        <v>-1061.452746875</v>
       </c>
       <c r="H7" t="n">
-        <v>2.21270637</v>
+        <v>179.50757412</v>
       </c>
       <c r="I7" t="n">
-        <v>-21.4362</v>
+        <v>-2833.7531</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.9937</v>
+        <v>-598.7223</v>
       </c>
       <c r="K7" t="n">
-        <v>13.4425</v>
+        <v>2235.0308</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.23674573556478</v>
+        <v>-2.12444357731195</v>
       </c>
       <c r="M7" t="n">
-        <v>1.18983624341499</v>
+        <v>9.0130859809917</v>
       </c>
       <c r="N7" t="n">
-        <v>0.214461396344552</v>
+        <v>19.264885522776</v>
       </c>
       <c r="O7" t="n">
-        <v>-13.46125</v>
+        <v>-1182.4757</v>
       </c>
       <c r="P7" t="n">
-        <v>-11.0157</v>
+        <v>-1080.5109</v>
       </c>
       <c r="Q7" t="n">
-        <v>-9.951625</v>
+        <v>-931.6524</v>
       </c>
       <c r="R7" t="n">
-        <v>-7.9937</v>
+        <v>-598.7223</v>
       </c>
     </row>
     <row r="8">
@@ -974,49 +974,49 @@
         <v>198</v>
       </c>
       <c r="D8" t="n">
-        <v>-14.5359080808081</v>
+        <v>-14.3442414141414</v>
       </c>
       <c r="E8" t="n">
-        <v>5.26558027692355</v>
+        <v>5.16455264863373</v>
       </c>
       <c r="F8" t="n">
-        <v>-14.09875</v>
+        <v>-13.59345</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.111663125</v>
+        <v>-13.930559375</v>
       </c>
       <c r="H8" t="n">
-        <v>5.61171513</v>
+        <v>5.16589731</v>
       </c>
       <c r="I8" t="n">
-        <v>-32.1638</v>
+        <v>-32.4218</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.1591</v>
+        <v>-6.1983</v>
       </c>
       <c r="K8" t="n">
-        <v>26.0047</v>
+        <v>26.2235</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.818504095105099</v>
+        <v>-0.868232866578077</v>
       </c>
       <c r="M8" t="n">
-        <v>0.704206718789325</v>
+        <v>0.890807138119825</v>
       </c>
       <c r="N8" t="n">
-        <v>0.374208495689358</v>
+        <v>0.367028774781659</v>
       </c>
       <c r="O8" t="n">
-        <v>-17.857475</v>
+        <v>-17.7374</v>
       </c>
       <c r="P8" t="n">
-        <v>-14.09875</v>
+        <v>-13.59345</v>
       </c>
       <c r="Q8" t="n">
-        <v>-10.361075</v>
+        <v>-10.383625</v>
       </c>
       <c r="R8" t="n">
-        <v>-6.1591</v>
+        <v>-6.1983</v>
       </c>
     </row>
     <row r="9">
@@ -2318,49 +2318,49 @@
         <v>198</v>
       </c>
       <c r="D32" t="n">
-        <v>-143.461568686869</v>
+        <v>-151.613332323232</v>
       </c>
       <c r="E32" t="n">
-        <v>27.8248412564862</v>
+        <v>35.5900885939391</v>
       </c>
       <c r="F32" t="n">
-        <v>-145.3262</v>
+        <v>-147.6832</v>
       </c>
       <c r="G32" t="n">
-        <v>-142.8983375</v>
+        <v>-149.06054875</v>
       </c>
       <c r="H32" t="n">
-        <v>22.46606019</v>
+        <v>26.80585278</v>
       </c>
       <c r="I32" t="n">
-        <v>-234.5766</v>
+        <v>-317.0731</v>
       </c>
       <c r="J32" t="n">
-        <v>-71.2846</v>
+        <v>-72.2196</v>
       </c>
       <c r="K32" t="n">
-        <v>163.292</v>
+        <v>244.8535</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.421408146724669</v>
+        <v>-0.900794390450634</v>
       </c>
       <c r="M32" t="n">
-        <v>1.32095709211251</v>
+        <v>2.01135435083642</v>
       </c>
       <c r="N32" t="n">
-        <v>1.977425362788</v>
+        <v>2.52927746112915</v>
       </c>
       <c r="O32" t="n">
-        <v>-157.943475</v>
+        <v>-167.12055</v>
       </c>
       <c r="P32" t="n">
-        <v>-145.3262</v>
+        <v>-147.6832</v>
       </c>
       <c r="Q32" t="n">
-        <v>-126.55355</v>
+        <v>-131.1222</v>
       </c>
       <c r="R32" t="n">
-        <v>-71.2846</v>
+        <v>-72.2196</v>
       </c>
     </row>
     <row r="33">
@@ -3326,19 +3326,19 @@
         <v>198</v>
       </c>
       <c r="D50" t="n">
-        <v>-77.4756691919192</v>
+        <v>-81.1079217171717</v>
       </c>
       <c r="E50" t="n">
-        <v>100.768467681994</v>
+        <v>101.218631456365</v>
       </c>
       <c r="F50" t="n">
-        <v>-40.2834</v>
+        <v>-50</v>
       </c>
       <c r="G50" t="n">
-        <v>-55.05633125</v>
+        <v>-59.55124375</v>
       </c>
       <c r="H50" t="n">
-        <v>47.36921826</v>
+        <v>58.52370762</v>
       </c>
       <c r="I50" t="n">
         <v>-481.8182</v>
@@ -3350,22 +3350,22 @@
         <v>481.8182</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.18399871151502</v>
+        <v>-2.0799261766174</v>
       </c>
       <c r="M50" t="n">
-        <v>4.58253607020871</v>
+        <v>4.17536464005051</v>
       </c>
       <c r="N50" t="n">
-        <v>7.16130316528613</v>
+        <v>7.19329491167719</v>
       </c>
       <c r="O50" t="n">
         <v>-100</v>
       </c>
       <c r="P50" t="n">
-        <v>-40.2834</v>
+        <v>-50</v>
       </c>
       <c r="Q50" t="n">
-        <v>-12.5</v>
+        <v>-14.2857</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve">indicador</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">ind_0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_0256</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0335</t>
@@ -245,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -564,10 +567,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -635,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>9.54604125034558</v>
+        <v>9.5425819129425</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
@@ -665,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.22031956147932</v>
+        <v>-1.21773750822643</v>
       </c>
       <c r="N2" t="n">
-        <v>0.678407610977962</v>
+        <v>0.627855794391295</v>
       </c>
       <c r="O2" t="n">
         <v>9</v>
@@ -691,52 +694,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D3" t="n">
-        <v>2017.5</v>
+        <v>2018</v>
       </c>
       <c r="E3" t="n">
-        <v>1.71215422238135</v>
+        <v>2.00434311043489</v>
       </c>
       <c r="F3" t="n">
-        <v>2017.5</v>
+        <v>2018</v>
       </c>
       <c r="G3" t="n">
-        <v>2017.5</v>
+        <v>2018</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2239</v>
+        <v>2.9652</v>
       </c>
       <c r="I3" t="n">
         <v>2015</v>
       </c>
       <c r="J3" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.28601644147099</v>
+        <v>-1.26511871966417</v>
       </c>
       <c r="N3" t="n">
-        <v>0.121677502240995</v>
+        <v>0.131876094679157</v>
       </c>
       <c r="O3" t="n">
         <v>2016</v>
       </c>
       <c r="P3" t="n">
-        <v>2017.5</v>
+        <v>2018</v>
       </c>
       <c r="Q3" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="R3" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="4">
@@ -747,13 +750,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>9.54604125034558</v>
+        <v>9.5425819129425</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -777,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.22031956147932</v>
+        <v>-1.21773750822643</v>
       </c>
       <c r="N4" t="n">
-        <v>0.678407610977962</v>
+        <v>0.627855794391295</v>
       </c>
       <c r="O4" t="n">
         <v>9</v>
@@ -803,22 +806,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.6085858585859</v>
+        <v>-21.7839826839827</v>
       </c>
       <c r="E5" t="n">
-        <v>6.72460268259648</v>
+        <v>6.76545275837366</v>
       </c>
       <c r="F5" t="n">
-        <v>-20.15</v>
+        <v>-20.4</v>
       </c>
       <c r="G5" t="n">
-        <v>-20.73125</v>
+        <v>-20.9124324324324</v>
       </c>
       <c r="H5" t="n">
-        <v>4.89258</v>
+        <v>5.48562</v>
       </c>
       <c r="I5" t="n">
         <v>-46.8</v>
@@ -830,19 +833,19 @@
         <v>35.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.54446699877428</v>
+        <v>-1.43759580859469</v>
       </c>
       <c r="M5" t="n">
-        <v>3.11087654654552</v>
+        <v>2.64851471301439</v>
       </c>
       <c r="N5" t="n">
-        <v>0.477896703045476</v>
+        <v>0.44513411095422</v>
       </c>
       <c r="O5" t="n">
-        <v>-24.4</v>
+        <v>-24.5</v>
       </c>
       <c r="P5" t="n">
-        <v>-20.15</v>
+        <v>-20.4</v>
       </c>
       <c r="Q5" t="n">
         <v>-17.7</v>
@@ -859,52 +862,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D6" t="n">
-        <v>-37.7517782828283</v>
+        <v>-47.616758008658</v>
       </c>
       <c r="E6" t="n">
-        <v>18.0622821991859</v>
+        <v>27.8510456884198</v>
       </c>
       <c r="F6" t="n">
-        <v>-33.32935</v>
+        <v>-38.5818</v>
       </c>
       <c r="G6" t="n">
-        <v>-35.56570375</v>
+        <v>-43.3325583783784</v>
       </c>
       <c r="H6" t="n">
-        <v>11.93189067</v>
+        <v>16.57665408</v>
       </c>
       <c r="I6" t="n">
-        <v>-133.8161</v>
+        <v>-156.0632</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>133.8151</v>
+        <v>156.0632</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.73713928889976</v>
+        <v>-1.60047950110619</v>
       </c>
       <c r="M6" t="n">
-        <v>5.10589212695284</v>
+        <v>2.64904622179427</v>
       </c>
       <c r="N6" t="n">
-        <v>1.28363050129454</v>
+        <v>1.83246427170978</v>
       </c>
       <c r="O6" t="n">
-        <v>-43.27055</v>
+        <v>-53.9495</v>
       </c>
       <c r="P6" t="n">
-        <v>-33.32935</v>
+        <v>-38.5818</v>
       </c>
       <c r="Q6" t="n">
-        <v>-27.27445</v>
+        <v>-30.3531</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -915,52 +918,52 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D7" t="n">
-        <v>-1092.02917373737</v>
+        <v>-1207.97906493507</v>
       </c>
       <c r="E7" t="n">
-        <v>271.080968001669</v>
+        <v>318.929074210153</v>
       </c>
       <c r="F7" t="n">
-        <v>-1080.5109</v>
+        <v>-1156.538</v>
       </c>
       <c r="G7" t="n">
-        <v>-1061.452746875</v>
+        <v>-1170.76435081081</v>
       </c>
       <c r="H7" t="n">
-        <v>179.50757412</v>
+        <v>223.12077354</v>
       </c>
       <c r="I7" t="n">
-        <v>-2833.7531</v>
+        <v>-2974.6221</v>
       </c>
       <c r="J7" t="n">
-        <v>-598.7223</v>
+        <v>-665.1757</v>
       </c>
       <c r="K7" t="n">
-        <v>2235.0308</v>
+        <v>2309.4464</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.12444357731195</v>
+        <v>-1.85291657734278</v>
       </c>
       <c r="M7" t="n">
-        <v>9.0130859809917</v>
+        <v>6.2653416949261</v>
       </c>
       <c r="N7" t="n">
-        <v>19.264885522776</v>
+        <v>20.983992494852</v>
       </c>
       <c r="O7" t="n">
-        <v>-1182.4757</v>
+        <v>-1320.4333</v>
       </c>
       <c r="P7" t="n">
-        <v>-1080.5109</v>
+        <v>-1156.538</v>
       </c>
       <c r="Q7" t="n">
-        <v>-931.6524</v>
+        <v>-1013.40735</v>
       </c>
       <c r="R7" t="n">
-        <v>-598.7223</v>
+        <v>-665.1757</v>
       </c>
     </row>
     <row r="8">
@@ -971,52 +974,52 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D8" t="n">
-        <v>-14.3442414141414</v>
+        <v>-60.7369064935065</v>
       </c>
       <c r="E8" t="n">
-        <v>5.16455264863373</v>
+        <v>81.9662455796764</v>
       </c>
       <c r="F8" t="n">
-        <v>-13.59345</v>
+        <v>-16.5821</v>
       </c>
       <c r="G8" t="n">
-        <v>-13.930559375</v>
+        <v>-45.4799881081081</v>
       </c>
       <c r="H8" t="n">
-        <v>5.16589731</v>
+        <v>9.54408924</v>
       </c>
       <c r="I8" t="n">
-        <v>-32.4218</v>
+        <v>-487.7038</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.1983</v>
+        <v>-6.1227</v>
       </c>
       <c r="K8" t="n">
-        <v>26.2235</v>
+        <v>481.5811</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.868232866578077</v>
+        <v>-1.85443157716463</v>
       </c>
       <c r="M8" t="n">
-        <v>0.890807138119825</v>
+        <v>4.08100866246151</v>
       </c>
       <c r="N8" t="n">
-        <v>0.367028774781659</v>
+        <v>5.39298302086368</v>
       </c>
       <c r="O8" t="n">
-        <v>-17.7374</v>
+        <v>-123.33145</v>
       </c>
       <c r="P8" t="n">
-        <v>-13.59345</v>
+        <v>-16.5821</v>
       </c>
       <c r="Q8" t="n">
-        <v>-10.383625</v>
+        <v>-11.95675</v>
       </c>
       <c r="R8" t="n">
-        <v>-6.1983</v>
+        <v>-6.1227</v>
       </c>
     </row>
     <row r="9">
@@ -1027,52 +1030,52 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D9" t="n">
-        <v>73.7457090909091</v>
+        <v>74.3880341991342</v>
       </c>
       <c r="E9" t="n">
-        <v>19.8727585234866</v>
+        <v>16.1802528189094</v>
       </c>
       <c r="F9" t="n">
-        <v>78.235</v>
+        <v>77.2337</v>
       </c>
       <c r="G9" t="n">
-        <v>75.314035625</v>
+        <v>76.2150951351351</v>
       </c>
       <c r="H9" t="n">
-        <v>21.86768283</v>
+        <v>16.26945936</v>
       </c>
       <c r="I9" t="n">
-        <v>26</v>
+        <v>26.6576</v>
       </c>
       <c r="J9" t="n">
-        <v>99.6</v>
+        <v>96.887</v>
       </c>
       <c r="K9" t="n">
-        <v>73.6</v>
+        <v>70.2294</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.569301122248396</v>
+        <v>-0.906704921935019</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.8393517005169</v>
+        <v>0.365887854666314</v>
       </c>
       <c r="N9" t="n">
-        <v>1.41229545105647</v>
+        <v>1.0645824767079</v>
       </c>
       <c r="O9" t="n">
-        <v>59.797725</v>
+        <v>65.30785</v>
       </c>
       <c r="P9" t="n">
-        <v>78.235</v>
+        <v>77.2337</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.875</v>
+        <v>86.91245</v>
       </c>
       <c r="R9" t="n">
-        <v>99.6</v>
+        <v>96.887</v>
       </c>
     </row>
     <row r="10">
@@ -1083,49 +1086,49 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D10" t="n">
-        <v>68.7663161616162</v>
+        <v>69.5656272727273</v>
       </c>
       <c r="E10" t="n">
-        <v>22.8030811877244</v>
+        <v>22.3425408362163</v>
       </c>
       <c r="F10" t="n">
-        <v>73.07685</v>
+        <v>73.249</v>
       </c>
       <c r="G10" t="n">
-        <v>70.385465</v>
+        <v>71.2603118918919</v>
       </c>
       <c r="H10" t="n">
-        <v>28.81099515</v>
+        <v>28.23671004</v>
       </c>
       <c r="I10" t="n">
-        <v>17.1875</v>
+        <v>19.4705</v>
       </c>
       <c r="J10" t="n">
         <v>98.4534</v>
       </c>
       <c r="K10" t="n">
-        <v>81.2659</v>
+        <v>78.9829</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.435914866989104</v>
+        <v>-0.462442104655113</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.08480956576609</v>
+        <v>-1.0694127787625</v>
       </c>
       <c r="N10" t="n">
-        <v>1.62054441477933</v>
+        <v>1.47003126128964</v>
       </c>
       <c r="O10" t="n">
-        <v>49.34455</v>
+        <v>52.16775</v>
       </c>
       <c r="P10" t="n">
-        <v>73.07685</v>
+        <v>73.249</v>
       </c>
       <c r="Q10" t="n">
-        <v>91.587975</v>
+        <v>91.628</v>
       </c>
       <c r="R10" t="n">
         <v>98.4534</v>
@@ -1139,49 +1142,49 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D11" t="n">
-        <v>91.769303030303</v>
+        <v>92.8208922077922</v>
       </c>
       <c r="E11" t="n">
-        <v>8.06275714976787</v>
+        <v>3.92057517336755</v>
       </c>
       <c r="F11" t="n">
-        <v>92.6518</v>
+        <v>92.9723</v>
       </c>
       <c r="G11" t="n">
-        <v>92.722199375</v>
+        <v>93.0977194594595</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75379494000001</v>
+        <v>3.82629408000002</v>
       </c>
       <c r="I11" t="n">
-        <v>18.3021</v>
+        <v>78.9192</v>
       </c>
       <c r="J11" t="n">
         <v>99.2676</v>
       </c>
       <c r="K11" t="n">
-        <v>80.9655</v>
+        <v>20.3484</v>
       </c>
       <c r="L11" t="n">
-        <v>-6.31483408495468</v>
+        <v>-0.840591831443849</v>
       </c>
       <c r="M11" t="n">
-        <v>50.3817268920043</v>
+        <v>1.11580143010137</v>
       </c>
       <c r="N11" t="n">
-        <v>0.572995200043943</v>
+        <v>0.257954908053437</v>
       </c>
       <c r="O11" t="n">
-        <v>90.2751</v>
+        <v>90.3572</v>
       </c>
       <c r="P11" t="n">
-        <v>92.6518</v>
+        <v>92.9723</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.257</v>
+        <v>95.5463</v>
       </c>
       <c r="R11" t="n">
         <v>99.2676</v>
@@ -1195,22 +1198,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.41509343434343</v>
+        <v>-1.40601082251082</v>
       </c>
       <c r="E12" t="n">
-        <v>1.56746675797857</v>
+        <v>1.53069508516619</v>
       </c>
       <c r="F12" t="n">
         <v>-0.8311</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.15095875</v>
+        <v>-1.14035513513514</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0014963</v>
+        <v>0.98355684</v>
       </c>
       <c r="I12" t="n">
         <v>-6.1954</v>
@@ -1222,13 +1225,13 @@
         <v>6.1944</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.29138064820845</v>
+        <v>-1.32830190183337</v>
       </c>
       <c r="M12" t="n">
-        <v>0.662330022165488</v>
+        <v>0.81986332013928</v>
       </c>
       <c r="N12" t="n">
-        <v>0.111395011888212</v>
+        <v>0.100712342575168</v>
       </c>
       <c r="O12" t="n">
         <v>-2.0751</v>
@@ -1237,7 +1240,7 @@
         <v>-0.8311</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.228</v>
+        <v>-0.2493</v>
       </c>
       <c r="R12" t="n">
         <v>-0.001</v>
@@ -1251,22 +1254,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.42296212121212</v>
+        <v>-2.50250692640693</v>
       </c>
       <c r="E13" t="n">
-        <v>2.58084534083883</v>
+        <v>2.65420292008642</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.5685</v>
+        <v>-1.6244</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.8828475</v>
+        <v>-1.93126756756757</v>
       </c>
       <c r="H13" t="n">
-        <v>1.52144412</v>
+        <v>1.52159238</v>
       </c>
       <c r="I13" t="n">
         <v>-14.6154</v>
@@ -1278,22 +1281,22 @@
         <v>14.5728</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.24247729161528</v>
+        <v>-2.22748418697297</v>
       </c>
       <c r="M13" t="n">
-        <v>5.32797747665392</v>
+        <v>5.05379524942569</v>
       </c>
       <c r="N13" t="n">
-        <v>0.183412691823293</v>
+        <v>0.174633731003803</v>
       </c>
       <c r="O13" t="n">
-        <v>-2.90035</v>
+        <v>-2.98215</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.5685</v>
+        <v>-1.6244</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.82125</v>
+        <v>-0.8492</v>
       </c>
       <c r="R13" t="n">
         <v>-0.0426</v>
@@ -1307,22 +1310,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D14" t="n">
-        <v>-14.6405121212121</v>
+        <v>-14.3578510822511</v>
       </c>
       <c r="E14" t="n">
-        <v>14.7420121001534</v>
+        <v>14.5385870122532</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.77055</v>
+        <v>-8.7019</v>
       </c>
       <c r="G14" t="n">
-        <v>-12.248966875</v>
+        <v>-11.9163794594595</v>
       </c>
       <c r="H14" t="n">
-        <v>10.19754519</v>
+        <v>10.04861802</v>
       </c>
       <c r="I14" t="n">
         <v>-80.3336</v>
@@ -1334,22 +1337,22 @@
         <v>80.3004</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.39520253811239</v>
+        <v>-1.40030649892849</v>
       </c>
       <c r="M14" t="n">
-        <v>1.66985079373364</v>
+        <v>1.65281141382823</v>
       </c>
       <c r="N14" t="n">
-        <v>1.04766918009193</v>
+        <v>0.956568796703208</v>
       </c>
       <c r="O14" t="n">
-        <v>-23.6484</v>
+        <v>-22.95605</v>
       </c>
       <c r="P14" t="n">
-        <v>-8.77055</v>
+        <v>-8.7019</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4.671575</v>
+        <v>-3.9523</v>
       </c>
       <c r="R14" t="n">
         <v>-0.0332</v>
@@ -1363,22 +1366,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.33046767676768</v>
+        <v>-5.17050562770563</v>
       </c>
       <c r="E15" t="n">
-        <v>3.10570344501717</v>
+        <v>3.06680121355949</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.78765</v>
+        <v>-4.5468</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.919093125</v>
+        <v>-4.74484108108108</v>
       </c>
       <c r="H15" t="n">
-        <v>2.84533179</v>
+        <v>2.69655288</v>
       </c>
       <c r="I15" t="n">
         <v>-16.8404</v>
@@ -1390,22 +1393,22 @@
         <v>15.8456</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.2210514231482</v>
+        <v>-1.25550168127279</v>
       </c>
       <c r="M15" t="n">
-        <v>1.28760222873674</v>
+        <v>1.39804345984343</v>
       </c>
       <c r="N15" t="n">
-        <v>0.220712733088583</v>
+        <v>0.201780705656614</v>
       </c>
       <c r="O15" t="n">
-        <v>-6.86175</v>
+        <v>-6.6165</v>
       </c>
       <c r="P15" t="n">
-        <v>-4.78765</v>
+        <v>-4.5468</v>
       </c>
       <c r="Q15" t="n">
-        <v>-2.8771</v>
+        <v>-2.8157</v>
       </c>
       <c r="R15" t="n">
         <v>-0.9948</v>
@@ -1419,52 +1422,52 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D16" t="n">
-        <v>-27.1727424242424</v>
+        <v>-27.6978484848485</v>
       </c>
       <c r="E16" t="n">
-        <v>23.1365613551721</v>
+        <v>23.8847418908369</v>
       </c>
       <c r="F16" t="n">
-        <v>-18.6921</v>
+        <v>-18.7991</v>
       </c>
       <c r="G16" t="n">
-        <v>-23.03023</v>
+        <v>-23.3575497297297</v>
       </c>
       <c r="H16" t="n">
-        <v>13.5769095</v>
+        <v>13.69759314</v>
       </c>
       <c r="I16" t="n">
         <v>-115.9706</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.0592</v>
+        <v>-2</v>
       </c>
       <c r="K16" t="n">
-        <v>113.9114</v>
+        <v>113.9706</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.61500486231005</v>
+        <v>-1.55607929631427</v>
       </c>
       <c r="M16" t="n">
-        <v>2.20707447026154</v>
+        <v>1.85974944697755</v>
       </c>
       <c r="N16" t="n">
-        <v>1.64424381830941</v>
+        <v>1.57150064107527</v>
       </c>
       <c r="O16" t="n">
-        <v>-35.116025</v>
+        <v>-36.06175</v>
       </c>
       <c r="P16" t="n">
-        <v>-18.6921</v>
+        <v>-18.7991</v>
       </c>
       <c r="Q16" t="n">
-        <v>-11.022525</v>
+        <v>-10.99605</v>
       </c>
       <c r="R16" t="n">
-        <v>-2.0592</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
@@ -1475,22 +1478,22 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.73056717171717</v>
+        <v>-3.70713376623377</v>
       </c>
       <c r="E17" t="n">
-        <v>2.08956592055096</v>
+        <v>2.06247853880442</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.487</v>
+        <v>-3.4952</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.580295625</v>
+        <v>-3.55556216216216</v>
       </c>
       <c r="H17" t="n">
-        <v>2.31545055</v>
+        <v>2.26155804</v>
       </c>
       <c r="I17" t="n">
         <v>-9.4503</v>
@@ -1502,22 +1505,22 @@
         <v>9.163</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.5884130979906</v>
+        <v>-0.574900986621717</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.343945237994749</v>
+        <v>-0.31180667080484</v>
       </c>
       <c r="N17" t="n">
-        <v>0.148498983711245</v>
+        <v>0.135701125042451</v>
       </c>
       <c r="O17" t="n">
-        <v>-5.087925</v>
+        <v>-5.0325</v>
       </c>
       <c r="P17" t="n">
-        <v>-3.487</v>
+        <v>-3.4952</v>
       </c>
       <c r="Q17" t="n">
-        <v>-2.075275</v>
+        <v>-2.01295</v>
       </c>
       <c r="R17" t="n">
         <v>-0.2873</v>
@@ -1531,22 +1534,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.83721717171717</v>
+        <v>-2.80834632034632</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0888536878811</v>
+        <v>1.05963682928423</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.7465</v>
+        <v>-2.722</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.78733125</v>
+        <v>-2.75543243243243</v>
       </c>
       <c r="H18" t="n">
-        <v>1.1771844</v>
+        <v>1.0704372</v>
       </c>
       <c r="I18" t="n">
         <v>-5</v>
@@ -1558,22 +1561,22 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.361175353441823</v>
+        <v>-0.370471512611058</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.731534535330569</v>
+        <v>-0.604027936039408</v>
       </c>
       <c r="N18" t="n">
-        <v>0.077381462087566</v>
+        <v>0.0697189847869353</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.5805</v>
+        <v>-3.4185</v>
       </c>
       <c r="P18" t="n">
-        <v>-2.7465</v>
+        <v>-2.722</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.97875</v>
+        <v>-1.9975</v>
       </c>
       <c r="R18" t="n">
         <v>-1</v>
@@ -1587,22 +1590,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.84260505050505</v>
+        <v>-2.84029523809524</v>
       </c>
       <c r="E19" t="n">
-        <v>1.05496339493103</v>
+        <v>1.05777755560947</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.775</v>
+        <v>-2.762</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.7673675</v>
+        <v>-2.76227135135135</v>
       </c>
       <c r="H19" t="n">
-        <v>1.1453085</v>
+        <v>1.1475324</v>
       </c>
       <c r="I19" t="n">
         <v>-5</v>
@@ -1614,22 +1617,22 @@
         <v>3.835</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.495251369047574</v>
+        <v>-0.492977527657122</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.707832704386651</v>
+        <v>-0.717820630154144</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0749729838427478</v>
+        <v>0.069596653560365</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.43625</v>
+        <v>-3.483</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.775</v>
+        <v>-2.762</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.95225</v>
+        <v>-1.943</v>
       </c>
       <c r="R19" t="n">
         <v>-1.165</v>
@@ -1643,22 +1646,22 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D20" t="n">
-        <v>-70.5222222222222</v>
+        <v>-70.3813852813853</v>
       </c>
       <c r="E20" t="n">
-        <v>14.3481727771078</v>
+        <v>14.4303107858771</v>
       </c>
       <c r="F20" t="n">
-        <v>-72.15</v>
+        <v>-72.5</v>
       </c>
       <c r="G20" t="n">
-        <v>-71.578125</v>
+        <v>-71.5</v>
       </c>
       <c r="H20" t="n">
-        <v>16.45686</v>
+        <v>16.75338</v>
       </c>
       <c r="I20" t="n">
         <v>-92.4</v>
@@ -1670,22 +1673,22 @@
         <v>65.8</v>
       </c>
       <c r="L20" t="n">
-        <v>0.645555413377292</v>
+        <v>0.695451700724247</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0292504238259221</v>
+        <v>0.13325850701242</v>
       </c>
       <c r="N20" t="n">
-        <v>1.01968023815782</v>
+        <v>0.949444744036405</v>
       </c>
       <c r="O20" t="n">
-        <v>-83</v>
+        <v>-82.8</v>
       </c>
       <c r="P20" t="n">
-        <v>-72.15</v>
+        <v>-72.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>-60.6</v>
+        <v>-60.45</v>
       </c>
       <c r="R20" t="n">
         <v>-26.6</v>
@@ -1699,52 +1702,52 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D21" t="n">
-        <v>72.2387808080808</v>
+        <v>70.1992735930736</v>
       </c>
       <c r="E21" t="n">
-        <v>7.72301640004512</v>
+        <v>8.43024559452166</v>
       </c>
       <c r="F21" t="n">
-        <v>71.4994</v>
+        <v>70.0661</v>
       </c>
       <c r="G21" t="n">
-        <v>71.815005</v>
+        <v>70.1824448648649</v>
       </c>
       <c r="H21" t="n">
-        <v>8.30648889</v>
+        <v>8.01879036000001</v>
       </c>
       <c r="I21" t="n">
-        <v>59.1607</v>
+        <v>49.3183</v>
       </c>
       <c r="J21" t="n">
-        <v>88.9683</v>
+        <v>89.1027</v>
       </c>
       <c r="K21" t="n">
-        <v>29.8076</v>
+        <v>39.7844</v>
       </c>
       <c r="L21" t="n">
-        <v>0.42521065088481</v>
+        <v>0.00213065349595573</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.695198743794922</v>
+        <v>-0.333224040339086</v>
       </c>
       <c r="N21" t="n">
-        <v>0.548850876305249</v>
+        <v>0.554669437784265</v>
       </c>
       <c r="O21" t="n">
-        <v>66.799875</v>
+        <v>64.40775</v>
       </c>
       <c r="P21" t="n">
-        <v>71.4994</v>
+        <v>70.0661</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.7625</v>
+        <v>75.2446</v>
       </c>
       <c r="R21" t="n">
-        <v>88.9683</v>
+        <v>89.1027</v>
       </c>
     </row>
     <row r="22">
@@ -1755,22 +1758,22 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.12520303030303</v>
+        <v>-8.47874545454545</v>
       </c>
       <c r="E22" t="n">
-        <v>4.37635068012405</v>
+        <v>4.49643886718325</v>
       </c>
       <c r="F22" t="n">
-        <v>-9.35635</v>
+        <v>-8.9062</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.9257725</v>
+        <v>-8.22436324324324</v>
       </c>
       <c r="H22" t="n">
-        <v>4.03007745</v>
+        <v>4.75351212</v>
       </c>
       <c r="I22" t="n">
         <v>-21.4792</v>
@@ -1782,22 +1785,22 @@
         <v>20.0792</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.365022779954126</v>
+        <v>-0.445709731891015</v>
       </c>
       <c r="M22" t="n">
-        <v>0.100209988636462</v>
+        <v>-0.0709832053805961</v>
       </c>
       <c r="N22" t="n">
-        <v>0.311013700008604</v>
+        <v>0.29584395739462</v>
       </c>
       <c r="O22" t="n">
-        <v>-11.774525</v>
+        <v>-11.4801</v>
       </c>
       <c r="P22" t="n">
-        <v>-9.35635</v>
+        <v>-8.9062</v>
       </c>
       <c r="Q22" t="n">
-        <v>-5.79185</v>
+        <v>-4.57</v>
       </c>
       <c r="R22" t="n">
         <v>-1.4</v>
@@ -1811,52 +1814,52 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D23" t="n">
-        <v>78.1571994949495</v>
+        <v>77.4235069264069</v>
       </c>
       <c r="E23" t="n">
-        <v>3.24944437865918</v>
+        <v>3.47664906891487</v>
       </c>
       <c r="F23" t="n">
-        <v>78.0458</v>
+        <v>77.4001</v>
       </c>
       <c r="G23" t="n">
-        <v>77.987935</v>
+        <v>77.3172189189189</v>
       </c>
       <c r="H23" t="n">
-        <v>2.70322458</v>
+        <v>3.06423768</v>
       </c>
       <c r="I23" t="n">
-        <v>71.0144</v>
+        <v>67.715</v>
       </c>
       <c r="J23" t="n">
-        <v>90.0559</v>
+        <v>89.0269</v>
       </c>
       <c r="K23" t="n">
-        <v>19.0415</v>
+        <v>21.3119</v>
       </c>
       <c r="L23" t="n">
-        <v>0.892210298557736</v>
+        <v>0.445640285363873</v>
       </c>
       <c r="M23" t="n">
-        <v>2.23383943151262</v>
+        <v>1.10876639110523</v>
       </c>
       <c r="N23" t="n">
-        <v>0.230927956429283</v>
+        <v>0.228746714767284</v>
       </c>
       <c r="O23" t="n">
-        <v>76.1756</v>
+        <v>75.16275</v>
       </c>
       <c r="P23" t="n">
-        <v>78.0458</v>
+        <v>77.4001</v>
       </c>
       <c r="Q23" t="n">
-        <v>79.8061</v>
+        <v>79.10315</v>
       </c>
       <c r="R23" t="n">
-        <v>90.0559</v>
+        <v>89.0269</v>
       </c>
     </row>
     <row r="24">
@@ -1867,52 +1870,52 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D24" t="n">
-        <v>73.5350267676768</v>
+        <v>72.6088238095238</v>
       </c>
       <c r="E24" t="n">
-        <v>4.90347623532496</v>
+        <v>4.98187802597053</v>
       </c>
       <c r="F24" t="n">
-        <v>73.2554</v>
+        <v>72.0846</v>
       </c>
       <c r="G24" t="n">
-        <v>73.150140625</v>
+        <v>72.2708913513514</v>
       </c>
       <c r="H24" t="n">
-        <v>4.14564612</v>
+        <v>4.32904374</v>
       </c>
       <c r="I24" t="n">
-        <v>63.8368</v>
+        <v>61.2274</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2365</v>
+        <v>92.4885</v>
       </c>
       <c r="K24" t="n">
-        <v>29.3997</v>
+        <v>31.2611</v>
       </c>
       <c r="L24" t="n">
-        <v>1.39247640350756</v>
+        <v>1.19930819280021</v>
       </c>
       <c r="M24" t="n">
-        <v>3.81021520198331</v>
+        <v>3.2427608787226</v>
       </c>
       <c r="N24" t="n">
-        <v>0.348474882001331</v>
+        <v>0.327783509127014</v>
       </c>
       <c r="O24" t="n">
-        <v>70.063725</v>
+        <v>69.2613</v>
       </c>
       <c r="P24" t="n">
-        <v>73.2554</v>
+        <v>72.0846</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.95585</v>
+        <v>75.17355</v>
       </c>
       <c r="R24" t="n">
-        <v>93.2365</v>
+        <v>92.4885</v>
       </c>
     </row>
     <row r="25">
@@ -1923,52 +1926,52 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0222853535353535</v>
+        <v>49.5839242424242</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0145799472061553</v>
+        <v>0.473309818122854</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01985</v>
+        <v>49.5689</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0206175</v>
+        <v>49.5799740540541</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01178667</v>
+        <v>0.364423080000004</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0798</v>
+        <v>48.1734</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>51.1584</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0798</v>
+        <v>2.985</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.32711682260432</v>
+        <v>0.136869483077396</v>
       </c>
       <c r="M25" t="n">
-        <v>2.42986023466552</v>
+        <v>1.10209717312996</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0010361517295931</v>
+        <v>0.0311414997075032</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.029</v>
+        <v>49.3279</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.01985</v>
+        <v>49.5689</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.0124</v>
+        <v>49.82125</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>51.1584</v>
       </c>
     </row>
     <row r="26">
@@ -1979,22 +1982,22 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D26" t="n">
-        <v>74.3392191919192</v>
+        <v>74.953461038961</v>
       </c>
       <c r="E26" t="n">
-        <v>8.0353978920833</v>
+        <v>8.03010860840227</v>
       </c>
       <c r="F26" t="n">
-        <v>75.286</v>
+        <v>75.7921</v>
       </c>
       <c r="G26" t="n">
-        <v>74.77423875</v>
+        <v>75.4863686486487</v>
       </c>
       <c r="H26" t="n">
-        <v>7.5271602</v>
+        <v>7.44561720000001</v>
       </c>
       <c r="I26" t="n">
         <v>52.729</v>
@@ -2006,22 +2009,22 @@
         <v>37.9495</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.464640511494274</v>
+        <v>-0.554915900058252</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.254098773554169</v>
+        <v>-0.172364426796058</v>
       </c>
       <c r="N26" t="n">
-        <v>0.571050862264841</v>
+        <v>0.528342356960931</v>
       </c>
       <c r="O26" t="n">
-        <v>69.301475</v>
+        <v>70.4776</v>
       </c>
       <c r="P26" t="n">
-        <v>75.286</v>
+        <v>75.7921</v>
       </c>
       <c r="Q26" t="n">
-        <v>79.983325</v>
+        <v>80.4882</v>
       </c>
       <c r="R26" t="n">
         <v>90.6785</v>
@@ -2035,52 +2038,52 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D27" t="n">
-        <v>44.3508439393939</v>
+        <v>44.2880722943723</v>
       </c>
       <c r="E27" t="n">
-        <v>9.3037692396746</v>
+        <v>9.23800089345579</v>
       </c>
       <c r="F27" t="n">
-        <v>45.19055</v>
+        <v>45.1</v>
       </c>
       <c r="G27" t="n">
-        <v>44.543596875</v>
+        <v>44.4946281081081</v>
       </c>
       <c r="H27" t="n">
-        <v>8.88121878</v>
+        <v>8.74734</v>
       </c>
       <c r="I27" t="n">
         <v>20.9</v>
       </c>
       <c r="J27" t="n">
-        <v>65.9514</v>
+        <v>67.0431</v>
       </c>
       <c r="K27" t="n">
-        <v>45.0514</v>
+        <v>46.1431</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.217718969429716</v>
+        <v>-0.205309304638917</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.209336875077291</v>
+        <v>-0.125720649869947</v>
       </c>
       <c r="N27" t="n">
-        <v>0.661190088901973</v>
+        <v>0.60781583458891</v>
       </c>
       <c r="O27" t="n">
-        <v>38.45185</v>
+        <v>38.4358</v>
       </c>
       <c r="P27" t="n">
-        <v>45.19055</v>
+        <v>45.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.4244</v>
+        <v>50.3101</v>
       </c>
       <c r="R27" t="n">
-        <v>65.9514</v>
+        <v>67.0431</v>
       </c>
     </row>
     <row r="28">
@@ -2091,52 +2094,52 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D28" t="n">
-        <v>50.2433606060606</v>
+        <v>52.0825445887446</v>
       </c>
       <c r="E28" t="n">
-        <v>15.3020639884415</v>
+        <v>15.6858080375682</v>
       </c>
       <c r="F28" t="n">
-        <v>50.905</v>
+        <v>52.9</v>
       </c>
       <c r="G28" t="n">
-        <v>50.33635625</v>
+        <v>52.3753821621622</v>
       </c>
       <c r="H28" t="n">
-        <v>15.83742972</v>
+        <v>17.7912</v>
       </c>
       <c r="I28" t="n">
         <v>13.1</v>
       </c>
       <c r="J28" t="n">
-        <v>83.0734</v>
+        <v>86.2</v>
       </c>
       <c r="K28" t="n">
-        <v>69.9734</v>
+        <v>73.1</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0484791325138048</v>
+        <v>-0.133785708660951</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.56379823214222</v>
+        <v>-0.616335722750101</v>
       </c>
       <c r="N28" t="n">
-        <v>1.08747033468504</v>
+        <v>1.03205039851315</v>
       </c>
       <c r="O28" t="n">
-        <v>39.730975</v>
+        <v>40.4</v>
       </c>
       <c r="P28" t="n">
-        <v>50.905</v>
+        <v>52.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.8304</v>
+        <v>63.18115</v>
       </c>
       <c r="R28" t="n">
-        <v>83.0734</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="29">
@@ -2147,22 +2150,22 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.455554545454545</v>
+        <v>-0.525296536796537</v>
       </c>
       <c r="E29" t="n">
-        <v>0.56697087397286</v>
+        <v>0.552292426627139</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2411</v>
+        <v>-0.3288</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.348294375</v>
+        <v>-0.444930810810811</v>
       </c>
       <c r="H29" t="n">
-        <v>0.30252453</v>
+        <v>0.4366257</v>
       </c>
       <c r="I29" t="n">
         <v>-3.3837</v>
@@ -2174,22 +2177,22 @@
         <v>3.3837</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.17436949306371</v>
+        <v>-1.7389362567293</v>
       </c>
       <c r="M29" t="n">
-        <v>5.68766404589136</v>
+        <v>4.38899488713233</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0402928654945934</v>
+        <v>0.036338173821277</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.5542</v>
+        <v>-0.92775</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.2411</v>
+        <v>-0.3288</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.069875</v>
+        <v>-0.10225</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2203,52 +2206,52 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D30" t="n">
-        <v>74.995303030303</v>
+        <v>75.0434199134199</v>
       </c>
       <c r="E30" t="n">
-        <v>0.689657944415446</v>
+        <v>0.685505837568771</v>
       </c>
       <c r="F30" t="n">
-        <v>75.07</v>
+        <v>75.12</v>
       </c>
       <c r="G30" t="n">
-        <v>75.0475625</v>
+        <v>75.0948648648649</v>
       </c>
       <c r="H30" t="n">
-        <v>0.541148999999992</v>
+        <v>0.563387999999993</v>
       </c>
       <c r="I30" t="n">
         <v>72.8</v>
       </c>
       <c r="J30" t="n">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.90000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.884112948353198</v>
+        <v>-0.876522866891536</v>
       </c>
       <c r="M30" t="n">
-        <v>1.61535932391408</v>
+        <v>1.67100190977188</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0490118559299036</v>
+        <v>0.0451029727733189</v>
       </c>
       <c r="O30" t="n">
-        <v>74.7025</v>
+        <v>74.74</v>
       </c>
       <c r="P30" t="n">
-        <v>75.07</v>
+        <v>75.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.415</v>
+        <v>75.485</v>
       </c>
       <c r="R30" t="n">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="31">
@@ -2259,22 +2262,22 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.07671212121212</v>
+        <v>-6.16977835497836</v>
       </c>
       <c r="E31" t="n">
-        <v>2.38804586036845</v>
+        <v>2.46561529751816</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.7268</v>
+        <v>-5.836</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.945469375</v>
+        <v>-6.02390108108108</v>
       </c>
       <c r="H31" t="n">
-        <v>2.50225815</v>
+        <v>2.60300082</v>
       </c>
       <c r="I31" t="n">
         <v>-14.458</v>
@@ -2286,22 +2289,22 @@
         <v>13.0458</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.561312561088395</v>
+        <v>-0.603657736237277</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0408038248267601</v>
+        <v>0.214384804904695</v>
       </c>
       <c r="N31" t="n">
-        <v>0.169711029373535</v>
+        <v>0.162225576412081</v>
       </c>
       <c r="O31" t="n">
-        <v>-7.738925</v>
+        <v>-7.846</v>
       </c>
       <c r="P31" t="n">
-        <v>-5.7268</v>
+        <v>-5.836</v>
       </c>
       <c r="Q31" t="n">
-        <v>-4.297025</v>
+        <v>-4.34555</v>
       </c>
       <c r="R31" t="n">
         <v>-1.4122</v>
@@ -2315,52 +2318,52 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D32" t="n">
-        <v>-151.613332323232</v>
+        <v>-157.066015151515</v>
       </c>
       <c r="E32" t="n">
-        <v>35.5900885939391</v>
+        <v>38.8562004565181</v>
       </c>
       <c r="F32" t="n">
-        <v>-147.6832</v>
+        <v>-151.7264</v>
       </c>
       <c r="G32" t="n">
-        <v>-149.06054875</v>
+        <v>-154.167411891892</v>
       </c>
       <c r="H32" t="n">
-        <v>26.80585278</v>
+        <v>30.11887074</v>
       </c>
       <c r="I32" t="n">
-        <v>-317.0731</v>
+        <v>-317.882</v>
       </c>
       <c r="J32" t="n">
-        <v>-72.2196</v>
+        <v>-72.2861</v>
       </c>
       <c r="K32" t="n">
-        <v>244.8535</v>
+        <v>245.5959</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.900794390450634</v>
+        <v>-0.826052431435886</v>
       </c>
       <c r="M32" t="n">
-        <v>2.01135435083642</v>
+        <v>1.17488869412878</v>
       </c>
       <c r="N32" t="n">
-        <v>2.52927746112915</v>
+        <v>2.55655029500626</v>
       </c>
       <c r="O32" t="n">
-        <v>-167.12055</v>
+        <v>-175.84255</v>
       </c>
       <c r="P32" t="n">
-        <v>-147.6832</v>
+        <v>-151.7264</v>
       </c>
       <c r="Q32" t="n">
-        <v>-131.1222</v>
+        <v>-132.8233</v>
       </c>
       <c r="R32" t="n">
-        <v>-72.2196</v>
+        <v>-72.2861</v>
       </c>
     </row>
     <row r="33">
@@ -2371,52 +2374,52 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D33" t="n">
-        <v>-82.7764762626263</v>
+        <v>-84.9773082251082</v>
       </c>
       <c r="E33" t="n">
-        <v>22.9230845095699</v>
+        <v>24.6648118682109</v>
       </c>
       <c r="F33" t="n">
-        <v>-78.9803</v>
+        <v>-80.9955</v>
       </c>
       <c r="G33" t="n">
-        <v>-80.587606875</v>
+        <v>-82.3371259459459</v>
       </c>
       <c r="H33" t="n">
-        <v>20.45402373</v>
+        <v>22.8846723</v>
       </c>
       <c r="I33" t="n">
-        <v>-176.0178</v>
+        <v>-192.4798</v>
       </c>
       <c r="J33" t="n">
-        <v>-49.4342</v>
+        <v>-49.0617</v>
       </c>
       <c r="K33" t="n">
-        <v>126.5836</v>
+        <v>143.4181</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.20186293794897</v>
+        <v>-1.14650700990585</v>
       </c>
       <c r="M33" t="n">
-        <v>2.13159891622487</v>
+        <v>1.66963965478454</v>
       </c>
       <c r="N33" t="n">
-        <v>1.62907267950684</v>
+        <v>1.62282547745532</v>
       </c>
       <c r="O33" t="n">
-        <v>-94.435075</v>
+        <v>-99.3906</v>
       </c>
       <c r="P33" t="n">
-        <v>-78.9803</v>
+        <v>-80.9955</v>
       </c>
       <c r="Q33" t="n">
-        <v>-66.228775</v>
+        <v>-66.5745</v>
       </c>
       <c r="R33" t="n">
-        <v>-49.4342</v>
+        <v>-49.0617</v>
       </c>
     </row>
     <row r="34">
@@ -2427,22 +2430,22 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D34" t="n">
-        <v>-45.1449818181818</v>
+        <v>-44.0273004329004</v>
       </c>
       <c r="E34" t="n">
-        <v>19.668891593556</v>
+        <v>18.5342345935569</v>
       </c>
       <c r="F34" t="n">
         <v>-39</v>
       </c>
       <c r="G34" t="n">
-        <v>-44.110665</v>
+        <v>-42.5421967567568</v>
       </c>
       <c r="H34" t="n">
-        <v>12.37971</v>
+        <v>11.56428</v>
       </c>
       <c r="I34" t="n">
         <v>-100</v>
@@ -2454,16 +2457,16 @@
         <v>100</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.570227261827937</v>
+        <v>-0.73874308279866</v>
       </c>
       <c r="M34" t="n">
-        <v>0.273464678957985</v>
+        <v>0.73322536108017</v>
       </c>
       <c r="N34" t="n">
-        <v>1.39780725922233</v>
+        <v>1.21946310656127</v>
       </c>
       <c r="O34" t="n">
-        <v>-56</v>
+        <v>-52</v>
       </c>
       <c r="P34" t="n">
         <v>-39</v>
@@ -2483,22 +2486,22 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.470800505050505</v>
+        <v>-0.470918181818182</v>
       </c>
       <c r="E35" t="n">
-        <v>0.284446563634007</v>
+        <v>0.282555364360427</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4539</v>
+        <v>-0.454</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.456754375</v>
+        <v>-0.45714</v>
       </c>
       <c r="H35" t="n">
-        <v>0.27376209</v>
+        <v>0.2735397</v>
       </c>
       <c r="I35" t="n">
         <v>-1.3995</v>
@@ -2510,22 +2513,22 @@
         <v>1.3845</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.672399476867114</v>
+        <v>-0.643695436651762</v>
       </c>
       <c r="M35" t="n">
-        <v>0.736922616929647</v>
+        <v>0.66373077144703</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0202147370438874</v>
+        <v>0.0185907780900918</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.66065</v>
+        <v>-0.6585</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.4539</v>
+        <v>-0.454</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.3012</v>
+        <v>-0.2964</v>
       </c>
       <c r="R35" t="n">
         <v>-0.015</v>
@@ -2539,22 +2542,22 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D36" t="n">
-        <v>-11.4818257575758</v>
+        <v>-11.3556935064935</v>
       </c>
       <c r="E36" t="n">
-        <v>10.0826072337387</v>
+        <v>9.98067016954365</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.5682</v>
+        <v>-8.183</v>
       </c>
       <c r="G36" t="n">
-        <v>-10.2467925</v>
+        <v>-10.0535405405405</v>
       </c>
       <c r="H36" t="n">
-        <v>8.91531858</v>
+        <v>8.63273502</v>
       </c>
       <c r="I36" t="n">
         <v>-38.3136</v>
@@ -2566,19 +2569,19 @@
         <v>38.304</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.923942588309519</v>
+        <v>-0.935372614657849</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.244400089467214</v>
+        <v>-0.207706212254538</v>
       </c>
       <c r="N36" t="n">
-        <v>0.716539694988453</v>
+        <v>0.656679885488565</v>
       </c>
       <c r="O36" t="n">
-        <v>-16.68545</v>
+        <v>-16.1882</v>
       </c>
       <c r="P36" t="n">
-        <v>-8.5682</v>
+        <v>-8.183</v>
       </c>
       <c r="Q36" t="n">
         <v>-3.0309</v>
@@ -2595,22 +2598,22 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D37" t="n">
-        <v>41.9121212121212</v>
+        <v>42.0138904761905</v>
       </c>
       <c r="E37" t="n">
-        <v>9.91654795765142</v>
+        <v>9.689142719968</v>
       </c>
       <c r="F37" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="G37" t="n">
-        <v>41.84125</v>
+        <v>41.8989556756757</v>
       </c>
       <c r="H37" t="n">
-        <v>11.26776</v>
+        <v>10.3782</v>
       </c>
       <c r="I37" t="n">
         <v>19.3</v>
@@ -2622,22 +2625,22 @@
         <v>49.2</v>
       </c>
       <c r="L37" t="n">
-        <v>0.125555764638885</v>
+        <v>0.156153714100706</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.24578332557544</v>
+        <v>-0.214351086058845</v>
       </c>
       <c r="N37" t="n">
-        <v>0.70473837611535</v>
+        <v>0.637498787531005</v>
       </c>
       <c r="O37" t="n">
-        <v>34.1</v>
+        <v>34.25</v>
       </c>
       <c r="P37" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.7</v>
+        <v>48.2773</v>
       </c>
       <c r="R37" t="n">
         <v>68.5</v>
@@ -2651,22 +2654,22 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D38" t="n">
-        <v>86.9126626262626</v>
+        <v>87.3301805194805</v>
       </c>
       <c r="E38" t="n">
-        <v>5.75866315063262</v>
+        <v>5.69936586387214</v>
       </c>
       <c r="F38" t="n">
-        <v>87.5971</v>
+        <v>87.7868</v>
       </c>
       <c r="G38" t="n">
-        <v>87.198710625</v>
+        <v>87.6373324324324</v>
       </c>
       <c r="H38" t="n">
-        <v>5.58161835</v>
+        <v>5.75174670000001</v>
       </c>
       <c r="I38" t="n">
         <v>69.4404</v>
@@ -2678,22 +2681,22 @@
         <v>28.4284</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.484394149660486</v>
+        <v>-0.515645192422703</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0773257339747482</v>
+        <v>-0.0211575098101813</v>
       </c>
       <c r="N38" t="n">
-        <v>0.409250369655177</v>
+        <v>0.374990743033052</v>
       </c>
       <c r="O38" t="n">
-        <v>83.754175</v>
+        <v>83.9518</v>
       </c>
       <c r="P38" t="n">
-        <v>87.5971</v>
+        <v>87.7868</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.193425</v>
+        <v>91.5301</v>
       </c>
       <c r="R38" t="n">
         <v>97.8688</v>
@@ -2707,52 +2710,52 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D39" t="n">
-        <v>67.2253919191919</v>
+        <v>-4802396.7855026</v>
       </c>
       <c r="E39" t="n">
-        <v>9.98786521877735</v>
+        <v>5036841.25808115</v>
       </c>
       <c r="F39" t="n">
-        <v>67.54645</v>
+        <v>-3400497.14</v>
       </c>
       <c r="G39" t="n">
-        <v>67.0943375</v>
+        <v>-4012666.71100541</v>
       </c>
       <c r="H39" t="n">
-        <v>12.88149597</v>
+        <v>4748957.62884228</v>
       </c>
       <c r="I39" t="n">
-        <v>49.0076</v>
+        <v>-19915997.62</v>
       </c>
       <c r="J39" t="n">
-        <v>88.4928</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.4852</v>
+        <v>19915997.62</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0768832343652658</v>
+        <v>-1.05961720163973</v>
       </c>
       <c r="M39" t="n">
-        <v>-1.0986766953414</v>
+        <v>0.31083944765094</v>
       </c>
       <c r="N39" t="n">
-        <v>0.709806673168872</v>
+        <v>331399.824299779</v>
       </c>
       <c r="O39" t="n">
-        <v>57.52145</v>
+        <v>-7990317.26</v>
       </c>
       <c r="P39" t="n">
-        <v>67.54645</v>
+        <v>-3400497.14</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.40295</v>
+        <v>-245009.92</v>
       </c>
       <c r="R39" t="n">
-        <v>88.4928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2763,52 +2766,52 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D40" t="n">
-        <v>55.5539393939394</v>
+        <v>68.3980614718615</v>
       </c>
       <c r="E40" t="n">
-        <v>10.499321352802</v>
+        <v>9.9717911720681</v>
       </c>
       <c r="F40" t="n">
-        <v>57.105</v>
+        <v>69.6488</v>
       </c>
       <c r="G40" t="n">
-        <v>56.0466875</v>
+        <v>68.4494972972973</v>
       </c>
       <c r="H40" t="n">
-        <v>10.815567</v>
+        <v>11.98355928</v>
       </c>
       <c r="I40" t="n">
-        <v>30.92</v>
+        <v>49.0076</v>
       </c>
       <c r="J40" t="n">
-        <v>75.38</v>
+        <v>88.4928</v>
       </c>
       <c r="K40" t="n">
-        <v>44.46</v>
+        <v>39.4852</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.396499731637652</v>
+        <v>-0.0700863631294189</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.680798674514903</v>
+        <v>-1.06552878457259</v>
       </c>
       <c r="N40" t="n">
-        <v>0.746154277888383</v>
+        <v>0.656095690344706</v>
       </c>
       <c r="O40" t="n">
-        <v>46.03</v>
+        <v>59.5698</v>
       </c>
       <c r="P40" t="n">
-        <v>57.105</v>
+        <v>69.6488</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.11</v>
+        <v>76.1919</v>
       </c>
       <c r="R40" t="n">
-        <v>75.38</v>
+        <v>88.4928</v>
       </c>
     </row>
     <row r="41">
@@ -2819,52 +2822,52 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D41" t="n">
-        <v>29.4757575757576</v>
+        <v>55.168045021645</v>
       </c>
       <c r="E41" t="n">
-        <v>5.64069857266214</v>
+        <v>10.0592188315974</v>
       </c>
       <c r="F41" t="n">
-        <v>29</v>
+        <v>56.36</v>
       </c>
       <c r="G41" t="n">
-        <v>29.16125</v>
+        <v>55.5633664864865</v>
       </c>
       <c r="H41" t="n">
-        <v>4.89258</v>
+        <v>10.7362479</v>
       </c>
       <c r="I41" t="n">
-        <v>18.1</v>
+        <v>30.92</v>
       </c>
       <c r="J41" t="n">
-        <v>49.2</v>
+        <v>75.38</v>
       </c>
       <c r="K41" t="n">
-        <v>31.1</v>
+        <v>44.46</v>
       </c>
       <c r="L41" t="n">
-        <v>0.684029100246517</v>
+        <v>-0.320329630246901</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08329336015017</v>
+        <v>-0.611929014517911</v>
       </c>
       <c r="N41" t="n">
-        <v>0.400866992145879</v>
+        <v>0.661848008022075</v>
       </c>
       <c r="O41" t="n">
-        <v>25.7</v>
+        <v>46.25</v>
       </c>
       <c r="P41" t="n">
-        <v>29</v>
+        <v>56.36</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.375</v>
+        <v>63.58</v>
       </c>
       <c r="R41" t="n">
-        <v>49.2</v>
+        <v>75.38</v>
       </c>
     </row>
     <row r="42">
@@ -2875,52 +2878,52 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177976262626263</v>
+        <v>32.5242424242424</v>
       </c>
       <c r="E42" t="n">
-        <v>0.155583213545775</v>
+        <v>9.50261388351836</v>
       </c>
       <c r="F42" t="n">
-        <v>0.15355</v>
+        <v>30</v>
       </c>
       <c r="G42" t="n">
-        <v>0.156605625</v>
+        <v>31.2816216216216</v>
       </c>
       <c r="H42" t="n">
-        <v>0.13899375</v>
+        <v>6.22692</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>67.1</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="L42" t="n">
-        <v>2.05203109407368</v>
+        <v>1.30006907328184</v>
       </c>
       <c r="M42" t="n">
-        <v>7.04264280132655</v>
+        <v>1.48532221284914</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0110568175269557</v>
+        <v>0.625226091120914</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0652</v>
+        <v>26.45</v>
       </c>
       <c r="P42" t="n">
-        <v>0.15355</v>
+        <v>30</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.252025</v>
+        <v>35.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>67.1</v>
       </c>
     </row>
     <row r="43">
@@ -2931,52 +2934,52 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D43" t="n">
-        <v>25.0201141414141</v>
+        <v>0.173101731601732</v>
       </c>
       <c r="E43" t="n">
-        <v>6.20925141293518</v>
+        <v>0.15024902776662</v>
       </c>
       <c r="F43" t="n">
-        <v>24.8354</v>
+        <v>0.1522</v>
       </c>
       <c r="G43" t="n">
-        <v>24.91794125</v>
+        <v>0.152798918918919</v>
       </c>
       <c r="H43" t="n">
-        <v>5.9222457</v>
+        <v>0.13803006</v>
       </c>
       <c r="I43" t="n">
-        <v>10.6684</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.4703</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>29.8019</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0.154200158235288</v>
+        <v>2.03921605219136</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.102871220811247</v>
+        <v>7.26992224997793</v>
       </c>
       <c r="N43" t="n">
-        <v>0.441272283089956</v>
+        <v>0.00988566024851052</v>
       </c>
       <c r="O43" t="n">
-        <v>20.9044</v>
+        <v>0.06115</v>
       </c>
       <c r="P43" t="n">
-        <v>24.8354</v>
+        <v>0.1522</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.271325</v>
+        <v>0.24865</v>
       </c>
       <c r="R43" t="n">
-        <v>40.4703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2987,52 +2990,52 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D44" t="n">
-        <v>-20.5590929292929</v>
+        <v>-66.121161038961</v>
       </c>
       <c r="E44" t="n">
-        <v>3.37537336999232</v>
+        <v>6.38892913385584</v>
       </c>
       <c r="F44" t="n">
-        <v>-20.1363</v>
+        <v>-66.0409</v>
       </c>
       <c r="G44" t="n">
-        <v>-20.35559125</v>
+        <v>-65.9913108108108</v>
       </c>
       <c r="H44" t="n">
-        <v>3.48373935</v>
+        <v>6.74568174000001</v>
       </c>
       <c r="I44" t="n">
-        <v>-28.9961</v>
+        <v>-84.3815</v>
       </c>
       <c r="J44" t="n">
-        <v>-12.5186</v>
+        <v>-49.9746</v>
       </c>
       <c r="K44" t="n">
-        <v>16.4775</v>
+        <v>34.4069</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.500286505680591</v>
+        <v>-0.215501283335497</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.283973377470924</v>
+        <v>-0.0688516495094791</v>
       </c>
       <c r="N44" t="n">
-        <v>0.239877340150004</v>
+        <v>0.42036067525983</v>
       </c>
       <c r="O44" t="n">
-        <v>-22.629225</v>
+        <v>-70.47265</v>
       </c>
       <c r="P44" t="n">
-        <v>-20.1363</v>
+        <v>-66.0409</v>
       </c>
       <c r="Q44" t="n">
-        <v>-18.124125</v>
+        <v>-61.2791</v>
       </c>
       <c r="R44" t="n">
-        <v>-12.5186</v>
+        <v>-49.9746</v>
       </c>
     </row>
     <row r="45">
@@ -3043,52 +3046,52 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D45" t="n">
-        <v>-16.8080661616162</v>
+        <v>-20.5707255411255</v>
       </c>
       <c r="E45" t="n">
-        <v>2.01173179210523</v>
+        <v>3.32534166644657</v>
       </c>
       <c r="F45" t="n">
-        <v>-17.1113</v>
+        <v>-20.1828</v>
       </c>
       <c r="G45" t="n">
-        <v>-16.92332</v>
+        <v>-20.3923902702703</v>
       </c>
       <c r="H45" t="n">
-        <v>1.55287524</v>
+        <v>3.1564554</v>
       </c>
       <c r="I45" t="n">
-        <v>-21.6791</v>
+        <v>-28.9961</v>
       </c>
       <c r="J45" t="n">
-        <v>-9.6151</v>
+        <v>-12.5186</v>
       </c>
       <c r="K45" t="n">
-        <v>12.064</v>
+        <v>16.4775</v>
       </c>
       <c r="L45" t="n">
-        <v>0.653867143020626</v>
+        <v>-0.435686814980047</v>
       </c>
       <c r="M45" t="n">
-        <v>0.941907890054473</v>
+        <v>-0.229109222303043</v>
       </c>
       <c r="N45" t="n">
-        <v>0.142967553064064</v>
+        <v>0.218791418575887</v>
       </c>
       <c r="O45" t="n">
-        <v>-17.991875</v>
+        <v>-22.6114</v>
       </c>
       <c r="P45" t="n">
-        <v>-17.1113</v>
+        <v>-20.1828</v>
       </c>
       <c r="Q45" t="n">
-        <v>-15.66745</v>
+        <v>-18.32805</v>
       </c>
       <c r="R45" t="n">
-        <v>-9.6151</v>
+        <v>-12.5186</v>
       </c>
     </row>
     <row r="46">
@@ -3099,52 +3102,52 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D46" t="n">
-        <v>-17998.2424242424</v>
+        <v>-16.5709831168831</v>
       </c>
       <c r="E46" t="n">
-        <v>13119.8049579186</v>
+        <v>2.05732941229977</v>
       </c>
       <c r="F46" t="n">
-        <v>-17460</v>
+        <v>-16.9372</v>
       </c>
       <c r="G46" t="n">
-        <v>-16630.30625</v>
+        <v>-16.6709178378378</v>
       </c>
       <c r="H46" t="n">
-        <v>14576.9232</v>
+        <v>1.73582808</v>
       </c>
       <c r="I46" t="n">
-        <v>-62160</v>
+        <v>-21.6791</v>
       </c>
       <c r="J46" t="n">
-        <v>-1713</v>
+        <v>-9.6151</v>
       </c>
       <c r="K46" t="n">
-        <v>60447</v>
+        <v>12.064</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.00075856050133</v>
+        <v>0.519233946889675</v>
       </c>
       <c r="M46" t="n">
-        <v>1.44592470981839</v>
+        <v>0.495210184266449</v>
       </c>
       <c r="N46" t="n">
-        <v>932.383938491379</v>
+        <v>0.135362337391322</v>
       </c>
       <c r="O46" t="n">
-        <v>-25438</v>
+        <v>-17.9044</v>
       </c>
       <c r="P46" t="n">
-        <v>-17460</v>
+        <v>-16.9372</v>
       </c>
       <c r="Q46" t="n">
-        <v>-5247</v>
+        <v>-15.3388</v>
       </c>
       <c r="R46" t="n">
-        <v>-1713</v>
+        <v>-9.6151</v>
       </c>
     </row>
     <row r="47">
@@ -3155,52 +3158,52 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D47" t="n">
-        <v>-52.0444444444444</v>
+        <v>-24885.8771904762</v>
       </c>
       <c r="E47" t="n">
-        <v>11.4298409173258</v>
+        <v>10988.5649203542</v>
       </c>
       <c r="F47" t="n">
-        <v>-50.9</v>
+        <v>-23083.0153</v>
       </c>
       <c r="G47" t="n">
-        <v>-51.876875</v>
+        <v>-23434.6598194595</v>
       </c>
       <c r="H47" t="n">
-        <v>14.0847</v>
+        <v>8631.67451622</v>
       </c>
       <c r="I47" t="n">
-        <v>-75.1</v>
+        <v>-62160</v>
       </c>
       <c r="J47" t="n">
-        <v>-30.9</v>
+        <v>-8226.0171</v>
       </c>
       <c r="K47" t="n">
-        <v>44.2</v>
+        <v>53933.9829</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.156060357092595</v>
+        <v>-1.35815055610682</v>
       </c>
       <c r="M47" t="n">
-        <v>-1.03631945245418</v>
+        <v>2.13327939752855</v>
       </c>
       <c r="N47" t="n">
-        <v>0.812283423801509</v>
+        <v>722.994491452252</v>
       </c>
       <c r="O47" t="n">
-        <v>-61.95</v>
+        <v>-29144</v>
       </c>
       <c r="P47" t="n">
-        <v>-50.9</v>
+        <v>-23083.0153</v>
       </c>
       <c r="Q47" t="n">
-        <v>-43.05</v>
+        <v>-17823</v>
       </c>
       <c r="R47" t="n">
-        <v>-30.9</v>
+        <v>-8226.0171</v>
       </c>
     </row>
     <row r="48">
@@ -3211,52 +3214,52 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.51944848484848</v>
+        <v>-52.0186147186147</v>
       </c>
       <c r="E48" t="n">
-        <v>3.58822174094715</v>
+        <v>11.4836916418383</v>
       </c>
       <c r="F48" t="n">
-        <v>-5.725</v>
+        <v>-51</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.917448125</v>
+        <v>-51.8378378378378</v>
       </c>
       <c r="H48" t="n">
-        <v>2.46363642</v>
+        <v>13.63992</v>
       </c>
       <c r="I48" t="n">
-        <v>-23.7029</v>
+        <v>-75.1</v>
       </c>
       <c r="J48" t="n">
-        <v>-2.5768</v>
+        <v>-30.9</v>
       </c>
       <c r="K48" t="n">
-        <v>21.1261</v>
+        <v>44.2</v>
       </c>
       <c r="L48" t="n">
-        <v>-2.13800808357561</v>
+        <v>-0.153231696302149</v>
       </c>
       <c r="M48" t="n">
-        <v>5.93168467706038</v>
+        <v>-1.04033912085574</v>
       </c>
       <c r="N48" t="n">
-        <v>0.255003815204236</v>
+        <v>0.755571438014282</v>
       </c>
       <c r="O48" t="n">
-        <v>-7.536525</v>
+        <v>-61.9</v>
       </c>
       <c r="P48" t="n">
-        <v>-5.725</v>
+        <v>-51</v>
       </c>
       <c r="Q48" t="n">
-        <v>-4.18745</v>
+        <v>-43</v>
       </c>
       <c r="R48" t="n">
-        <v>-2.5768</v>
+        <v>-30.9</v>
       </c>
     </row>
     <row r="49">
@@ -3267,52 +3270,52 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D49" t="n">
-        <v>66.1469696969697</v>
+        <v>-6.64905541125541</v>
       </c>
       <c r="E49" t="n">
-        <v>4.60342687505742</v>
+        <v>3.72655825578855</v>
       </c>
       <c r="F49" t="n">
-        <v>66.8</v>
+        <v>-5.725</v>
       </c>
       <c r="G49" t="n">
-        <v>66.34125</v>
+        <v>-6.00565945945946</v>
       </c>
       <c r="H49" t="n">
-        <v>5.1891</v>
+        <v>2.43250182</v>
       </c>
       <c r="I49" t="n">
-        <v>53.1</v>
+        <v>-23.7029</v>
       </c>
       <c r="J49" t="n">
-        <v>74.7</v>
+        <v>-2.5768</v>
       </c>
       <c r="K49" t="n">
-        <v>21.6</v>
+        <v>21.1261</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.42869780841254</v>
+        <v>-2.1903172732664</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.499300335447267</v>
+        <v>6.00639409876816</v>
       </c>
       <c r="N49" t="n">
-        <v>0.327151302484304</v>
+        <v>0.24518953207624</v>
       </c>
       <c r="O49" t="n">
-        <v>62.6</v>
+        <v>-7.6717</v>
       </c>
       <c r="P49" t="n">
-        <v>66.8</v>
+        <v>-5.725</v>
       </c>
       <c r="Q49" t="n">
-        <v>69.7</v>
+        <v>-4.4534</v>
       </c>
       <c r="R49" t="n">
-        <v>74.7</v>
+        <v>-2.5768</v>
       </c>
     </row>
     <row r="50">
@@ -3323,52 +3326,52 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D50" t="n">
-        <v>-81.1079217171717</v>
+        <v>66.9142857142857</v>
       </c>
       <c r="E50" t="n">
-        <v>101.218631456365</v>
+        <v>4.83309373290607</v>
       </c>
       <c r="F50" t="n">
-        <v>-50</v>
+        <v>68</v>
       </c>
       <c r="G50" t="n">
-        <v>-59.55124375</v>
+        <v>67.072972972973</v>
       </c>
       <c r="H50" t="n">
-        <v>58.52370762</v>
+        <v>4.89258</v>
       </c>
       <c r="I50" t="n">
-        <v>-481.8182</v>
+        <v>53.1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>79.7</v>
       </c>
       <c r="K50" t="n">
-        <v>481.8182</v>
+        <v>26.6</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.0799261766174</v>
+        <v>-0.346471924727411</v>
       </c>
       <c r="M50" t="n">
-        <v>4.17536464005051</v>
+        <v>-0.242364953518718</v>
       </c>
       <c r="N50" t="n">
-        <v>7.19329491167719</v>
+        <v>0.317994221346498</v>
       </c>
       <c r="O50" t="n">
-        <v>-100</v>
+        <v>63.1</v>
       </c>
       <c r="P50" t="n">
-        <v>-50</v>
+        <v>68</v>
       </c>
       <c r="Q50" t="n">
-        <v>-14.2857</v>
+        <v>70.2</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="51">
@@ -3379,52 +3382,52 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D51" t="n">
-        <v>-51.0501090909091</v>
+        <v>46.4327255411255</v>
       </c>
       <c r="E51" t="n">
-        <v>14.1627810937994</v>
+        <v>9.1999077832853</v>
       </c>
       <c r="F51" t="n">
-        <v>-50</v>
+        <v>47.2222</v>
       </c>
       <c r="G51" t="n">
-        <v>-50.028105625</v>
+        <v>46.4254016216216</v>
       </c>
       <c r="H51" t="n">
-        <v>12.35495058</v>
+        <v>7.14939372</v>
       </c>
       <c r="I51" t="n">
-        <v>-90.9091</v>
+        <v>17.8571</v>
       </c>
       <c r="J51" t="n">
-        <v>-25</v>
+        <v>70</v>
       </c>
       <c r="K51" t="n">
-        <v>65.9091</v>
+        <v>52.1429</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.64866715731297</v>
+        <v>-0.150601053716961</v>
       </c>
       <c r="M51" t="n">
-        <v>0.267160685303492</v>
+        <v>0.5769155068012</v>
       </c>
       <c r="N51" t="n">
-        <v>1.00650502492858</v>
+        <v>0.605309491948614</v>
       </c>
       <c r="O51" t="n">
-        <v>-58.6051</v>
+        <v>40</v>
       </c>
       <c r="P51" t="n">
-        <v>-50</v>
+        <v>47.2222</v>
       </c>
       <c r="Q51" t="n">
-        <v>-41.6667</v>
+        <v>52</v>
       </c>
       <c r="R51" t="n">
-        <v>-25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -3435,52 +3438,52 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D52" t="n">
-        <v>-13.0482257575758</v>
+        <v>-49.9346458874459</v>
       </c>
       <c r="E52" t="n">
-        <v>4.70073638405504</v>
+        <v>13.8925438945397</v>
       </c>
       <c r="F52" t="n">
-        <v>-12.0016</v>
+        <v>-47.9452</v>
       </c>
       <c r="G52" t="n">
-        <v>-12.55534375</v>
+        <v>-48.8322162162162</v>
       </c>
       <c r="H52" t="n">
-        <v>3.27921468</v>
+        <v>13.42687038</v>
       </c>
       <c r="I52" t="n">
-        <v>-31.8414</v>
+        <v>-90.9091</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.9885</v>
+        <v>-25</v>
       </c>
       <c r="K52" t="n">
-        <v>30.8529</v>
+        <v>65.9091</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.20259996462748</v>
+        <v>-0.69497117012113</v>
       </c>
       <c r="M52" t="n">
-        <v>2.12931809627764</v>
+        <v>0.41222595204442</v>
       </c>
       <c r="N52" t="n">
-        <v>0.334066788159806</v>
+        <v>0.914062280271536</v>
       </c>
       <c r="O52" t="n">
-        <v>-15.004075</v>
+        <v>-58.3333</v>
       </c>
       <c r="P52" t="n">
-        <v>-12.0016</v>
+        <v>-47.9452</v>
       </c>
       <c r="Q52" t="n">
-        <v>-10.172175</v>
+        <v>-40</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.9885</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="53">
@@ -3491,52 +3494,52 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D53" t="n">
-        <v>-22.7929803030303</v>
+        <v>-12.8531619047619</v>
       </c>
       <c r="E53" t="n">
-        <v>7.74165328189149</v>
+        <v>4.636061136505</v>
       </c>
       <c r="F53" t="n">
-        <v>-22.23875</v>
+        <v>-11.8953</v>
       </c>
       <c r="G53" t="n">
-        <v>-22.30484625</v>
+        <v>-12.3500859459459</v>
       </c>
       <c r="H53" t="n">
-        <v>7.78431717</v>
+        <v>3.1127187</v>
       </c>
       <c r="I53" t="n">
-        <v>-47.2233</v>
+        <v>-31.8414</v>
       </c>
       <c r="J53" t="n">
-        <v>-7.4217</v>
+        <v>-0.9885</v>
       </c>
       <c r="K53" t="n">
-        <v>39.8016</v>
+        <v>30.8529</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.544630150660539</v>
+        <v>-1.23494526645782</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0766555587105757</v>
+        <v>2.20199954851568</v>
       </c>
       <c r="N53" t="n">
-        <v>0.550175341825342</v>
+        <v>0.305030428270058</v>
       </c>
       <c r="O53" t="n">
-        <v>-27.725875</v>
+        <v>-14.5456</v>
       </c>
       <c r="P53" t="n">
-        <v>-22.23875</v>
+        <v>-11.8953</v>
       </c>
       <c r="Q53" t="n">
-        <v>-17.256725</v>
+        <v>-9.9048</v>
       </c>
       <c r="R53" t="n">
-        <v>-7.4217</v>
+        <v>-0.9885</v>
       </c>
     </row>
     <row r="54">
@@ -3547,52 +3550,52 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D54" t="n">
-        <v>80.9227272727273</v>
+        <v>-22.0533818181818</v>
       </c>
       <c r="E54" t="n">
-        <v>19.521817513277</v>
+        <v>7.85577768831258</v>
       </c>
       <c r="F54" t="n">
-        <v>80.2</v>
+        <v>-21.484</v>
       </c>
       <c r="G54" t="n">
-        <v>80.985625</v>
+        <v>-21.5770978378378</v>
       </c>
       <c r="H54" t="n">
-        <v>20.53401</v>
+        <v>7.5849816</v>
       </c>
       <c r="I54" t="n">
-        <v>31.6</v>
+        <v>-47.2233</v>
       </c>
       <c r="J54" t="n">
-        <v>133</v>
+        <v>-7.4217</v>
       </c>
       <c r="K54" t="n">
-        <v>101.4</v>
+        <v>39.8016</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.013125088349585</v>
+        <v>-0.549156457661298</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.353177704531993</v>
+        <v>0.0242973556916266</v>
       </c>
       <c r="N54" t="n">
-        <v>1.38735515946472</v>
+        <v>0.51687222452524</v>
       </c>
       <c r="O54" t="n">
-        <v>66.875</v>
+        <v>-26.5806</v>
       </c>
       <c r="P54" t="n">
-        <v>80.2</v>
+        <v>-21.484</v>
       </c>
       <c r="Q54" t="n">
-        <v>94.45</v>
+        <v>-16.368</v>
       </c>
       <c r="R54" t="n">
-        <v>133</v>
+        <v>-7.4217</v>
       </c>
     </row>
     <row r="55">
@@ -3603,52 +3606,52 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D55" t="n">
-        <v>28.8213939393939</v>
+        <v>78.7</v>
       </c>
       <c r="E55" t="n">
-        <v>8.70222692988128</v>
+        <v>19.7991216318125</v>
       </c>
       <c r="F55" t="n">
-        <v>28.00595</v>
+        <v>77.2</v>
       </c>
       <c r="G55" t="n">
-        <v>28.24688</v>
+        <v>78.6248648648649</v>
       </c>
       <c r="H55" t="n">
-        <v>6.23314692</v>
+        <v>20.16336</v>
       </c>
       <c r="I55" t="n">
-        <v>12.7308</v>
+        <v>31.1</v>
       </c>
       <c r="J55" t="n">
-        <v>68.1657</v>
+        <v>133</v>
       </c>
       <c r="K55" t="n">
-        <v>55.4349</v>
+        <v>101.9</v>
       </c>
       <c r="L55" t="n">
-        <v>1.75733854869569</v>
+        <v>0.0476812099522162</v>
       </c>
       <c r="M55" t="n">
-        <v>6.25528919462736</v>
+        <v>-0.388302335972133</v>
       </c>
       <c r="N55" t="n">
-        <v>0.618440338446591</v>
+        <v>1.30268656363656</v>
       </c>
       <c r="O55" t="n">
-        <v>24.4031</v>
+        <v>64.8</v>
       </c>
       <c r="P55" t="n">
-        <v>28.00595</v>
+        <v>77.2</v>
       </c>
       <c r="Q55" t="n">
-        <v>32.678625</v>
+        <v>92.9</v>
       </c>
       <c r="R55" t="n">
-        <v>68.1657</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -3659,52 +3662,52 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D56" t="n">
-        <v>9.14191919191919</v>
+        <v>29.3868917748918</v>
       </c>
       <c r="E56" t="n">
-        <v>0.852598508553212</v>
+        <v>8.82146171151933</v>
       </c>
       <c r="F56" t="n">
-        <v>9.26</v>
+        <v>28.5844</v>
       </c>
       <c r="G56" t="n">
-        <v>9.1943125</v>
+        <v>28.8332697297297</v>
       </c>
       <c r="H56" t="n">
-        <v>0.674583</v>
+        <v>6.84901896</v>
       </c>
       <c r="I56" t="n">
-        <v>6.92</v>
+        <v>12.7308</v>
       </c>
       <c r="J56" t="n">
-        <v>11.32</v>
+        <v>68.6368</v>
       </c>
       <c r="K56" t="n">
-        <v>4.4</v>
+        <v>55.906</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.564287391747841</v>
+        <v>1.7640397930062</v>
       </c>
       <c r="M56" t="n">
-        <v>0.329014047247963</v>
+        <v>6.28406336606853</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0605915375957566</v>
+        <v>0.580409568511685</v>
       </c>
       <c r="O56" t="n">
-        <v>8.6725</v>
+        <v>24.95605</v>
       </c>
       <c r="P56" t="n">
-        <v>9.26</v>
+        <v>28.5844</v>
       </c>
       <c r="Q56" t="n">
-        <v>9.64</v>
+        <v>33.9777</v>
       </c>
       <c r="R56" t="n">
-        <v>11.32</v>
+        <v>68.6368</v>
       </c>
     </row>
     <row r="57">
@@ -3715,52 +3718,52 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D57" t="n">
-        <v>-14.697551010101</v>
+        <v>9.21731601731602</v>
       </c>
       <c r="E57" t="n">
-        <v>9.69740557584923</v>
+        <v>0.864509752832396</v>
       </c>
       <c r="F57" t="n">
-        <v>-13.6129</v>
+        <v>9.33</v>
       </c>
       <c r="G57" t="n">
-        <v>-14.31862125</v>
+        <v>9.27097297297297</v>
       </c>
       <c r="H57" t="n">
-        <v>11.90512974</v>
+        <v>0.711648000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>-42.3358</v>
+        <v>6.92</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.1459</v>
+        <v>11.32</v>
       </c>
       <c r="K57" t="n">
-        <v>42.1899</v>
+        <v>4.4</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.297055409708941</v>
+        <v>-0.563559517991028</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.790004512241786</v>
+        <v>0.291320169670226</v>
       </c>
       <c r="N57" t="n">
-        <v>0.689164605187315</v>
+        <v>0.0568805657185326</v>
       </c>
       <c r="O57" t="n">
-        <v>-21.94075</v>
+        <v>8.77</v>
       </c>
       <c r="P57" t="n">
-        <v>-13.6129</v>
+        <v>9.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>-7.118975</v>
+        <v>9.78</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.1459</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="58">
@@ -3771,52 +3774,52 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D58" t="n">
-        <v>-108.128758080808</v>
+        <v>53.810396969697</v>
       </c>
       <c r="E58" t="n">
-        <v>7.84400781568312</v>
+        <v>3.44128485414076</v>
       </c>
       <c r="F58" t="n">
-        <v>-108.4105</v>
+        <v>53.7829</v>
       </c>
       <c r="G58" t="n">
-        <v>-107.9563725</v>
+        <v>53.7850189189189</v>
       </c>
       <c r="H58" t="n">
-        <v>8.55430547999999</v>
+        <v>3.75853926</v>
       </c>
       <c r="I58" t="n">
-        <v>-126.5916</v>
+        <v>45.4225</v>
       </c>
       <c r="J58" t="n">
-        <v>-90.8852</v>
+        <v>63.4259</v>
       </c>
       <c r="K58" t="n">
-        <v>35.7064</v>
+        <v>18.0034</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.139306013846975</v>
+        <v>0.078242899209272</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.742058031615904</v>
+        <v>-0.510224008478499</v>
       </c>
       <c r="N58" t="n">
-        <v>0.557449361800882</v>
+        <v>0.22641992026213</v>
       </c>
       <c r="O58" t="n">
-        <v>-114.0457</v>
+        <v>51.10875</v>
       </c>
       <c r="P58" t="n">
-        <v>-108.4105</v>
+        <v>53.7829</v>
       </c>
       <c r="Q58" t="n">
-        <v>-102.396275</v>
+        <v>56.1911</v>
       </c>
       <c r="R58" t="n">
-        <v>-90.8852</v>
+        <v>63.4259</v>
       </c>
     </row>
     <row r="59">
@@ -3827,52 +3830,108 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D59" t="n">
-        <v>1.74146262626263</v>
+        <v>50.6850904761905</v>
       </c>
       <c r="E59" t="n">
-        <v>1.01897143911055</v>
+        <v>1.88525642308373</v>
       </c>
       <c r="F59" t="n">
-        <v>1.5435</v>
+        <v>50.5725</v>
       </c>
       <c r="G59" t="n">
-        <v>1.604493125</v>
+        <v>50.6335691891892</v>
       </c>
       <c r="H59" t="n">
-        <v>0.83462967</v>
+        <v>1.94991552000001</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4727</v>
+        <v>46.4473</v>
       </c>
       <c r="J59" t="n">
-        <v>5.685</v>
+        <v>55.4542</v>
       </c>
       <c r="K59" t="n">
-        <v>5.2123</v>
+        <v>9.0069</v>
       </c>
       <c r="L59" t="n">
-        <v>1.52862871922926</v>
+        <v>0.208969963141681</v>
       </c>
       <c r="M59" t="n">
-        <v>2.88173928908851</v>
+        <v>-0.436849504033321</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0724151469214252</v>
+        <v>0.124040765900173</v>
       </c>
       <c r="O59" t="n">
-        <v>1.010225</v>
+        <v>49.2954</v>
       </c>
       <c r="P59" t="n">
-        <v>1.5435</v>
+        <v>50.5725</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.1298</v>
+        <v>51.9278</v>
       </c>
       <c r="R59" t="n">
-        <v>5.685</v>
+        <v>55.4542</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="n">
+        <v>231</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.77105930735931</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.03900775035292</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.6005</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.64113945945946</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.78162672</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.9033</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5.9033</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.46806579671554</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.91190510301155</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0683616910421039</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.0813</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.6005</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.1219</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5.9033</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -638,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>9.5425819129425</v>
+        <v>9.53998987652012</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.21773750822643</v>
+        <v>-1.21579973996313</v>
       </c>
       <c r="N2" t="n">
-        <v>0.627855794391295</v>
+        <v>0.587145788914301</v>
       </c>
       <c r="O2" t="n">
         <v>9</v>
@@ -694,19 +694,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D3" t="n">
-        <v>2018</v>
+        <v>2018.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2.00434311043489</v>
+        <v>2.29563977513597</v>
       </c>
       <c r="F3" t="n">
-        <v>2018</v>
+        <v>2018.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2018</v>
+        <v>2018.5</v>
       </c>
       <c r="H3" t="n">
         <v>2.9652</v>
@@ -715,31 +715,31 @@
         <v>2015</v>
       </c>
       <c r="J3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.26511871966417</v>
+        <v>-1.25141772158818</v>
       </c>
       <c r="N3" t="n">
-        <v>0.131876094679157</v>
+        <v>0.141286861336473</v>
       </c>
       <c r="O3" t="n">
-        <v>2016</v>
+        <v>2016.75</v>
       </c>
       <c r="P3" t="n">
-        <v>2018</v>
+        <v>2018.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2020</v>
+        <v>2020.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4">
@@ -750,13 +750,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>9.5425819129425</v>
+        <v>9.53998987652012</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.21773750822643</v>
+        <v>-1.21579973996313</v>
       </c>
       <c r="N4" t="n">
-        <v>0.627855794391295</v>
+        <v>0.587145788914301</v>
       </c>
       <c r="O4" t="n">
         <v>9</v>
@@ -806,52 +806,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.7839826839827</v>
+        <v>-21.3344696969697</v>
       </c>
       <c r="E5" t="n">
-        <v>6.76545275837366</v>
+        <v>6.79160640706099</v>
       </c>
       <c r="F5" t="n">
-        <v>-20.4</v>
+        <v>-20.1</v>
       </c>
       <c r="G5" t="n">
-        <v>-20.9124324324324</v>
+        <v>-20.4929245283019</v>
       </c>
       <c r="H5" t="n">
-        <v>5.48562</v>
+        <v>5.1891</v>
       </c>
       <c r="I5" t="n">
         <v>-46.8</v>
       </c>
       <c r="J5" t="n">
-        <v>-11.5</v>
+        <v>-9.7</v>
       </c>
       <c r="K5" t="n">
-        <v>35.3</v>
+        <v>37.1</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.43759580859469</v>
+        <v>-1.38592803130759</v>
       </c>
       <c r="M5" t="n">
-        <v>2.64851471301439</v>
+        <v>2.56430068254742</v>
       </c>
       <c r="N5" t="n">
-        <v>0.44513411095422</v>
+        <v>0.417994479394963</v>
       </c>
       <c r="O5" t="n">
-        <v>-24.5</v>
+        <v>-24.4</v>
       </c>
       <c r="P5" t="n">
-        <v>-20.4</v>
+        <v>-20.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>-17.7</v>
+        <v>-17</v>
       </c>
       <c r="R5" t="n">
-        <v>-11.5</v>
+        <v>-9.7</v>
       </c>
     </row>
     <row r="6">
@@ -862,52 +862,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D6" t="n">
-        <v>-47.616758008658</v>
+        <v>-37.9022178030303</v>
       </c>
       <c r="E6" t="n">
-        <v>27.8510456884198</v>
+        <v>14.1713370051429</v>
       </c>
       <c r="F6" t="n">
-        <v>-38.5818</v>
+        <v>-35.01355</v>
       </c>
       <c r="G6" t="n">
-        <v>-43.3325583783784</v>
+        <v>-37.1719169811321</v>
       </c>
       <c r="H6" t="n">
-        <v>16.57665408</v>
+        <v>13.97298609</v>
       </c>
       <c r="I6" t="n">
-        <v>-156.0632</v>
+        <v>-78.3005</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-7.6649</v>
       </c>
       <c r="K6" t="n">
-        <v>156.0632</v>
+        <v>70.6356</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.60047950110619</v>
+        <v>-0.472770743613716</v>
       </c>
       <c r="M6" t="n">
-        <v>2.64904622179427</v>
+        <v>-0.102284597288735</v>
       </c>
       <c r="N6" t="n">
-        <v>1.83246427170978</v>
+        <v>0.872185500566815</v>
       </c>
       <c r="O6" t="n">
-        <v>-53.9495</v>
+        <v>-47.058175</v>
       </c>
       <c r="P6" t="n">
-        <v>-38.5818</v>
+        <v>-35.01355</v>
       </c>
       <c r="Q6" t="n">
-        <v>-30.3531</v>
+        <v>-28.778425</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-7.6649</v>
       </c>
     </row>
     <row r="7">
@@ -918,52 +918,52 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D7" t="n">
-        <v>-1207.97906493507</v>
+        <v>-10.2951704545455</v>
       </c>
       <c r="E7" t="n">
-        <v>318.929074210153</v>
+        <v>1.90795049663319</v>
       </c>
       <c r="F7" t="n">
-        <v>-1156.538</v>
+        <v>-10.06985</v>
       </c>
       <c r="G7" t="n">
-        <v>-1170.76435081081</v>
+        <v>-10.1932051886792</v>
       </c>
       <c r="H7" t="n">
-        <v>223.12077354</v>
+        <v>1.81433175</v>
       </c>
       <c r="I7" t="n">
-        <v>-2974.6221</v>
+        <v>-16.0729</v>
       </c>
       <c r="J7" t="n">
-        <v>-665.1757</v>
+        <v>-5.6616</v>
       </c>
       <c r="K7" t="n">
-        <v>2309.4464</v>
+        <v>10.4113</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.85291657734278</v>
+        <v>-0.512625694068176</v>
       </c>
       <c r="M7" t="n">
-        <v>6.2653416949261</v>
+        <v>0.170657187583654</v>
       </c>
       <c r="N7" t="n">
-        <v>20.983992494852</v>
+        <v>0.117426235672669</v>
       </c>
       <c r="O7" t="n">
-        <v>-1320.4333</v>
+        <v>-11.4445</v>
       </c>
       <c r="P7" t="n">
-        <v>-1156.538</v>
+        <v>-10.06985</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1013.40735</v>
+        <v>-9.052675</v>
       </c>
       <c r="R7" t="n">
-        <v>-665.1757</v>
+        <v>-5.6616</v>
       </c>
     </row>
     <row r="8">
@@ -974,52 +974,52 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D8" t="n">
-        <v>-60.7369064935065</v>
+        <v>-58.0169458333333</v>
       </c>
       <c r="E8" t="n">
-        <v>81.9662455796764</v>
+        <v>72.8766775234063</v>
       </c>
       <c r="F8" t="n">
-        <v>-16.5821</v>
+        <v>-17.6536</v>
       </c>
       <c r="G8" t="n">
-        <v>-45.4799881081081</v>
+        <v>-44.0395566037736</v>
       </c>
       <c r="H8" t="n">
-        <v>9.54408924</v>
+        <v>11.82618129</v>
       </c>
       <c r="I8" t="n">
-        <v>-487.7038</v>
+        <v>-353.6961</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.1227</v>
+        <v>-6.8324</v>
       </c>
       <c r="K8" t="n">
-        <v>481.5811</v>
+        <v>346.8637</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.85443157716463</v>
+        <v>-1.55928378969413</v>
       </c>
       <c r="M8" t="n">
-        <v>4.08100866246151</v>
+        <v>1.54165195673532</v>
       </c>
       <c r="N8" t="n">
-        <v>5.39298302086368</v>
+        <v>4.48524944698805</v>
       </c>
       <c r="O8" t="n">
-        <v>-123.33145</v>
+        <v>-69.11895</v>
       </c>
       <c r="P8" t="n">
-        <v>-16.5821</v>
+        <v>-17.6536</v>
       </c>
       <c r="Q8" t="n">
-        <v>-11.95675</v>
+        <v>-12.56755</v>
       </c>
       <c r="R8" t="n">
-        <v>-6.1227</v>
+        <v>-6.8324</v>
       </c>
     </row>
     <row r="9">
@@ -1030,52 +1030,52 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D9" t="n">
-        <v>74.3880341991342</v>
+        <v>74.822484469697</v>
       </c>
       <c r="E9" t="n">
-        <v>16.1802528189094</v>
+        <v>16.2550249129806</v>
       </c>
       <c r="F9" t="n">
-        <v>77.2337</v>
+        <v>77.7686</v>
       </c>
       <c r="G9" t="n">
-        <v>76.2150951351351</v>
+        <v>76.6805231132075</v>
       </c>
       <c r="H9" t="n">
-        <v>16.26945936</v>
+        <v>15.65581122</v>
       </c>
       <c r="I9" t="n">
         <v>26.6576</v>
       </c>
       <c r="J9" t="n">
-        <v>96.887</v>
+        <v>97.6</v>
       </c>
       <c r="K9" t="n">
-        <v>70.2294</v>
+        <v>70.9424</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.906704921935019</v>
+        <v>-0.911366880461811</v>
       </c>
       <c r="M9" t="n">
-        <v>0.365887854666314</v>
+        <v>0.33826902428227</v>
       </c>
       <c r="N9" t="n">
-        <v>1.0645824767079</v>
+        <v>1.00042762622249</v>
       </c>
       <c r="O9" t="n">
-        <v>65.30785</v>
+        <v>65.6019</v>
       </c>
       <c r="P9" t="n">
-        <v>77.2337</v>
+        <v>77.7686</v>
       </c>
       <c r="Q9" t="n">
-        <v>86.91245</v>
+        <v>87.6</v>
       </c>
       <c r="R9" t="n">
-        <v>96.887</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="10">
@@ -1086,22 +1086,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D10" t="n">
-        <v>69.5656272727273</v>
+        <v>69.1101303030303</v>
       </c>
       <c r="E10" t="n">
-        <v>22.3425408362163</v>
+        <v>22.5515276703881</v>
       </c>
       <c r="F10" t="n">
         <v>73.249</v>
       </c>
       <c r="G10" t="n">
-        <v>71.2603118918919</v>
+        <v>70.7630160377359</v>
       </c>
       <c r="H10" t="n">
-        <v>28.23671004</v>
+        <v>28.32247845</v>
       </c>
       <c r="I10" t="n">
         <v>19.4705</v>
@@ -1113,22 +1113,22 @@
         <v>78.9829</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.462442104655113</v>
+        <v>-0.454760059910701</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.0694127787625</v>
+        <v>-1.08852366371004</v>
       </c>
       <c r="N10" t="n">
-        <v>1.47003126128964</v>
+        <v>1.38795058240487</v>
       </c>
       <c r="O10" t="n">
-        <v>52.16775</v>
+        <v>49.43165</v>
       </c>
       <c r="P10" t="n">
         <v>73.249</v>
       </c>
       <c r="Q10" t="n">
-        <v>91.628</v>
+        <v>90.776725</v>
       </c>
       <c r="R10" t="n">
         <v>98.4534</v>
@@ -1142,22 +1142,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D11" t="n">
-        <v>92.8208922077922</v>
+        <v>92.843059469697</v>
       </c>
       <c r="E11" t="n">
-        <v>3.92057517336755</v>
+        <v>3.78595191071574</v>
       </c>
       <c r="F11" t="n">
-        <v>92.9723</v>
+        <v>93.01845</v>
       </c>
       <c r="G11" t="n">
-        <v>93.0977194594595</v>
+        <v>93.1141938679245</v>
       </c>
       <c r="H11" t="n">
-        <v>3.82629408000002</v>
+        <v>3.71331996</v>
       </c>
       <c r="I11" t="n">
         <v>78.9192</v>
@@ -1169,22 +1169,22 @@
         <v>20.3484</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.840591831443849</v>
+        <v>-0.87796296375491</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11580143010137</v>
+        <v>1.32597507329865</v>
       </c>
       <c r="N11" t="n">
-        <v>0.257954908053437</v>
+        <v>0.233009232733027</v>
       </c>
       <c r="O11" t="n">
-        <v>90.3572</v>
+        <v>90.6598</v>
       </c>
       <c r="P11" t="n">
-        <v>92.9723</v>
+        <v>93.01845</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.5463</v>
+        <v>95.5417</v>
       </c>
       <c r="R11" t="n">
         <v>99.2676</v>
@@ -1198,49 +1198,49 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.40601082251082</v>
+        <v>-1.48588333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>1.53069508516619</v>
+        <v>1.45091201577347</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8311</v>
+        <v>-0.9874</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.14035513513514</v>
+        <v>-1.21931650943396</v>
       </c>
       <c r="H12" t="n">
-        <v>0.98355684</v>
+        <v>0.9496053</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.1954</v>
+        <v>-8.7443</v>
       </c>
       <c r="J12" t="n">
         <v>-0.001</v>
       </c>
       <c r="K12" t="n">
-        <v>6.1944</v>
+        <v>8.7433</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.32830190183337</v>
+        <v>-1.97707531521138</v>
       </c>
       <c r="M12" t="n">
-        <v>0.81986332013928</v>
+        <v>4.85656434099007</v>
       </c>
       <c r="N12" t="n">
-        <v>0.100712342575168</v>
+        <v>0.089297461650693</v>
       </c>
       <c r="O12" t="n">
-        <v>-2.0751</v>
+        <v>-1.944025</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.8311</v>
+        <v>-0.9874</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.2493</v>
+        <v>-0.4793</v>
       </c>
       <c r="R12" t="n">
         <v>-0.001</v>
@@ -1254,22 +1254,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.50250692640693</v>
+        <v>-2.51297992424242</v>
       </c>
       <c r="E13" t="n">
-        <v>2.65420292008642</v>
+        <v>2.64971336183022</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.6244</v>
+        <v>-1.6201</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.93126756756757</v>
+        <v>-1.94328490566038</v>
       </c>
       <c r="H13" t="n">
-        <v>1.52159238</v>
+        <v>1.50246684</v>
       </c>
       <c r="I13" t="n">
         <v>-14.6154</v>
@@ -1281,19 +1281,19 @@
         <v>14.5728</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.22748418697297</v>
+        <v>-2.19962409490672</v>
       </c>
       <c r="M13" t="n">
-        <v>5.05379524942569</v>
+        <v>4.85792835031188</v>
       </c>
       <c r="N13" t="n">
-        <v>0.174633731003803</v>
+        <v>0.163078584187771</v>
       </c>
       <c r="O13" t="n">
-        <v>-2.98215</v>
+        <v>-2.995575</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.6244</v>
+        <v>-1.6201</v>
       </c>
       <c r="Q13" t="n">
         <v>-0.8492</v>
@@ -1310,22 +1310,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D14" t="n">
-        <v>-14.3578510822511</v>
+        <v>-14.3412871212121</v>
       </c>
       <c r="E14" t="n">
-        <v>14.5385870122532</v>
+        <v>14.5018927715218</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.7019</v>
+        <v>-8.49635</v>
       </c>
       <c r="G14" t="n">
-        <v>-11.9163794594595</v>
+        <v>-11.9172325471698</v>
       </c>
       <c r="H14" t="n">
-        <v>10.04861802</v>
+        <v>9.71999973</v>
       </c>
       <c r="I14" t="n">
         <v>-80.3336</v>
@@ -1337,22 +1337,22 @@
         <v>80.3004</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.40030649892849</v>
+        <v>-1.38332214193815</v>
       </c>
       <c r="M14" t="n">
-        <v>1.65281141382823</v>
+        <v>1.52058778222786</v>
       </c>
       <c r="N14" t="n">
-        <v>0.956568796703208</v>
+        <v>0.892529801634512</v>
       </c>
       <c r="O14" t="n">
-        <v>-22.95605</v>
+        <v>-22.081375</v>
       </c>
       <c r="P14" t="n">
-        <v>-8.7019</v>
+        <v>-8.49635</v>
       </c>
       <c r="Q14" t="n">
-        <v>-3.9523</v>
+        <v>-4.2675</v>
       </c>
       <c r="R14" t="n">
         <v>-0.0332</v>
@@ -1366,22 +1366,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.17050562770563</v>
+        <v>-5.01885568181818</v>
       </c>
       <c r="E15" t="n">
-        <v>3.06680121355949</v>
+        <v>3.04184190973922</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.5468</v>
+        <v>-4.4038</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.74484108108108</v>
+        <v>-4.5948858490566</v>
       </c>
       <c r="H15" t="n">
-        <v>2.69655288</v>
+        <v>2.60878296</v>
       </c>
       <c r="I15" t="n">
         <v>-16.8404</v>
@@ -1393,22 +1393,22 @@
         <v>15.8456</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.25550168127279</v>
+        <v>-1.27169460849606</v>
       </c>
       <c r="M15" t="n">
-        <v>1.39804345984343</v>
+        <v>1.42866184123953</v>
       </c>
       <c r="N15" t="n">
-        <v>0.201780705656614</v>
+        <v>0.18721242799661</v>
       </c>
       <c r="O15" t="n">
-        <v>-6.6165</v>
+        <v>-6.431775</v>
       </c>
       <c r="P15" t="n">
-        <v>-4.5468</v>
+        <v>-4.4038</v>
       </c>
       <c r="Q15" t="n">
-        <v>-2.8157</v>
+        <v>-2.7271</v>
       </c>
       <c r="R15" t="n">
         <v>-0.9948</v>
@@ -1422,52 +1422,52 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D16" t="n">
-        <v>-27.6978484848485</v>
+        <v>-25.0401799242424</v>
       </c>
       <c r="E16" t="n">
-        <v>23.8847418908369</v>
+        <v>20.2172769041863</v>
       </c>
       <c r="F16" t="n">
-        <v>-18.7991</v>
+        <v>-17.6787</v>
       </c>
       <c r="G16" t="n">
-        <v>-23.3575497297297</v>
+        <v>-21.7129929245283</v>
       </c>
       <c r="H16" t="n">
-        <v>13.69759314</v>
+        <v>12.49676127</v>
       </c>
       <c r="I16" t="n">
-        <v>-115.9706</v>
+        <v>-99.8001</v>
       </c>
       <c r="J16" t="n">
-        <v>-2</v>
+        <v>-2.0658</v>
       </c>
       <c r="K16" t="n">
-        <v>113.9706</v>
+        <v>97.7343</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.55607929631427</v>
+        <v>-1.48132440973788</v>
       </c>
       <c r="M16" t="n">
-        <v>1.85974944697755</v>
+        <v>1.78023390440123</v>
       </c>
       <c r="N16" t="n">
-        <v>1.57150064107527</v>
+        <v>1.24428737883916</v>
       </c>
       <c r="O16" t="n">
-        <v>-36.06175</v>
+        <v>-32.414475</v>
       </c>
       <c r="P16" t="n">
-        <v>-18.7991</v>
+        <v>-17.6787</v>
       </c>
       <c r="Q16" t="n">
-        <v>-10.99605</v>
+        <v>-10.3486</v>
       </c>
       <c r="R16" t="n">
-        <v>-2</v>
+        <v>-2.0658</v>
       </c>
     </row>
     <row r="17">
@@ -1478,52 +1478,52 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.70713376623377</v>
+        <v>-13.9192034090909</v>
       </c>
       <c r="E17" t="n">
-        <v>2.06247853880442</v>
+        <v>4.64792026868542</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.4952</v>
+        <v>-13.58225</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.55556216216216</v>
+        <v>-13.7317702830189</v>
       </c>
       <c r="H17" t="n">
-        <v>2.26155804</v>
+        <v>4.39309206</v>
       </c>
       <c r="I17" t="n">
-        <v>-9.4503</v>
+        <v>-26.1631</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.2873</v>
+        <v>-3.6726</v>
       </c>
       <c r="K17" t="n">
-        <v>9.163</v>
+        <v>22.4905</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.574900986621717</v>
+        <v>-0.372472719142489</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.31180667080484</v>
+        <v>-0.104837020086495</v>
       </c>
       <c r="N17" t="n">
-        <v>0.135701125042451</v>
+        <v>0.286059717912775</v>
       </c>
       <c r="O17" t="n">
-        <v>-5.0325</v>
+        <v>-16.82565</v>
       </c>
       <c r="P17" t="n">
-        <v>-3.4952</v>
+        <v>-13.58225</v>
       </c>
       <c r="Q17" t="n">
-        <v>-2.01295</v>
+        <v>-10.87205</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.2873</v>
+        <v>-3.6726</v>
       </c>
     </row>
     <row r="18">
@@ -1534,22 +1534,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.80834632034632</v>
+        <v>-2.83225378787879</v>
       </c>
       <c r="E18" t="n">
-        <v>1.05963682928423</v>
+        <v>1.03714199283106</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.722</v>
+        <v>-2.7775</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.75543243243243</v>
+        <v>-2.78732547169811</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0704372</v>
+        <v>0.9799986</v>
       </c>
       <c r="I18" t="n">
         <v>-5</v>
@@ -1561,22 +1561,22 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.370471512611058</v>
+        <v>-0.326861614820307</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.604027936039408</v>
+        <v>-0.541395501149338</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0697189847869353</v>
+        <v>0.0638316771274258</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.4185</v>
+        <v>-3.4235</v>
       </c>
       <c r="P18" t="n">
-        <v>-2.722</v>
+        <v>-2.7775</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.9975</v>
+        <v>-2.0975</v>
       </c>
       <c r="R18" t="n">
         <v>-1</v>
@@ -1590,22 +1590,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.84029523809524</v>
+        <v>-2.80664090909091</v>
       </c>
       <c r="E19" t="n">
-        <v>1.05777755560947</v>
+        <v>1.05974952998568</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.762</v>
+        <v>-2.666</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.76227135135135</v>
+        <v>-2.72275566037736</v>
       </c>
       <c r="H19" t="n">
-        <v>1.1475324</v>
+        <v>1.1141739</v>
       </c>
       <c r="I19" t="n">
         <v>-5</v>
@@ -1617,22 +1617,22 @@
         <v>3.835</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.492977527657122</v>
+        <v>-0.548295571363595</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.717820630154144</v>
+        <v>-0.676367470560937</v>
       </c>
       <c r="N19" t="n">
-        <v>0.069596653560365</v>
+        <v>0.0652230748552924</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.483</v>
+        <v>-3.44225</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.762</v>
+        <v>-2.666</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.943</v>
+        <v>-1.926</v>
       </c>
       <c r="R19" t="n">
         <v>-1.165</v>
@@ -1646,22 +1646,22 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D20" t="n">
-        <v>-70.3813852813853</v>
+        <v>-70.3772727272727</v>
       </c>
       <c r="E20" t="n">
-        <v>14.4303107858771</v>
+        <v>14.5120670433989</v>
       </c>
       <c r="F20" t="n">
-        <v>-72.5</v>
+        <v>-72.6</v>
       </c>
       <c r="G20" t="n">
-        <v>-71.5</v>
+        <v>-71.5287735849057</v>
       </c>
       <c r="H20" t="n">
-        <v>16.75338</v>
+        <v>16.45686</v>
       </c>
       <c r="I20" t="n">
         <v>-92.4</v>
@@ -1673,22 +1673,22 @@
         <v>65.8</v>
       </c>
       <c r="L20" t="n">
-        <v>0.695451700724247</v>
+        <v>0.717519139444562</v>
       </c>
       <c r="M20" t="n">
-        <v>0.13325850701242</v>
+        <v>0.131041957020004</v>
       </c>
       <c r="N20" t="n">
-        <v>0.949444744036405</v>
+        <v>0.893155984782005</v>
       </c>
       <c r="O20" t="n">
-        <v>-82.8</v>
+        <v>-82.7</v>
       </c>
       <c r="P20" t="n">
-        <v>-72.5</v>
+        <v>-72.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>-60.45</v>
+        <v>-60.275</v>
       </c>
       <c r="R20" t="n">
         <v>-26.6</v>
@@ -1702,52 +1702,52 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D21" t="n">
-        <v>70.1992735930736</v>
+        <v>69.797606439394</v>
       </c>
       <c r="E21" t="n">
-        <v>8.43024559452166</v>
+        <v>8.56156562587008</v>
       </c>
       <c r="F21" t="n">
-        <v>70.0661</v>
+        <v>69.74655</v>
       </c>
       <c r="G21" t="n">
-        <v>70.1824448648649</v>
+        <v>69.7560216981132</v>
       </c>
       <c r="H21" t="n">
-        <v>8.01879036000001</v>
+        <v>8.15140893</v>
       </c>
       <c r="I21" t="n">
         <v>49.3183</v>
       </c>
       <c r="J21" t="n">
-        <v>89.1027</v>
+        <v>90.5965</v>
       </c>
       <c r="K21" t="n">
-        <v>39.7844</v>
+        <v>41.2782</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00213065349595573</v>
+        <v>0.0297486939265979</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.333224040339086</v>
+        <v>-0.358733935643031</v>
       </c>
       <c r="N21" t="n">
-        <v>0.554669437784265</v>
+        <v>0.526927939002876</v>
       </c>
       <c r="O21" t="n">
-        <v>64.40775</v>
+        <v>63.749875</v>
       </c>
       <c r="P21" t="n">
-        <v>70.0661</v>
+        <v>69.74655</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.2446</v>
+        <v>75.041</v>
       </c>
       <c r="R21" t="n">
-        <v>89.1027</v>
+        <v>90.5965</v>
       </c>
     </row>
     <row r="22">
@@ -1758,52 +1758,52 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.47874545454545</v>
+        <v>-4.9407196969697</v>
       </c>
       <c r="E22" t="n">
-        <v>4.49643886718325</v>
+        <v>3.213052138202</v>
       </c>
       <c r="F22" t="n">
-        <v>-8.9062</v>
+        <v>-3.93</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.22436324324324</v>
+        <v>-4.39070754716981</v>
       </c>
       <c r="H22" t="n">
-        <v>4.75351212</v>
+        <v>2.260965</v>
       </c>
       <c r="I22" t="n">
-        <v>-21.4792</v>
+        <v>-14.99</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.4</v>
+        <v>-1.38</v>
       </c>
       <c r="K22" t="n">
-        <v>20.0792</v>
+        <v>13.61</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.445709731891015</v>
+        <v>-1.40764646771156</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0709832053805961</v>
+        <v>1.40660548406434</v>
       </c>
       <c r="N22" t="n">
-        <v>0.29584395739462</v>
+        <v>0.197749689142809</v>
       </c>
       <c r="O22" t="n">
-        <v>-11.4801</v>
+        <v>-6.1975</v>
       </c>
       <c r="P22" t="n">
-        <v>-8.9062</v>
+        <v>-3.93</v>
       </c>
       <c r="Q22" t="n">
-        <v>-4.57</v>
+        <v>-2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.4</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="23">
@@ -1814,52 +1814,52 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D23" t="n">
-        <v>77.4235069264069</v>
+        <v>96.8119428030303</v>
       </c>
       <c r="E23" t="n">
-        <v>3.47664906891487</v>
+        <v>4.73059665369475</v>
       </c>
       <c r="F23" t="n">
-        <v>77.4001</v>
+        <v>96.85</v>
       </c>
       <c r="G23" t="n">
-        <v>77.3172189189189</v>
+        <v>96.6266882075472</v>
       </c>
       <c r="H23" t="n">
-        <v>3.06423768</v>
+        <v>3.63236999999998</v>
       </c>
       <c r="I23" t="n">
-        <v>67.715</v>
+        <v>82.3144</v>
       </c>
       <c r="J23" t="n">
-        <v>89.0269</v>
+        <v>115.2</v>
       </c>
       <c r="K23" t="n">
-        <v>21.3119</v>
+        <v>32.8856</v>
       </c>
       <c r="L23" t="n">
-        <v>0.445640285363873</v>
+        <v>0.850617160401366</v>
       </c>
       <c r="M23" t="n">
-        <v>1.10876639110523</v>
+        <v>3.19132866850116</v>
       </c>
       <c r="N23" t="n">
-        <v>0.228746714767284</v>
+        <v>0.291148097662565</v>
       </c>
       <c r="O23" t="n">
-        <v>75.16275</v>
+        <v>94.2</v>
       </c>
       <c r="P23" t="n">
-        <v>77.4001</v>
+        <v>96.85</v>
       </c>
       <c r="Q23" t="n">
-        <v>79.10315</v>
+        <v>98.7</v>
       </c>
       <c r="R23" t="n">
-        <v>89.0269</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="24">
@@ -1870,52 +1870,52 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D24" t="n">
-        <v>72.6088238095238</v>
+        <v>84.9122450757576</v>
       </c>
       <c r="E24" t="n">
-        <v>4.98187802597053</v>
+        <v>6.50734774165129</v>
       </c>
       <c r="F24" t="n">
-        <v>72.0846</v>
+        <v>83.95</v>
       </c>
       <c r="G24" t="n">
-        <v>72.2708913513514</v>
+        <v>84.5881325471698</v>
       </c>
       <c r="H24" t="n">
-        <v>4.32904374</v>
+        <v>5.41148999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>61.2274</v>
+        <v>71.3899</v>
       </c>
       <c r="J24" t="n">
-        <v>92.4885</v>
+        <v>112.5</v>
       </c>
       <c r="K24" t="n">
-        <v>31.2611</v>
+        <v>41.1101</v>
       </c>
       <c r="L24" t="n">
-        <v>1.19930819280021</v>
+        <v>1.23594681047722</v>
       </c>
       <c r="M24" t="n">
-        <v>3.2427608787226</v>
+        <v>3.59507895736238</v>
       </c>
       <c r="N24" t="n">
-        <v>0.327783509127014</v>
+        <v>0.400499567920425</v>
       </c>
       <c r="O24" t="n">
-        <v>69.2613</v>
+        <v>80.8</v>
       </c>
       <c r="P24" t="n">
-        <v>72.0846</v>
+        <v>83.95</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.17355</v>
+        <v>88.7</v>
       </c>
       <c r="R24" t="n">
-        <v>92.4885</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="25">
@@ -1926,52 +1926,52 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D25" t="n">
-        <v>49.5839242424242</v>
+        <v>49.6691166666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.473309818122854</v>
+        <v>0.517029801035132</v>
       </c>
       <c r="F25" t="n">
-        <v>49.5689</v>
+        <v>49.6164</v>
       </c>
       <c r="G25" t="n">
-        <v>49.5799740540541</v>
+        <v>49.661708490566</v>
       </c>
       <c r="H25" t="n">
-        <v>0.364423080000004</v>
+        <v>0.45078453</v>
       </c>
       <c r="I25" t="n">
         <v>48.1734</v>
       </c>
       <c r="J25" t="n">
-        <v>51.1584</v>
+        <v>51.1731</v>
       </c>
       <c r="K25" t="n">
-        <v>2.985</v>
+        <v>2.9997</v>
       </c>
       <c r="L25" t="n">
-        <v>0.136869483077396</v>
+        <v>0.175528673800399</v>
       </c>
       <c r="M25" t="n">
-        <v>1.10209717312996</v>
+        <v>0.586431915738046</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0311414997075032</v>
+        <v>0.0318209845450811</v>
       </c>
       <c r="O25" t="n">
-        <v>49.3279</v>
+        <v>49.37525</v>
       </c>
       <c r="P25" t="n">
-        <v>49.5689</v>
+        <v>49.6164</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.82125</v>
+        <v>49.973075</v>
       </c>
       <c r="R25" t="n">
-        <v>51.1584</v>
+        <v>51.1731</v>
       </c>
     </row>
     <row r="26">
@@ -1982,22 +1982,22 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D26" t="n">
-        <v>74.953461038961</v>
+        <v>75.4853454545455</v>
       </c>
       <c r="E26" t="n">
-        <v>8.03010860840227</v>
+        <v>8.01246769283025</v>
       </c>
       <c r="F26" t="n">
-        <v>75.7921</v>
+        <v>76.5626</v>
       </c>
       <c r="G26" t="n">
-        <v>75.4863686486487</v>
+        <v>76.0406844339623</v>
       </c>
       <c r="H26" t="n">
-        <v>7.44561720000001</v>
+        <v>7.54465488</v>
       </c>
       <c r="I26" t="n">
         <v>52.729</v>
@@ -2009,22 +2009,22 @@
         <v>37.9495</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.554915900058252</v>
+        <v>-0.584593725861594</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.172364426796058</v>
+        <v>-0.137155315816888</v>
       </c>
       <c r="N26" t="n">
-        <v>0.528342356960931</v>
+        <v>0.493133297367105</v>
       </c>
       <c r="O26" t="n">
-        <v>70.4776</v>
+        <v>71.42275</v>
       </c>
       <c r="P26" t="n">
-        <v>75.7921</v>
+        <v>76.5626</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.4882</v>
+        <v>81.57665</v>
       </c>
       <c r="R26" t="n">
         <v>90.6785</v>
@@ -2038,22 +2038,22 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D27" t="n">
-        <v>44.2880722943723</v>
+        <v>44.1346390151515</v>
       </c>
       <c r="E27" t="n">
-        <v>9.23800089345579</v>
+        <v>9.17000315081945</v>
       </c>
       <c r="F27" t="n">
-        <v>45.1</v>
+        <v>44.8829</v>
       </c>
       <c r="G27" t="n">
-        <v>44.4946281081081</v>
+        <v>44.3122933962264</v>
       </c>
       <c r="H27" t="n">
-        <v>8.74734</v>
+        <v>8.7021207</v>
       </c>
       <c r="I27" t="n">
         <v>20.9</v>
@@ -2065,22 +2065,22 @@
         <v>46.1431</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.205309304638917</v>
+        <v>-0.176280739514986</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.125720649869947</v>
+        <v>-0.115816683312068</v>
       </c>
       <c r="N27" t="n">
-        <v>0.60781583458891</v>
+        <v>0.564374680059772</v>
       </c>
       <c r="O27" t="n">
-        <v>38.4358</v>
+        <v>38.35</v>
       </c>
       <c r="P27" t="n">
-        <v>45.1</v>
+        <v>44.8829</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.3101</v>
+        <v>50.02805</v>
       </c>
       <c r="R27" t="n">
         <v>67.0431</v>
@@ -2094,52 +2094,52 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D28" t="n">
-        <v>52.0825445887446</v>
+        <v>55.4406795454545</v>
       </c>
       <c r="E28" t="n">
-        <v>15.6858080375682</v>
+        <v>17.356802966763</v>
       </c>
       <c r="F28" t="n">
-        <v>52.9</v>
+        <v>55.1979</v>
       </c>
       <c r="G28" t="n">
-        <v>52.3753821621622</v>
+        <v>55.7144198113208</v>
       </c>
       <c r="H28" t="n">
-        <v>17.7912</v>
+        <v>20.81259054</v>
       </c>
       <c r="I28" t="n">
         <v>13.1</v>
       </c>
       <c r="J28" t="n">
-        <v>86.2</v>
+        <v>89.7659</v>
       </c>
       <c r="K28" t="n">
-        <v>73.1</v>
+        <v>76.6659</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.133785708660951</v>
+        <v>-0.113751527878338</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.616335722750101</v>
+        <v>-0.751413339535804</v>
       </c>
       <c r="N28" t="n">
-        <v>1.03205039851315</v>
+        <v>1.06823737790668</v>
       </c>
       <c r="O28" t="n">
-        <v>40.4</v>
+        <v>41.4348</v>
       </c>
       <c r="P28" t="n">
-        <v>52.9</v>
+        <v>55.1979</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.18115</v>
+        <v>69.35</v>
       </c>
       <c r="R28" t="n">
-        <v>86.2</v>
+        <v>89.7659</v>
       </c>
     </row>
     <row r="29">
@@ -2150,49 +2150,49 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.525296536796537</v>
+        <v>-0.567664772727273</v>
       </c>
       <c r="E29" t="n">
-        <v>0.552292426627139</v>
+        <v>0.590981086732895</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.3288</v>
+        <v>-0.38755</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.444930810810811</v>
+        <v>-0.462543867924528</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4366257</v>
+        <v>0.36864849</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.3837</v>
+        <v>-3.5211</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3837</v>
+        <v>3.5211</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.7389362567293</v>
+        <v>-2.04538012927087</v>
       </c>
       <c r="M29" t="n">
-        <v>4.38899488713233</v>
+        <v>5.20419793749058</v>
       </c>
       <c r="N29" t="n">
-        <v>0.036338173821277</v>
+        <v>0.0363723715532692</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.92775</v>
+        <v>-0.762325</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.3288</v>
+        <v>-0.38755</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.10225</v>
+        <v>-0.160775</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2206,52 +2206,52 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D30" t="n">
-        <v>75.0434199134199</v>
+        <v>73.5056818181818</v>
       </c>
       <c r="E30" t="n">
-        <v>0.685505837568771</v>
+        <v>2.90562681945991</v>
       </c>
       <c r="F30" t="n">
-        <v>75.12</v>
+        <v>74.35</v>
       </c>
       <c r="G30" t="n">
-        <v>75.0948648648649</v>
+        <v>73.847641509434</v>
       </c>
       <c r="H30" t="n">
-        <v>0.563387999999993</v>
+        <v>2.14977</v>
       </c>
       <c r="I30" t="n">
-        <v>72.8</v>
+        <v>65.2</v>
       </c>
       <c r="J30" t="n">
-        <v>76.7</v>
+        <v>78</v>
       </c>
       <c r="K30" t="n">
-        <v>3.90000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.876522866891536</v>
+        <v>-0.9896189430625</v>
       </c>
       <c r="M30" t="n">
-        <v>1.67100190977188</v>
+        <v>0.0719538932775428</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0451029727733189</v>
+        <v>0.178828968718429</v>
       </c>
       <c r="O30" t="n">
-        <v>74.74</v>
+        <v>72.575</v>
       </c>
       <c r="P30" t="n">
-        <v>75.12</v>
+        <v>74.35</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.485</v>
+        <v>75.7</v>
       </c>
       <c r="R30" t="n">
-        <v>76.7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -2262,52 +2262,52 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.16977835497836</v>
+        <v>-6.3167446969697</v>
       </c>
       <c r="E31" t="n">
-        <v>2.46561529751816</v>
+        <v>2.59114325764609</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.836</v>
+        <v>-6.00065</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.02390108108108</v>
+        <v>-6.14929811320755</v>
       </c>
       <c r="H31" t="n">
-        <v>2.60300082</v>
+        <v>2.61589944</v>
       </c>
       <c r="I31" t="n">
-        <v>-14.458</v>
+        <v>-15.1215</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.4122</v>
+        <v>-1.2506</v>
       </c>
       <c r="K31" t="n">
-        <v>13.0458</v>
+        <v>13.8709</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.603657736237277</v>
+        <v>-0.678161691603759</v>
       </c>
       <c r="M31" t="n">
-        <v>0.214384804904695</v>
+        <v>0.448568160972226</v>
       </c>
       <c r="N31" t="n">
-        <v>0.162225576412081</v>
+        <v>0.159473843462351</v>
       </c>
       <c r="O31" t="n">
-        <v>-7.846</v>
+        <v>-7.8567</v>
       </c>
       <c r="P31" t="n">
-        <v>-5.836</v>
+        <v>-6.00065</v>
       </c>
       <c r="Q31" t="n">
-        <v>-4.34555</v>
+        <v>-4.41875</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.4122</v>
+        <v>-1.2506</v>
       </c>
     </row>
     <row r="32">
@@ -2318,52 +2318,52 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D32" t="n">
-        <v>-157.066015151515</v>
+        <v>-158.692424621212</v>
       </c>
       <c r="E32" t="n">
-        <v>38.8562004565181</v>
+        <v>37.9936957168532</v>
       </c>
       <c r="F32" t="n">
-        <v>-151.7264</v>
+        <v>-152.7512</v>
       </c>
       <c r="G32" t="n">
-        <v>-154.167411891892</v>
+        <v>-157.574323584906</v>
       </c>
       <c r="H32" t="n">
-        <v>30.11887074</v>
+        <v>34.47726996</v>
       </c>
       <c r="I32" t="n">
-        <v>-317.882</v>
+        <v>-270.3106</v>
       </c>
       <c r="J32" t="n">
-        <v>-72.2861</v>
+        <v>-66.0413</v>
       </c>
       <c r="K32" t="n">
-        <v>245.5959</v>
+        <v>204.2693</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.826052431435886</v>
+        <v>-0.330854966570081</v>
       </c>
       <c r="M32" t="n">
-        <v>1.17488869412878</v>
+        <v>0.00345374790612185</v>
       </c>
       <c r="N32" t="n">
-        <v>2.55655029500626</v>
+        <v>2.33835032680127</v>
       </c>
       <c r="O32" t="n">
-        <v>-175.84255</v>
+        <v>-185.696125</v>
       </c>
       <c r="P32" t="n">
-        <v>-151.7264</v>
+        <v>-152.7512</v>
       </c>
       <c r="Q32" t="n">
-        <v>-132.8233</v>
+        <v>-134.067375</v>
       </c>
       <c r="R32" t="n">
-        <v>-72.2861</v>
+        <v>-66.0413</v>
       </c>
     </row>
     <row r="33">
@@ -2374,52 +2374,52 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D33" t="n">
-        <v>-84.9773082251082</v>
+        <v>-84.1626693181818</v>
       </c>
       <c r="E33" t="n">
-        <v>24.6648118682109</v>
+        <v>24.2027779997342</v>
       </c>
       <c r="F33" t="n">
-        <v>-80.9955</v>
+        <v>-80.3999</v>
       </c>
       <c r="G33" t="n">
-        <v>-82.3371259459459</v>
+        <v>-81.8531537735849</v>
       </c>
       <c r="H33" t="n">
-        <v>22.8846723</v>
+        <v>23.50654887</v>
       </c>
       <c r="I33" t="n">
-        <v>-192.4798</v>
+        <v>-173.2058</v>
       </c>
       <c r="J33" t="n">
-        <v>-49.0617</v>
+        <v>-45.8065</v>
       </c>
       <c r="K33" t="n">
-        <v>143.4181</v>
+        <v>127.3993</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.14650700990585</v>
+        <v>-0.938675547523016</v>
       </c>
       <c r="M33" t="n">
-        <v>1.66963965478454</v>
+        <v>0.908432218117132</v>
       </c>
       <c r="N33" t="n">
-        <v>1.62282547745532</v>
+        <v>1.48957801491454</v>
       </c>
       <c r="O33" t="n">
-        <v>-99.3906</v>
+        <v>-98.57125</v>
       </c>
       <c r="P33" t="n">
-        <v>-80.9955</v>
+        <v>-80.3999</v>
       </c>
       <c r="Q33" t="n">
-        <v>-66.5745</v>
+        <v>-65.257375</v>
       </c>
       <c r="R33" t="n">
-        <v>-49.0617</v>
+        <v>-45.8065</v>
       </c>
     </row>
     <row r="34">
@@ -2430,52 +2430,52 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D34" t="n">
-        <v>-44.0273004329004</v>
+        <v>-32.451240530303</v>
       </c>
       <c r="E34" t="n">
-        <v>18.5342345935569</v>
+        <v>8.1960890080835</v>
       </c>
       <c r="F34" t="n">
-        <v>-39</v>
+        <v>-32.6</v>
       </c>
       <c r="G34" t="n">
-        <v>-42.5421967567568</v>
+        <v>-32.3033382075472</v>
       </c>
       <c r="H34" t="n">
-        <v>11.56428</v>
+        <v>8.5227261</v>
       </c>
       <c r="I34" t="n">
-        <v>-100</v>
+        <v>-48.9</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-16.0183</v>
       </c>
       <c r="K34" t="n">
-        <v>100</v>
+        <v>32.8817</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.73874308279866</v>
+        <v>-0.10417452739267</v>
       </c>
       <c r="M34" t="n">
-        <v>0.73322536108017</v>
+        <v>-0.756475361008559</v>
       </c>
       <c r="N34" t="n">
-        <v>1.21946310656127</v>
+        <v>0.504434408102159</v>
       </c>
       <c r="O34" t="n">
-        <v>-52</v>
+        <v>-37.6</v>
       </c>
       <c r="P34" t="n">
-        <v>-39</v>
+        <v>-32.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>-32.7</v>
+        <v>-26.838075</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-16.0183</v>
       </c>
     </row>
     <row r="35">
@@ -2486,22 +2486,22 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.470918181818182</v>
+        <v>-0.471006439393939</v>
       </c>
       <c r="E35" t="n">
-        <v>0.282555364360427</v>
+        <v>0.281130396379087</v>
       </c>
       <c r="F35" t="n">
         <v>-0.454</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.45714</v>
+        <v>-0.45746320754717</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2735397</v>
+        <v>0.27339144</v>
       </c>
       <c r="I35" t="n">
         <v>-1.3995</v>
@@ -2513,22 +2513,22 @@
         <v>1.3845</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.643695436651762</v>
+        <v>-0.621347385201182</v>
       </c>
       <c r="M35" t="n">
-        <v>0.66373077144703</v>
+        <v>0.605315573695892</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0185907780900918</v>
+        <v>0.0173023798249563</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.6585</v>
+        <v>-0.65635</v>
       </c>
       <c r="P35" t="n">
         <v>-0.454</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.2964</v>
+        <v>-0.2914</v>
       </c>
       <c r="R35" t="n">
         <v>-0.015</v>
@@ -2542,52 +2542,52 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D36" t="n">
-        <v>-11.3556935064935</v>
+        <v>-11.4803636363636</v>
       </c>
       <c r="E36" t="n">
-        <v>9.98067016954365</v>
+        <v>10.2270310615598</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.183</v>
+        <v>-8.7728</v>
       </c>
       <c r="G36" t="n">
-        <v>-10.0535405405405</v>
+        <v>-10.255991509434</v>
       </c>
       <c r="H36" t="n">
-        <v>8.63273502</v>
+        <v>9.58597269</v>
       </c>
       <c r="I36" t="n">
-        <v>-38.3136</v>
+        <v>-35.5851</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.0096</v>
+        <v>-0.0256</v>
       </c>
       <c r="K36" t="n">
-        <v>38.304</v>
+        <v>35.5595</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.935372614657849</v>
+        <v>-0.866318384860841</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.207706212254538</v>
+        <v>-0.420874594925476</v>
       </c>
       <c r="N36" t="n">
-        <v>0.656679885488565</v>
+        <v>0.629430250829675</v>
       </c>
       <c r="O36" t="n">
-        <v>-16.1882</v>
+        <v>-17.9097</v>
       </c>
       <c r="P36" t="n">
-        <v>-8.183</v>
+        <v>-8.7728</v>
       </c>
       <c r="Q36" t="n">
-        <v>-3.0309</v>
+        <v>-2.5363</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0096</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="37">
@@ -2598,22 +2598,22 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D37" t="n">
-        <v>42.0138904761905</v>
+        <v>42.0902174242424</v>
       </c>
       <c r="E37" t="n">
-        <v>9.689142719968</v>
+        <v>9.51452846532554</v>
       </c>
       <c r="F37" t="n">
-        <v>41.4</v>
+        <v>41.3899</v>
       </c>
       <c r="G37" t="n">
-        <v>41.8989556756757</v>
+        <v>41.9444037735849</v>
       </c>
       <c r="H37" t="n">
-        <v>10.3782</v>
+        <v>9.83675448</v>
       </c>
       <c r="I37" t="n">
         <v>19.3</v>
@@ -2625,22 +2625,22 @@
         <v>49.2</v>
       </c>
       <c r="L37" t="n">
-        <v>0.156153714100706</v>
+        <v>0.184013640412268</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.214351086058845</v>
+        <v>-0.197106566807049</v>
       </c>
       <c r="N37" t="n">
-        <v>0.637498787531005</v>
+        <v>0.585578747381112</v>
       </c>
       <c r="O37" t="n">
-        <v>34.25</v>
+        <v>34.85</v>
       </c>
       <c r="P37" t="n">
-        <v>41.4</v>
+        <v>41.3899</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.2773</v>
+        <v>47.95975</v>
       </c>
       <c r="R37" t="n">
         <v>68.5</v>
@@ -2654,52 +2654,52 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D38" t="n">
-        <v>87.3301805194805</v>
+        <v>88.102903030303</v>
       </c>
       <c r="E38" t="n">
-        <v>5.69936586387214</v>
+        <v>5.84830532134103</v>
       </c>
       <c r="F38" t="n">
-        <v>87.7868</v>
+        <v>88.5888</v>
       </c>
       <c r="G38" t="n">
-        <v>87.6373324324324</v>
+        <v>88.4582320754717</v>
       </c>
       <c r="H38" t="n">
-        <v>5.75174670000001</v>
+        <v>5.73751373999998</v>
       </c>
       <c r="I38" t="n">
         <v>69.4404</v>
       </c>
       <c r="J38" t="n">
-        <v>97.8688</v>
+        <v>99.0078</v>
       </c>
       <c r="K38" t="n">
-        <v>28.4284</v>
+        <v>29.5674</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.515645192422703</v>
+        <v>-0.550401984025053</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0211575098101813</v>
+        <v>-0.0593881618113672</v>
       </c>
       <c r="N38" t="n">
-        <v>0.374990743033052</v>
+        <v>0.359938310853116</v>
       </c>
       <c r="O38" t="n">
-        <v>83.9518</v>
+        <v>84.617725</v>
       </c>
       <c r="P38" t="n">
-        <v>87.7868</v>
+        <v>88.5888</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.5301</v>
+        <v>92.4587</v>
       </c>
       <c r="R38" t="n">
-        <v>97.8688</v>
+        <v>99.0078</v>
       </c>
     </row>
     <row r="39">
@@ -2710,22 +2710,22 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D39" t="n">
-        <v>-4802396.7855026</v>
+        <v>-4750775.55059508</v>
       </c>
       <c r="E39" t="n">
-        <v>5036841.25808115</v>
+        <v>4966358.79423121</v>
       </c>
       <c r="F39" t="n">
         <v>-3400497.14</v>
       </c>
       <c r="G39" t="n">
-        <v>-4012666.71100541</v>
+        <v>-3978266.05039387</v>
       </c>
       <c r="H39" t="n">
-        <v>4748957.62884228</v>
+        <v>4749115.29015714</v>
       </c>
       <c r="I39" t="n">
         <v>-19915997.62</v>
@@ -2737,22 +2737,22 @@
         <v>19915997.62</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.05961720163973</v>
+        <v>-1.06780866747433</v>
       </c>
       <c r="M39" t="n">
-        <v>0.31083944765094</v>
+        <v>0.35375987281147</v>
       </c>
       <c r="N39" t="n">
-        <v>331399.824299779</v>
+        <v>305658.25436012</v>
       </c>
       <c r="O39" t="n">
-        <v>-7990317.26</v>
+        <v>-7803441.333875</v>
       </c>
       <c r="P39" t="n">
         <v>-3400497.14</v>
       </c>
       <c r="Q39" t="n">
-        <v>-245009.92</v>
+        <v>-247881.13</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -2766,52 +2766,52 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D40" t="n">
-        <v>68.3980614718615</v>
+        <v>69.3691272727273</v>
       </c>
       <c r="E40" t="n">
-        <v>9.9717911720681</v>
+        <v>9.90212991143337</v>
       </c>
       <c r="F40" t="n">
-        <v>69.6488</v>
+        <v>70.5869</v>
       </c>
       <c r="G40" t="n">
-        <v>68.4494972972973</v>
+        <v>69.5550504716981</v>
       </c>
       <c r="H40" t="n">
-        <v>11.98355928</v>
+        <v>11.64033738</v>
       </c>
       <c r="I40" t="n">
         <v>49.0076</v>
       </c>
       <c r="J40" t="n">
-        <v>88.4928</v>
+        <v>90.2528</v>
       </c>
       <c r="K40" t="n">
-        <v>39.4852</v>
+        <v>41.2452</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0700863631294189</v>
+        <v>-0.184283582929009</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.06552878457259</v>
+        <v>-0.966890422085326</v>
       </c>
       <c r="N40" t="n">
-        <v>0.656095690344706</v>
+        <v>0.609433967334691</v>
       </c>
       <c r="O40" t="n">
-        <v>59.5698</v>
+        <v>61.44355</v>
       </c>
       <c r="P40" t="n">
-        <v>69.6488</v>
+        <v>70.5869</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.1919</v>
+        <v>77.03115</v>
       </c>
       <c r="R40" t="n">
-        <v>88.4928</v>
+        <v>90.2528</v>
       </c>
     </row>
     <row r="41">
@@ -2822,22 +2822,22 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D41" t="n">
-        <v>55.168045021645</v>
+        <v>54.8786242424242</v>
       </c>
       <c r="E41" t="n">
-        <v>10.0592188315974</v>
+        <v>9.70640982622799</v>
       </c>
       <c r="F41" t="n">
-        <v>56.36</v>
+        <v>55.76</v>
       </c>
       <c r="G41" t="n">
-        <v>55.5633664864865</v>
+        <v>55.1853566037736</v>
       </c>
       <c r="H41" t="n">
-        <v>10.7362479</v>
+        <v>11.356716</v>
       </c>
       <c r="I41" t="n">
         <v>30.92</v>
@@ -2849,22 +2849,22 @@
         <v>44.46</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.320329630246901</v>
+        <v>-0.262628309816379</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.611929014517911</v>
+        <v>-0.545672018105025</v>
       </c>
       <c r="N41" t="n">
-        <v>0.661848008022075</v>
+        <v>0.597388228783424</v>
       </c>
       <c r="O41" t="n">
-        <v>46.25</v>
+        <v>46.744925</v>
       </c>
       <c r="P41" t="n">
-        <v>56.36</v>
+        <v>55.76</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.58</v>
+        <v>62.445</v>
       </c>
       <c r="R41" t="n">
         <v>75.38</v>
@@ -2878,22 +2878,22 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D42" t="n">
-        <v>32.5242424242424</v>
+        <v>34.8106060606061</v>
       </c>
       <c r="E42" t="n">
-        <v>9.50261388351836</v>
+        <v>11.0391095798395</v>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>31.3</v>
       </c>
       <c r="G42" t="n">
-        <v>31.2816216216216</v>
+        <v>33.6943396226415</v>
       </c>
       <c r="H42" t="n">
-        <v>6.22692</v>
+        <v>8.37669</v>
       </c>
       <c r="I42" t="n">
         <v>18.1</v>
@@ -2905,22 +2905,22 @@
         <v>49</v>
       </c>
       <c r="L42" t="n">
-        <v>1.30006907328184</v>
+        <v>0.932100392722318</v>
       </c>
       <c r="M42" t="n">
-        <v>1.48532221284914</v>
+        <v>0.0527788758284409</v>
       </c>
       <c r="N42" t="n">
-        <v>0.625226091120914</v>
+        <v>0.679410228633341</v>
       </c>
       <c r="O42" t="n">
-        <v>26.45</v>
+        <v>27.375</v>
       </c>
       <c r="P42" t="n">
-        <v>30</v>
+        <v>31.3</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.1</v>
+        <v>41.4</v>
       </c>
       <c r="R42" t="n">
         <v>67.1</v>
@@ -2934,52 +2934,52 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D43" t="n">
-        <v>0.173101731601732</v>
+        <v>0.423991666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.15024902776662</v>
+        <v>0.127357828908489</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1522</v>
+        <v>0.42225</v>
       </c>
       <c r="G43" t="n">
-        <v>0.152798918918919</v>
+        <v>0.42258679245283</v>
       </c>
       <c r="H43" t="n">
-        <v>0.13803006</v>
+        <v>0.17442789</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.2104</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0.6596</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0.4492</v>
       </c>
       <c r="L43" t="n">
-        <v>2.03921605219136</v>
+        <v>0.110576218328235</v>
       </c>
       <c r="M43" t="n">
-        <v>7.26992224997793</v>
+        <v>-1.2740527459239</v>
       </c>
       <c r="N43" t="n">
-        <v>0.00988566024851052</v>
+        <v>0.00783833252411833</v>
       </c>
       <c r="O43" t="n">
-        <v>0.06115</v>
+        <v>0.309</v>
       </c>
       <c r="P43" t="n">
-        <v>0.1522</v>
+        <v>0.42225</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.24865</v>
+        <v>0.53975</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>0.6596</v>
       </c>
     </row>
     <row r="44">
@@ -2990,22 +2990,22 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D44" t="n">
-        <v>-66.121161038961</v>
+        <v>-66.046778030303</v>
       </c>
       <c r="E44" t="n">
-        <v>6.38892913385584</v>
+        <v>6.28189748802747</v>
       </c>
       <c r="F44" t="n">
-        <v>-66.0409</v>
+        <v>-65.9616</v>
       </c>
       <c r="G44" t="n">
-        <v>-65.9913108108108</v>
+        <v>-65.9122169811321</v>
       </c>
       <c r="H44" t="n">
-        <v>6.74568174000001</v>
+        <v>6.96147416999999</v>
       </c>
       <c r="I44" t="n">
         <v>-84.3815</v>
@@ -3017,22 +3017,22 @@
         <v>34.4069</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.215501283335497</v>
+        <v>-0.224264298918137</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0688516495094791</v>
+        <v>-0.094722614938084</v>
       </c>
       <c r="N44" t="n">
-        <v>0.42036067525983</v>
+        <v>0.386624063990313</v>
       </c>
       <c r="O44" t="n">
-        <v>-70.47265</v>
+        <v>-70.413575</v>
       </c>
       <c r="P44" t="n">
-        <v>-66.0409</v>
+        <v>-65.9616</v>
       </c>
       <c r="Q44" t="n">
-        <v>-61.2791</v>
+        <v>-61.171575</v>
       </c>
       <c r="R44" t="n">
         <v>-49.9746</v>
@@ -3046,22 +3046,22 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D45" t="n">
-        <v>-20.5707255411255</v>
+        <v>-20.3692397727273</v>
       </c>
       <c r="E45" t="n">
-        <v>3.32534166644657</v>
+        <v>3.34082184823496</v>
       </c>
       <c r="F45" t="n">
-        <v>-20.1828</v>
+        <v>-19.9853</v>
       </c>
       <c r="G45" t="n">
-        <v>-20.3923902702703</v>
+        <v>-20.1758283018868</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1564554</v>
+        <v>3.3373326</v>
       </c>
       <c r="I45" t="n">
         <v>-28.9961</v>
@@ -3073,22 +3073,22 @@
         <v>16.4775</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.435686814980047</v>
+        <v>-0.470900139469799</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.229109222303043</v>
+        <v>-0.23001406076509</v>
       </c>
       <c r="N45" t="n">
-        <v>0.218791418575887</v>
+        <v>0.205613371197786</v>
       </c>
       <c r="O45" t="n">
-        <v>-22.6114</v>
+        <v>-22.47725</v>
       </c>
       <c r="P45" t="n">
-        <v>-20.1828</v>
+        <v>-19.9853</v>
       </c>
       <c r="Q45" t="n">
-        <v>-18.32805</v>
+        <v>-17.819225</v>
       </c>
       <c r="R45" t="n">
         <v>-12.5186</v>
@@ -3102,52 +3102,52 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D46" t="n">
-        <v>-16.5709831168831</v>
+        <v>-16.7007575757576</v>
       </c>
       <c r="E46" t="n">
-        <v>2.05732941229977</v>
+        <v>2.17736353680897</v>
       </c>
       <c r="F46" t="n">
-        <v>-16.9372</v>
+        <v>-17</v>
       </c>
       <c r="G46" t="n">
-        <v>-16.6709178378378</v>
+        <v>-16.7688679245283</v>
       </c>
       <c r="H46" t="n">
-        <v>1.73582808</v>
+        <v>2.2239</v>
       </c>
       <c r="I46" t="n">
-        <v>-21.6791</v>
+        <v>-22</v>
       </c>
       <c r="J46" t="n">
-        <v>-9.6151</v>
+        <v>-9.7</v>
       </c>
       <c r="K46" t="n">
-        <v>12.064</v>
+        <v>12.3</v>
       </c>
       <c r="L46" t="n">
-        <v>0.519233946889675</v>
+        <v>0.343572309133296</v>
       </c>
       <c r="M46" t="n">
-        <v>0.495210184266449</v>
+        <v>-0.0897119341073926</v>
       </c>
       <c r="N46" t="n">
-        <v>0.135362337391322</v>
+        <v>0.134007462074925</v>
       </c>
       <c r="O46" t="n">
-        <v>-17.9044</v>
+        <v>-18.225</v>
       </c>
       <c r="P46" t="n">
-        <v>-16.9372</v>
+        <v>-17</v>
       </c>
       <c r="Q46" t="n">
-        <v>-15.3388</v>
+        <v>-15.1</v>
       </c>
       <c r="R46" t="n">
-        <v>-9.6151</v>
+        <v>-9.7</v>
       </c>
     </row>
     <row r="47">
@@ -3158,22 +3158,22 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D47" t="n">
-        <v>-24885.8771904762</v>
+        <v>-24740.2826765152</v>
       </c>
       <c r="E47" t="n">
-        <v>10988.5649203542</v>
+        <v>10764.3706479411</v>
       </c>
       <c r="F47" t="n">
-        <v>-23083.0153</v>
+        <v>-23213.9551</v>
       </c>
       <c r="G47" t="n">
-        <v>-23434.6598194595</v>
+        <v>-23406.435695283</v>
       </c>
       <c r="H47" t="n">
-        <v>8631.67451622</v>
+        <v>8661.3492</v>
       </c>
       <c r="I47" t="n">
         <v>-62160</v>
@@ -3185,22 +3185,22 @@
         <v>53933.9829</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.35815055610682</v>
+        <v>-1.32666738917535</v>
       </c>
       <c r="M47" t="n">
-        <v>2.13327939752855</v>
+        <v>2.1658132866006</v>
       </c>
       <c r="N47" t="n">
-        <v>722.994491452252</v>
+        <v>662.501216254619</v>
       </c>
       <c r="O47" t="n">
-        <v>-29144</v>
+        <v>-29183.197275</v>
       </c>
       <c r="P47" t="n">
-        <v>-23083.0153</v>
+        <v>-23213.9551</v>
       </c>
       <c r="Q47" t="n">
-        <v>-17823</v>
+        <v>-18004.5</v>
       </c>
       <c r="R47" t="n">
         <v>-8226.0171</v>
@@ -3214,52 +3214,52 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D48" t="n">
-        <v>-52.0186147186147</v>
+        <v>-51.8897727272727</v>
       </c>
       <c r="E48" t="n">
-        <v>11.4836916418383</v>
+        <v>11.5864616136168</v>
       </c>
       <c r="F48" t="n">
-        <v>-51</v>
+        <v>-51.05</v>
       </c>
       <c r="G48" t="n">
-        <v>-51.8378378378378</v>
+        <v>-51.6943396226415</v>
       </c>
       <c r="H48" t="n">
-        <v>13.63992</v>
+        <v>13.71405</v>
       </c>
       <c r="I48" t="n">
         <v>-75.1</v>
       </c>
       <c r="J48" t="n">
-        <v>-30.9</v>
+        <v>-30.5</v>
       </c>
       <c r="K48" t="n">
-        <v>44.2</v>
+        <v>44.6</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.153231696302149</v>
+        <v>-0.160289795716721</v>
       </c>
       <c r="M48" t="n">
-        <v>-1.04033912085574</v>
+        <v>-1.05008694245321</v>
       </c>
       <c r="N48" t="n">
-        <v>0.755571438014282</v>
+        <v>0.71309741759745</v>
       </c>
       <c r="O48" t="n">
-        <v>-61.9</v>
+        <v>-61.925</v>
       </c>
       <c r="P48" t="n">
-        <v>-51</v>
+        <v>-51.05</v>
       </c>
       <c r="Q48" t="n">
-        <v>-43</v>
+        <v>-42.675</v>
       </c>
       <c r="R48" t="n">
-        <v>-30.9</v>
+        <v>-30.5</v>
       </c>
     </row>
     <row r="49">
@@ -3270,52 +3270,52 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D49" t="n">
-        <v>-6.64905541125541</v>
+        <v>-2.7553446969697</v>
       </c>
       <c r="E49" t="n">
-        <v>3.72655825578855</v>
+        <v>2.64018373138785</v>
       </c>
       <c r="F49" t="n">
-        <v>-5.725</v>
+        <v>-2.08</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.00565945945946</v>
+        <v>-2.2611891509434</v>
       </c>
       <c r="H49" t="n">
-        <v>2.43250182</v>
+        <v>1.363992</v>
       </c>
       <c r="I49" t="n">
         <v>-23.7029</v>
       </c>
       <c r="J49" t="n">
-        <v>-2.5768</v>
+        <v>-0.35</v>
       </c>
       <c r="K49" t="n">
-        <v>21.1261</v>
+        <v>23.3529</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.1903172732664</v>
+        <v>-3.78721017863392</v>
       </c>
       <c r="M49" t="n">
-        <v>6.00639409876816</v>
+        <v>21.4155419637952</v>
       </c>
       <c r="N49" t="n">
-        <v>0.24518953207624</v>
+        <v>0.162492075977954</v>
       </c>
       <c r="O49" t="n">
-        <v>-7.6717</v>
+        <v>-3.21</v>
       </c>
       <c r="P49" t="n">
-        <v>-5.725</v>
+        <v>-2.08</v>
       </c>
       <c r="Q49" t="n">
-        <v>-4.4534</v>
+        <v>-1.2</v>
       </c>
       <c r="R49" t="n">
-        <v>-2.5768</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="50">
@@ -3326,52 +3326,52 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D50" t="n">
-        <v>66.9142857142857</v>
+        <v>66.8583333333333</v>
       </c>
       <c r="E50" t="n">
-        <v>4.83309373290607</v>
+        <v>4.68481150193031</v>
       </c>
       <c r="F50" t="n">
-        <v>68</v>
+        <v>67.45</v>
       </c>
       <c r="G50" t="n">
-        <v>67.072972972973</v>
+        <v>67.0169811320755</v>
       </c>
       <c r="H50" t="n">
-        <v>4.89258</v>
+        <v>4.96670999999999</v>
       </c>
       <c r="I50" t="n">
         <v>53.1</v>
       </c>
       <c r="J50" t="n">
-        <v>79.7</v>
+        <v>77.9</v>
       </c>
       <c r="K50" t="n">
-        <v>26.6</v>
+        <v>24.8</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.346471924727411</v>
+        <v>-0.361585785377469</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.242364953518718</v>
+        <v>-0.371576277705754</v>
       </c>
       <c r="N50" t="n">
-        <v>0.317994221346498</v>
+        <v>0.288330216364864</v>
       </c>
       <c r="O50" t="n">
         <v>63.1</v>
       </c>
       <c r="P50" t="n">
-        <v>68</v>
+        <v>67.45</v>
       </c>
       <c r="Q50" t="n">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="R50" t="n">
-        <v>79.7</v>
+        <v>77.9</v>
       </c>
     </row>
     <row r="51">
@@ -3382,22 +3382,22 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D51" t="n">
-        <v>46.4327255411255</v>
+        <v>47.3937329545454</v>
       </c>
       <c r="E51" t="n">
-        <v>9.1999077832853</v>
+        <v>9.18681808351271</v>
       </c>
       <c r="F51" t="n">
-        <v>47.2222</v>
+        <v>48</v>
       </c>
       <c r="G51" t="n">
-        <v>46.4254016216216</v>
+        <v>47.4766561320755</v>
       </c>
       <c r="H51" t="n">
-        <v>7.14939372</v>
+        <v>7.90715058</v>
       </c>
       <c r="I51" t="n">
         <v>17.8571</v>
@@ -3409,22 +3409,22 @@
         <v>52.1429</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.150601053716961</v>
+        <v>-0.239532465442772</v>
       </c>
       <c r="M51" t="n">
-        <v>0.5769155068012</v>
+        <v>0.545600490850862</v>
       </c>
       <c r="N51" t="n">
-        <v>0.605309491948614</v>
+        <v>0.565409567627738</v>
       </c>
       <c r="O51" t="n">
-        <v>40</v>
+        <v>42.144225</v>
       </c>
       <c r="P51" t="n">
-        <v>47.2222</v>
+        <v>48</v>
       </c>
       <c r="Q51" t="n">
-        <v>52</v>
+        <v>52.043475</v>
       </c>
       <c r="R51" t="n">
         <v>70</v>
@@ -3438,22 +3438,22 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D52" t="n">
-        <v>-49.9346458874459</v>
+        <v>-49.0980484848485</v>
       </c>
       <c r="E52" t="n">
-        <v>13.8925438945397</v>
+        <v>13.626609632105</v>
       </c>
       <c r="F52" t="n">
-        <v>-47.9452</v>
+        <v>-47.67315</v>
       </c>
       <c r="G52" t="n">
-        <v>-48.8322162162162</v>
+        <v>-47.9886188679245</v>
       </c>
       <c r="H52" t="n">
-        <v>13.42687038</v>
+        <v>13.41775239</v>
       </c>
       <c r="I52" t="n">
         <v>-90.9091</v>
@@ -3465,22 +3465,22 @@
         <v>65.9091</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.69497117012113</v>
+        <v>-0.727934179820631</v>
       </c>
       <c r="M52" t="n">
-        <v>0.41222595204442</v>
+        <v>0.536893181575784</v>
       </c>
       <c r="N52" t="n">
-        <v>0.914062280271536</v>
+        <v>0.838659848304571</v>
       </c>
       <c r="O52" t="n">
-        <v>-58.3333</v>
+        <v>-57.318775</v>
       </c>
       <c r="P52" t="n">
-        <v>-47.9452</v>
+        <v>-47.67315</v>
       </c>
       <c r="Q52" t="n">
-        <v>-40</v>
+        <v>-39.3275</v>
       </c>
       <c r="R52" t="n">
         <v>-25</v>
@@ -3494,22 +3494,22 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D53" t="n">
-        <v>-12.8531619047619</v>
+        <v>-12.7225503787879</v>
       </c>
       <c r="E53" t="n">
-        <v>4.636061136505</v>
+        <v>4.59378240898941</v>
       </c>
       <c r="F53" t="n">
-        <v>-11.8953</v>
+        <v>-11.87905</v>
       </c>
       <c r="G53" t="n">
-        <v>-12.3500859459459</v>
+        <v>-12.2221603773585</v>
       </c>
       <c r="H53" t="n">
-        <v>3.1127187</v>
+        <v>3.16735251</v>
       </c>
       <c r="I53" t="n">
         <v>-31.8414</v>
@@ -3521,22 +3521,22 @@
         <v>30.8529</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.23494526645782</v>
+        <v>-1.22913456254027</v>
       </c>
       <c r="M53" t="n">
-        <v>2.20199954851568</v>
+        <v>2.14735511314325</v>
       </c>
       <c r="N53" t="n">
-        <v>0.305030428270058</v>
+        <v>0.282727762978569</v>
       </c>
       <c r="O53" t="n">
-        <v>-14.5456</v>
+        <v>-14.4253</v>
       </c>
       <c r="P53" t="n">
-        <v>-11.8953</v>
+        <v>-11.87905</v>
       </c>
       <c r="Q53" t="n">
-        <v>-9.9048</v>
+        <v>-9.8646</v>
       </c>
       <c r="R53" t="n">
         <v>-0.9885</v>
@@ -3550,22 +3550,22 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D54" t="n">
-        <v>-22.0533818181818</v>
+        <v>-21.3381507575758</v>
       </c>
       <c r="E54" t="n">
-        <v>7.85577768831258</v>
+        <v>7.93416147566815</v>
       </c>
       <c r="F54" t="n">
-        <v>-21.484</v>
+        <v>-20.8227</v>
       </c>
       <c r="G54" t="n">
-        <v>-21.5770978378378</v>
+        <v>-20.8248108490566</v>
       </c>
       <c r="H54" t="n">
-        <v>7.5849816</v>
+        <v>7.56103761</v>
       </c>
       <c r="I54" t="n">
         <v>-47.2233</v>
@@ -3577,22 +3577,22 @@
         <v>39.8016</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.549156457661298</v>
+        <v>-0.581006780605314</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0242973556916266</v>
+        <v>-0.000755875235152637</v>
       </c>
       <c r="N54" t="n">
-        <v>0.51687222452524</v>
+        <v>0.488313882855388</v>
       </c>
       <c r="O54" t="n">
-        <v>-26.5806</v>
+        <v>-25.604575</v>
       </c>
       <c r="P54" t="n">
-        <v>-21.484</v>
+        <v>-20.8227</v>
       </c>
       <c r="Q54" t="n">
-        <v>-16.368</v>
+        <v>-15.6039</v>
       </c>
       <c r="R54" t="n">
         <v>-7.4217</v>
@@ -3606,52 +3606,52 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D55" t="n">
-        <v>78.7</v>
+        <v>73.8543352272727</v>
       </c>
       <c r="E55" t="n">
-        <v>19.7991216318125</v>
+        <v>16.7079793374215</v>
       </c>
       <c r="F55" t="n">
-        <v>77.2</v>
+        <v>72.98325</v>
       </c>
       <c r="G55" t="n">
-        <v>78.6248648648649</v>
+        <v>74.0164301886793</v>
       </c>
       <c r="H55" t="n">
-        <v>20.16336</v>
+        <v>17.30824305</v>
       </c>
       <c r="I55" t="n">
-        <v>31.1</v>
+        <v>31.0977</v>
       </c>
       <c r="J55" t="n">
-        <v>133</v>
+        <v>107.7952</v>
       </c>
       <c r="K55" t="n">
-        <v>101.9</v>
+        <v>76.6975</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0476812099522162</v>
+        <v>-0.121334136619806</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.388302335972133</v>
+        <v>-0.399226400765468</v>
       </c>
       <c r="N55" t="n">
-        <v>1.30268656363656</v>
+        <v>1.02830504394755</v>
       </c>
       <c r="O55" t="n">
-        <v>64.8</v>
+        <v>62.931125</v>
       </c>
       <c r="P55" t="n">
-        <v>77.2</v>
+        <v>72.98325</v>
       </c>
       <c r="Q55" t="n">
-        <v>92.9</v>
+        <v>86.37335</v>
       </c>
       <c r="R55" t="n">
-        <v>133</v>
+        <v>107.7952</v>
       </c>
     </row>
     <row r="56">
@@ -3662,52 +3662,52 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D56" t="n">
-        <v>29.3868917748918</v>
+        <v>0.295097727272727</v>
       </c>
       <c r="E56" t="n">
-        <v>8.82146171151933</v>
+        <v>0.089242433483061</v>
       </c>
       <c r="F56" t="n">
-        <v>28.5844</v>
+        <v>0.2867</v>
       </c>
       <c r="G56" t="n">
-        <v>28.8332697297297</v>
+        <v>0.289362264150943</v>
       </c>
       <c r="H56" t="n">
-        <v>6.84901896</v>
+        <v>0.0696822</v>
       </c>
       <c r="I56" t="n">
-        <v>12.7308</v>
+        <v>0.1273</v>
       </c>
       <c r="J56" t="n">
-        <v>68.6368</v>
+        <v>0.7022</v>
       </c>
       <c r="K56" t="n">
-        <v>55.906</v>
+        <v>0.5749</v>
       </c>
       <c r="L56" t="n">
-        <v>1.7640397930062</v>
+        <v>1.79229943007353</v>
       </c>
       <c r="M56" t="n">
-        <v>6.28406336606853</v>
+        <v>6.41632795508045</v>
       </c>
       <c r="N56" t="n">
-        <v>0.580409568511685</v>
+        <v>0.00549249209802695</v>
       </c>
       <c r="O56" t="n">
-        <v>24.95605</v>
+        <v>0.250875</v>
       </c>
       <c r="P56" t="n">
-        <v>28.5844</v>
+        <v>0.2867</v>
       </c>
       <c r="Q56" t="n">
-        <v>33.9777</v>
+        <v>0.3407</v>
       </c>
       <c r="R56" t="n">
-        <v>68.6368</v>
+        <v>0.7022</v>
       </c>
     </row>
     <row r="57">
@@ -3718,22 +3718,22 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D57" t="n">
-        <v>9.21731601731602</v>
+        <v>9.27386363636364</v>
       </c>
       <c r="E57" t="n">
-        <v>0.864509752832396</v>
+        <v>0.869026943910832</v>
       </c>
       <c r="F57" t="n">
-        <v>9.33</v>
+        <v>9.405</v>
       </c>
       <c r="G57" t="n">
-        <v>9.27097297297297</v>
+        <v>9.33061320754717</v>
       </c>
       <c r="H57" t="n">
-        <v>0.711648000000001</v>
+        <v>0.719060999999999</v>
       </c>
       <c r="I57" t="n">
         <v>6.92</v>
@@ -3745,22 +3745,22 @@
         <v>4.4</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.563559517991028</v>
+        <v>-0.578571387127531</v>
       </c>
       <c r="M57" t="n">
-        <v>0.291320169670226</v>
+        <v>0.281817627737126</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0568805657185326</v>
+        <v>0.0534849111135986</v>
       </c>
       <c r="O57" t="n">
-        <v>8.77</v>
+        <v>8.85</v>
       </c>
       <c r="P57" t="n">
-        <v>9.33</v>
+        <v>9.405</v>
       </c>
       <c r="Q57" t="n">
-        <v>9.78</v>
+        <v>9.85</v>
       </c>
       <c r="R57" t="n">
         <v>11.32</v>
@@ -3774,22 +3774,22 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D58" t="n">
-        <v>53.810396969697</v>
+        <v>54.0234295454545</v>
       </c>
       <c r="E58" t="n">
-        <v>3.44128485414076</v>
+        <v>3.41770418457599</v>
       </c>
       <c r="F58" t="n">
-        <v>53.7829</v>
+        <v>54.231</v>
       </c>
       <c r="G58" t="n">
-        <v>53.7850189189189</v>
+        <v>54.0165712264151</v>
       </c>
       <c r="H58" t="n">
-        <v>3.75853926</v>
+        <v>3.55431111</v>
       </c>
       <c r="I58" t="n">
         <v>45.4225</v>
@@ -3801,22 +3801,22 @@
         <v>18.0034</v>
       </c>
       <c r="L58" t="n">
-        <v>0.078242899209272</v>
+        <v>0.0144053215604079</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.510224008478499</v>
+        <v>-0.483789671087606</v>
       </c>
       <c r="N58" t="n">
-        <v>0.22641992026213</v>
+        <v>0.210345151902882</v>
       </c>
       <c r="O58" t="n">
-        <v>51.10875</v>
+        <v>51.56205</v>
       </c>
       <c r="P58" t="n">
-        <v>53.7829</v>
+        <v>54.231</v>
       </c>
       <c r="Q58" t="n">
-        <v>56.1911</v>
+        <v>56.44575</v>
       </c>
       <c r="R58" t="n">
         <v>63.4259</v>
@@ -3830,52 +3830,52 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D59" t="n">
-        <v>50.6850904761905</v>
+        <v>50.9918178030303</v>
       </c>
       <c r="E59" t="n">
-        <v>1.88525642308373</v>
+        <v>2.0080210626218</v>
       </c>
       <c r="F59" t="n">
-        <v>50.5725</v>
+        <v>50.7883</v>
       </c>
       <c r="G59" t="n">
-        <v>50.6335691891892</v>
+        <v>50.9639183962264</v>
       </c>
       <c r="H59" t="n">
-        <v>1.94991552000001</v>
+        <v>2.18965194</v>
       </c>
       <c r="I59" t="n">
         <v>46.4473</v>
       </c>
       <c r="J59" t="n">
-        <v>55.4542</v>
+        <v>55.6705</v>
       </c>
       <c r="K59" t="n">
-        <v>9.0069</v>
+        <v>9.2232</v>
       </c>
       <c r="L59" t="n">
-        <v>0.208969963141681</v>
+        <v>0.133859612785014</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.436849504033321</v>
+        <v>-0.655272765585396</v>
       </c>
       <c r="N59" t="n">
-        <v>0.124040765900173</v>
+        <v>0.123585153258011</v>
       </c>
       <c r="O59" t="n">
-        <v>49.2954</v>
+        <v>49.44635</v>
       </c>
       <c r="P59" t="n">
-        <v>50.5725</v>
+        <v>50.7883</v>
       </c>
       <c r="Q59" t="n">
-        <v>51.9278</v>
+        <v>52.39085</v>
       </c>
       <c r="R59" t="n">
-        <v>55.4542</v>
+        <v>55.6705</v>
       </c>
     </row>
     <row r="60">
@@ -3886,52 +3886,52 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D60" t="n">
-        <v>1.77105930735931</v>
+        <v>1.84432083333333</v>
       </c>
       <c r="E60" t="n">
-        <v>1.03900775035292</v>
+        <v>1.08347538540617</v>
       </c>
       <c r="F60" t="n">
-        <v>1.6005</v>
+        <v>1.63775</v>
       </c>
       <c r="G60" t="n">
-        <v>1.64113945945946</v>
+        <v>1.70985896226415</v>
       </c>
       <c r="H60" t="n">
-        <v>0.78162672</v>
+        <v>0.80861004</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>5.9033</v>
+        <v>6.9811</v>
       </c>
       <c r="K60" t="n">
-        <v>5.9033</v>
+        <v>6.9811</v>
       </c>
       <c r="L60" t="n">
-        <v>1.46806579671554</v>
+        <v>1.51545861021079</v>
       </c>
       <c r="M60" t="n">
-        <v>2.91190510301155</v>
+        <v>3.29285883098088</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0683616910421039</v>
+        <v>0.0666833003145264</v>
       </c>
       <c r="O60" t="n">
-        <v>1.0813</v>
+        <v>1.132775</v>
       </c>
       <c r="P60" t="n">
-        <v>1.6005</v>
+        <v>1.63775</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.1219</v>
+        <v>2.20235</v>
       </c>
       <c r="R60" t="n">
-        <v>5.9033</v>
+        <v>6.9811</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">indicador</t>
   </si>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">Q1</t>
   </si>
   <si>
-    <t xml:space="preserve">cve_ent*</t>
+    <t xml:space="preserve">cve_ent</t>
   </si>
   <si>
     <t xml:space="preserve">anio</t>
   </si>
   <si>
-    <t xml:space="preserve">entidad_abr_m*</t>
+    <t xml:space="preserve">entidad_abr_m</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0101</t>
@@ -164,9 +164,6 @@
     <t xml:space="preserve">ind_0229</t>
   </si>
   <si>
-    <t xml:space="preserve">ind_0230</t>
-  </si>
-  <si>
     <t xml:space="preserve">ind_0231</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">ind_0234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_0256</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0335</t>
@@ -638,13 +632,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>9.53998987652012</v>
+        <v>9.53797530784039</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
@@ -668,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.21579973996313</v>
+        <v>-1.21429185897397</v>
       </c>
       <c r="N2" t="n">
-        <v>0.587145788914301</v>
+        <v>0.55344946138406</v>
       </c>
       <c r="O2" t="n">
         <v>9</v>
@@ -694,19 +688,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D3" t="n">
-        <v>2018.5</v>
+        <v>2019</v>
       </c>
       <c r="E3" t="n">
-        <v>2.29563977513597</v>
+        <v>2.58634668774107</v>
       </c>
       <c r="F3" t="n">
-        <v>2018.5</v>
+        <v>2019</v>
       </c>
       <c r="G3" t="n">
-        <v>2018.5</v>
+        <v>2019</v>
       </c>
       <c r="H3" t="n">
         <v>2.9652</v>
@@ -715,31 +709,31 @@
         <v>2015</v>
       </c>
       <c r="J3" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.25141772158818</v>
+        <v>-1.24189912593953</v>
       </c>
       <c r="N3" t="n">
-        <v>0.141286861336473</v>
+        <v>0.150075056296916</v>
       </c>
       <c r="O3" t="n">
-        <v>2016.75</v>
+        <v>2017</v>
       </c>
       <c r="P3" t="n">
-        <v>2018.5</v>
+        <v>2019</v>
       </c>
       <c r="Q3" t="n">
-        <v>2020.25</v>
+        <v>2021</v>
       </c>
       <c r="R3" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="4">
@@ -750,13 +744,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>9.53998987652012</v>
+        <v>9.53797530784039</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -780,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.21579973996313</v>
+        <v>-1.21429185897397</v>
       </c>
       <c r="N4" t="n">
-        <v>0.587145788914301</v>
+        <v>0.55344946138406</v>
       </c>
       <c r="O4" t="n">
         <v>9</v>
@@ -806,19 +800,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.3344696969697</v>
+        <v>-20.9848484848485</v>
       </c>
       <c r="E5" t="n">
-        <v>6.79160640706099</v>
+        <v>6.79125078491343</v>
       </c>
       <c r="F5" t="n">
-        <v>-20.1</v>
+        <v>-19.9</v>
       </c>
       <c r="G5" t="n">
-        <v>-20.4929245283019</v>
+        <v>-20.163179916318</v>
       </c>
       <c r="H5" t="n">
         <v>5.1891</v>
@@ -833,22 +827,22 @@
         <v>37.1</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.38592803130759</v>
+        <v>-1.36004863661683</v>
       </c>
       <c r="M5" t="n">
-        <v>2.56430068254742</v>
+        <v>2.51856844981192</v>
       </c>
       <c r="N5" t="n">
-        <v>0.417994479394963</v>
+        <v>0.394068339215007</v>
       </c>
       <c r="O5" t="n">
-        <v>-24.4</v>
+        <v>-24</v>
       </c>
       <c r="P5" t="n">
-        <v>-20.1</v>
+        <v>-19.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>-17</v>
+        <v>-16.6</v>
       </c>
       <c r="R5" t="n">
         <v>-9.7</v>
@@ -862,52 +856,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D6" t="n">
-        <v>-37.9022178030303</v>
+        <v>-36.6089892255892</v>
       </c>
       <c r="E6" t="n">
-        <v>14.1713370051429</v>
+        <v>14.4628631658537</v>
       </c>
       <c r="F6" t="n">
-        <v>-35.01355</v>
+        <v>-33.911</v>
       </c>
       <c r="G6" t="n">
-        <v>-37.1719169811321</v>
+        <v>-35.7006573221757</v>
       </c>
       <c r="H6" t="n">
-        <v>13.97298609</v>
+        <v>13.1261991</v>
       </c>
       <c r="I6" t="n">
-        <v>-78.3005</v>
+        <v>-82.5526</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.6649</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>70.6356</v>
+        <v>82.5526</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.472770743613716</v>
+        <v>-0.634832272017393</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.102284597288735</v>
+        <v>0.487849452176598</v>
       </c>
       <c r="N6" t="n">
-        <v>0.872185500566815</v>
+        <v>0.839220439439939</v>
       </c>
       <c r="O6" t="n">
-        <v>-47.058175</v>
+        <v>-45.2887</v>
       </c>
       <c r="P6" t="n">
-        <v>-35.01355</v>
+        <v>-33.911</v>
       </c>
       <c r="Q6" t="n">
-        <v>-28.778425</v>
+        <v>-27.047</v>
       </c>
       <c r="R6" t="n">
-        <v>-7.6649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -918,52 +912,52 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.2951704545455</v>
+        <v>-10.1135612794613</v>
       </c>
       <c r="E7" t="n">
-        <v>1.90795049663319</v>
+        <v>1.86556884747738</v>
       </c>
       <c r="F7" t="n">
-        <v>-10.06985</v>
+        <v>-9.8966</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.1932051886792</v>
+        <v>-10.0051924686192</v>
       </c>
       <c r="H7" t="n">
-        <v>1.81433175</v>
+        <v>1.75866012</v>
       </c>
       <c r="I7" t="n">
-        <v>-16.0729</v>
+        <v>-15.9327</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.6616</v>
+        <v>-5.6092</v>
       </c>
       <c r="K7" t="n">
-        <v>10.4113</v>
+        <v>10.3235</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.512625694068176</v>
+        <v>-0.553125861200182</v>
       </c>
       <c r="M7" t="n">
-        <v>0.170657187583654</v>
+        <v>0.269650352443848</v>
       </c>
       <c r="N7" t="n">
-        <v>0.117426235672669</v>
+        <v>0.108251283997612</v>
       </c>
       <c r="O7" t="n">
-        <v>-11.4445</v>
+        <v>-11.2132</v>
       </c>
       <c r="P7" t="n">
-        <v>-10.06985</v>
+        <v>-9.8966</v>
       </c>
       <c r="Q7" t="n">
-        <v>-9.052675</v>
+        <v>-8.7753</v>
       </c>
       <c r="R7" t="n">
-        <v>-5.6616</v>
+        <v>-5.6092</v>
       </c>
     </row>
     <row r="8">
@@ -974,52 +968,52 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D8" t="n">
-        <v>-58.0169458333333</v>
+        <v>-82.218668013468</v>
       </c>
       <c r="E8" t="n">
-        <v>72.8766775234063</v>
+        <v>79.9808022353178</v>
       </c>
       <c r="F8" t="n">
-        <v>-17.6536</v>
+        <v>-43.3288</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.0395566037736</v>
+        <v>-66.5912715481171</v>
       </c>
       <c r="H8" t="n">
-        <v>11.82618129</v>
+        <v>19.577733</v>
       </c>
       <c r="I8" t="n">
-        <v>-353.6961</v>
+        <v>-401.0262</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.8324</v>
+        <v>-18.2297</v>
       </c>
       <c r="K8" t="n">
-        <v>346.8637</v>
+        <v>382.7965</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.55928378969413</v>
+        <v>-1.65300806603531</v>
       </c>
       <c r="M8" t="n">
-        <v>1.54165195673532</v>
+        <v>1.77202695205839</v>
       </c>
       <c r="N8" t="n">
-        <v>4.48524944698805</v>
+        <v>4.64095685819345</v>
       </c>
       <c r="O8" t="n">
-        <v>-69.11895</v>
+        <v>-88.1324</v>
       </c>
       <c r="P8" t="n">
-        <v>-17.6536</v>
+        <v>-43.3288</v>
       </c>
       <c r="Q8" t="n">
-        <v>-12.56755</v>
+        <v>-33.7198</v>
       </c>
       <c r="R8" t="n">
-        <v>-6.8324</v>
+        <v>-18.2297</v>
       </c>
     </row>
     <row r="9">
@@ -1030,22 +1024,22 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D9" t="n">
-        <v>74.822484469697</v>
+        <v>75.1603902356902</v>
       </c>
       <c r="E9" t="n">
-        <v>16.2550249129806</v>
+        <v>16.3048599284453</v>
       </c>
       <c r="F9" t="n">
-        <v>77.7686</v>
+        <v>78.6328</v>
       </c>
       <c r="G9" t="n">
-        <v>76.6805231132075</v>
+        <v>77.0491774058577</v>
       </c>
       <c r="H9" t="n">
-        <v>15.65581122</v>
+        <v>16.35811884</v>
       </c>
       <c r="I9" t="n">
         <v>26.6576</v>
@@ -1057,22 +1051,22 @@
         <v>70.9424</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.911366880461811</v>
+        <v>-0.91722371053686</v>
       </c>
       <c r="M9" t="n">
-        <v>0.33826902428227</v>
+        <v>0.320442828499686</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00042762622249</v>
+        <v>0.946103932343249</v>
       </c>
       <c r="O9" t="n">
-        <v>65.6019</v>
+        <v>66.2601</v>
       </c>
       <c r="P9" t="n">
-        <v>77.7686</v>
+        <v>78.6328</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.6</v>
+        <v>88.3283</v>
       </c>
       <c r="R9" t="n">
         <v>97.6</v>
@@ -1086,52 +1080,52 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D10" t="n">
-        <v>69.1101303030303</v>
+        <v>65.4856952861953</v>
       </c>
       <c r="E10" t="n">
-        <v>22.5515276703881</v>
+        <v>24.023443606492</v>
       </c>
       <c r="F10" t="n">
-        <v>73.249</v>
+        <v>73.543</v>
       </c>
       <c r="G10" t="n">
-        <v>70.7630160377359</v>
+        <v>67.0539125523013</v>
       </c>
       <c r="H10" t="n">
-        <v>28.32247845</v>
+        <v>26.98969518</v>
       </c>
       <c r="I10" t="n">
-        <v>19.4705</v>
+        <v>10.6389</v>
       </c>
       <c r="J10" t="n">
-        <v>98.4534</v>
+        <v>98.2292</v>
       </c>
       <c r="K10" t="n">
-        <v>78.9829</v>
+        <v>87.5903</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.454760059910701</v>
+        <v>-0.438574912323125</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.08852366371004</v>
+        <v>-1.12828870193741</v>
       </c>
       <c r="N10" t="n">
-        <v>1.38795058240487</v>
+        <v>1.39398158366734</v>
       </c>
       <c r="O10" t="n">
-        <v>49.43165</v>
+        <v>46.2657</v>
       </c>
       <c r="P10" t="n">
-        <v>73.249</v>
+        <v>73.543</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.776725</v>
+        <v>87.092</v>
       </c>
       <c r="R10" t="n">
-        <v>98.4534</v>
+        <v>98.2292</v>
       </c>
     </row>
     <row r="11">
@@ -1142,52 +1136,52 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D11" t="n">
-        <v>92.843059469697</v>
+        <v>91.806295959596</v>
       </c>
       <c r="E11" t="n">
-        <v>3.78595191071574</v>
+        <v>3.23375537258361</v>
       </c>
       <c r="F11" t="n">
-        <v>93.01845</v>
+        <v>92.0779</v>
       </c>
       <c r="G11" t="n">
-        <v>93.1141938679245</v>
+        <v>92.051879497908</v>
       </c>
       <c r="H11" t="n">
-        <v>3.71331996</v>
+        <v>3.34771079999999</v>
       </c>
       <c r="I11" t="n">
-        <v>78.9192</v>
+        <v>79.8893</v>
       </c>
       <c r="J11" t="n">
-        <v>99.2676</v>
+        <v>97.5492</v>
       </c>
       <c r="K11" t="n">
-        <v>20.3484</v>
+        <v>17.6599</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.87796296375491</v>
+        <v>-0.798121230696568</v>
       </c>
       <c r="M11" t="n">
-        <v>1.32597507329865</v>
+        <v>0.735705896965445</v>
       </c>
       <c r="N11" t="n">
-        <v>0.233009232733027</v>
+        <v>0.187641518397833</v>
       </c>
       <c r="O11" t="n">
-        <v>90.6598</v>
+        <v>89.9094</v>
       </c>
       <c r="P11" t="n">
-        <v>93.01845</v>
+        <v>92.0779</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.5417</v>
+        <v>94.3359</v>
       </c>
       <c r="R11" t="n">
-        <v>99.2676</v>
+        <v>97.5492</v>
       </c>
     </row>
     <row r="12">
@@ -1198,22 +1192,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.48588333333333</v>
+        <v>-1.46697272727273</v>
       </c>
       <c r="E12" t="n">
-        <v>1.45091201577347</v>
+        <v>1.43056263273558</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9874</v>
+        <v>-0.9843</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.21931650943396</v>
+        <v>-1.20517949790795</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9496053</v>
+        <v>0.9251424</v>
       </c>
       <c r="I12" t="n">
         <v>-8.7443</v>
@@ -1225,19 +1219,19 @@
         <v>8.7433</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.97707531521138</v>
+        <v>-1.96653555253961</v>
       </c>
       <c r="M12" t="n">
-        <v>4.85656434099007</v>
+        <v>4.78544595400961</v>
       </c>
       <c r="N12" t="n">
-        <v>0.089297461650693</v>
+        <v>0.0830096632681407</v>
       </c>
       <c r="O12" t="n">
-        <v>-1.944025</v>
+        <v>-1.9291</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.9874</v>
+        <v>-0.9843</v>
       </c>
       <c r="Q12" t="n">
         <v>-0.4793</v>
@@ -1254,22 +1248,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.51297992424242</v>
+        <v>-2.52112558922559</v>
       </c>
       <c r="E13" t="n">
-        <v>2.64971336183022</v>
+        <v>2.64619084178887</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.6201</v>
+        <v>-1.6158</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.94328490566038</v>
+        <v>-1.95256736401674</v>
       </c>
       <c r="H13" t="n">
-        <v>1.50246684</v>
+        <v>1.46599488</v>
       </c>
       <c r="I13" t="n">
         <v>-14.6154</v>
@@ -1281,22 +1275,22 @@
         <v>14.5728</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.19962409490672</v>
+        <v>-2.17785472001736</v>
       </c>
       <c r="M13" t="n">
-        <v>4.85792835031188</v>
+        <v>4.70464086958925</v>
       </c>
       <c r="N13" t="n">
-        <v>0.163078584187771</v>
+        <v>0.153547566316681</v>
       </c>
       <c r="O13" t="n">
-        <v>-2.995575</v>
+        <v>-2.9961</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.6201</v>
+        <v>-1.6158</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.8492</v>
+        <v>-0.8506</v>
       </c>
       <c r="R13" t="n">
         <v>-0.0426</v>
@@ -1310,22 +1304,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D14" t="n">
-        <v>-14.3412871212121</v>
+        <v>-14.398101010101</v>
       </c>
       <c r="E14" t="n">
-        <v>14.5018927715218</v>
+        <v>14.4353802482999</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.49635</v>
+        <v>-8.5059</v>
       </c>
       <c r="G14" t="n">
-        <v>-11.9172325471698</v>
+        <v>-12.0045037656904</v>
       </c>
       <c r="H14" t="n">
-        <v>9.71999973</v>
+        <v>9.68775318</v>
       </c>
       <c r="I14" t="n">
         <v>-80.3336</v>
@@ -1337,22 +1331,22 @@
         <v>80.3004</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.38332214193815</v>
+        <v>-1.37113039796134</v>
       </c>
       <c r="M14" t="n">
-        <v>1.52058778222786</v>
+        <v>1.43108251242455</v>
       </c>
       <c r="N14" t="n">
-        <v>0.892529801634512</v>
+        <v>0.83762571881774</v>
       </c>
       <c r="O14" t="n">
-        <v>-22.081375</v>
+        <v>-21.931</v>
       </c>
       <c r="P14" t="n">
-        <v>-8.49635</v>
+        <v>-8.5059</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4.2675</v>
+        <v>-4.3781</v>
       </c>
       <c r="R14" t="n">
         <v>-0.0332</v>
@@ -1366,22 +1360,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.01885568181818</v>
+        <v>-4.90090572390572</v>
       </c>
       <c r="E15" t="n">
-        <v>3.04184190973922</v>
+        <v>3.01702239369465</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.4038</v>
+        <v>-4.1087</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.5948858490566</v>
+        <v>-4.4752820083682</v>
       </c>
       <c r="H15" t="n">
-        <v>2.60878296</v>
+        <v>2.41233846</v>
       </c>
       <c r="I15" t="n">
         <v>-16.8404</v>
@@ -1393,22 +1387,22 @@
         <v>15.8456</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.27169460849606</v>
+        <v>-1.28759633894116</v>
       </c>
       <c r="M15" t="n">
-        <v>1.42866184123953</v>
+        <v>1.45722188056904</v>
       </c>
       <c r="N15" t="n">
-        <v>0.18721242799661</v>
+        <v>0.175065395420071</v>
       </c>
       <c r="O15" t="n">
-        <v>-6.431775</v>
+        <v>-6.3727</v>
       </c>
       <c r="P15" t="n">
-        <v>-4.4038</v>
+        <v>-4.1087</v>
       </c>
       <c r="Q15" t="n">
-        <v>-2.7271</v>
+        <v>-2.6543</v>
       </c>
       <c r="R15" t="n">
         <v>-0.9948</v>
@@ -1422,52 +1416,52 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D16" t="n">
-        <v>-25.0401799242424</v>
+        <v>-27.7336754208754</v>
       </c>
       <c r="E16" t="n">
-        <v>20.2172769041863</v>
+        <v>24.5055735731118</v>
       </c>
       <c r="F16" t="n">
-        <v>-17.6787</v>
+        <v>-18.5631</v>
       </c>
       <c r="G16" t="n">
-        <v>-21.7129929245283</v>
+        <v>-23.4530652719665</v>
       </c>
       <c r="H16" t="n">
-        <v>12.49676127</v>
+        <v>13.63591698</v>
       </c>
       <c r="I16" t="n">
-        <v>-99.8001</v>
+        <v>-118.7071</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.0658</v>
+        <v>-1.9959</v>
       </c>
       <c r="K16" t="n">
-        <v>97.7343</v>
+        <v>116.7112</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.48132440973788</v>
+        <v>-1.58513039893668</v>
       </c>
       <c r="M16" t="n">
-        <v>1.78023390440123</v>
+        <v>2.09036878030475</v>
       </c>
       <c r="N16" t="n">
-        <v>1.24428737883916</v>
+        <v>1.42195760181907</v>
       </c>
       <c r="O16" t="n">
-        <v>-32.414475</v>
+        <v>-36.4629</v>
       </c>
       <c r="P16" t="n">
-        <v>-17.6787</v>
+        <v>-18.5631</v>
       </c>
       <c r="Q16" t="n">
-        <v>-10.3486</v>
+        <v>-10.7747</v>
       </c>
       <c r="R16" t="n">
-        <v>-2.0658</v>
+        <v>-1.9959</v>
       </c>
     </row>
     <row r="17">
@@ -1478,52 +1472,52 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D17" t="n">
-        <v>-13.9192034090909</v>
+        <v>-14.3834111111111</v>
       </c>
       <c r="E17" t="n">
-        <v>4.64792026868542</v>
+        <v>5.0202551322635</v>
       </c>
       <c r="F17" t="n">
-        <v>-13.58225</v>
+        <v>-14.3402</v>
       </c>
       <c r="G17" t="n">
-        <v>-13.7317702830189</v>
+        <v>-14.2325163179916</v>
       </c>
       <c r="H17" t="n">
-        <v>4.39309206</v>
+        <v>4.7710068</v>
       </c>
       <c r="I17" t="n">
-        <v>-26.1631</v>
+        <v>-28.3759</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.6726</v>
+        <v>-3.9589</v>
       </c>
       <c r="K17" t="n">
-        <v>22.4905</v>
+        <v>24.417</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.372472719142489</v>
+        <v>-0.267792325294935</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.104837020086495</v>
+        <v>-0.235928599607804</v>
       </c>
       <c r="N17" t="n">
-        <v>0.286059717912775</v>
+        <v>0.291304748574664</v>
       </c>
       <c r="O17" t="n">
-        <v>-16.82565</v>
+        <v>-17.3662</v>
       </c>
       <c r="P17" t="n">
-        <v>-13.58225</v>
+        <v>-14.3402</v>
       </c>
       <c r="Q17" t="n">
-        <v>-10.87205</v>
+        <v>-11.0119</v>
       </c>
       <c r="R17" t="n">
-        <v>-3.6726</v>
+        <v>-3.9589</v>
       </c>
     </row>
     <row r="18">
@@ -1534,22 +1528,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.83225378787879</v>
+        <v>-2.86793602693603</v>
       </c>
       <c r="E18" t="n">
-        <v>1.03714199283106</v>
+        <v>1.02605621550679</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.7775</v>
+        <v>-2.845</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.78732547169811</v>
+        <v>-2.83200418410042</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9799986</v>
+        <v>0.956277</v>
       </c>
       <c r="I18" t="n">
         <v>-5</v>
@@ -1561,22 +1555,22 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.326861614820307</v>
+        <v>-0.263595189566171</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.541395501149338</v>
+        <v>-0.536534944098344</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0638316771274258</v>
+        <v>0.0595378202913985</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.4235</v>
+        <v>-3.458</v>
       </c>
       <c r="P18" t="n">
-        <v>-2.7775</v>
+        <v>-2.845</v>
       </c>
       <c r="Q18" t="n">
-        <v>-2.0975</v>
+        <v>-2.2</v>
       </c>
       <c r="R18" t="n">
         <v>-1</v>
@@ -1590,52 +1584,52 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.80664090909091</v>
+        <v>-2.77738451178451</v>
       </c>
       <c r="E19" t="n">
-        <v>1.05974952998568</v>
+        <v>1.06822879984269</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.666</v>
+        <v>-2.617</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.72275566037736</v>
+        <v>-2.69351966527197</v>
       </c>
       <c r="H19" t="n">
-        <v>1.1141739</v>
+        <v>1.1282586</v>
       </c>
       <c r="I19" t="n">
         <v>-5</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.165</v>
+        <v>-1.041</v>
       </c>
       <c r="K19" t="n">
-        <v>3.835</v>
+        <v>3.959</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.548295571363595</v>
+        <v>-0.552794684531022</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.676367470560937</v>
+        <v>-0.666463892554968</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0652230748552924</v>
+        <v>0.0619849218336614</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.44225</v>
+        <v>-3.44</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.666</v>
+        <v>-2.617</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.926</v>
+        <v>-1.915</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.165</v>
+        <v>-1.041</v>
       </c>
     </row>
     <row r="20">
@@ -1646,22 +1640,22 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D20" t="n">
-        <v>-70.3772727272727</v>
+        <v>-70.2619528619529</v>
       </c>
       <c r="E20" t="n">
-        <v>14.5120670433989</v>
+        <v>14.5325729278465</v>
       </c>
       <c r="F20" t="n">
-        <v>-72.6</v>
+        <v>-73.2</v>
       </c>
       <c r="G20" t="n">
-        <v>-71.5287735849057</v>
+        <v>-71.4673640167364</v>
       </c>
       <c r="H20" t="n">
-        <v>16.45686</v>
+        <v>15.86382</v>
       </c>
       <c r="I20" t="n">
         <v>-92.4</v>
@@ -1673,22 +1667,22 @@
         <v>65.8</v>
       </c>
       <c r="L20" t="n">
-        <v>0.717519139444562</v>
+        <v>0.730901982304792</v>
       </c>
       <c r="M20" t="n">
-        <v>0.131041957020004</v>
+        <v>0.0974660904014222</v>
       </c>
       <c r="N20" t="n">
-        <v>0.893155984782005</v>
+        <v>0.843265410094915</v>
       </c>
       <c r="O20" t="n">
-        <v>-82.7</v>
+        <v>-81.7</v>
       </c>
       <c r="P20" t="n">
-        <v>-72.6</v>
+        <v>-73.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>-60.275</v>
+        <v>-60.4</v>
       </c>
       <c r="R20" t="n">
         <v>-26.6</v>
@@ -1702,52 +1696,52 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D21" t="n">
-        <v>69.797606439394</v>
+        <v>69.7882612794613</v>
       </c>
       <c r="E21" t="n">
-        <v>8.56156562587008</v>
+        <v>8.52330863078955</v>
       </c>
       <c r="F21" t="n">
-        <v>69.74655</v>
+        <v>69.4361</v>
       </c>
       <c r="G21" t="n">
-        <v>69.7560216981132</v>
+        <v>69.6987966527197</v>
       </c>
       <c r="H21" t="n">
-        <v>8.15140893</v>
+        <v>8.14896263999999</v>
       </c>
       <c r="I21" t="n">
-        <v>49.3183</v>
+        <v>49.4</v>
       </c>
       <c r="J21" t="n">
-        <v>90.5965</v>
+        <v>90.2</v>
       </c>
       <c r="K21" t="n">
-        <v>41.2782</v>
+        <v>40.8</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0297486939265979</v>
+        <v>0.0828307072544337</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.358733935643031</v>
+        <v>-0.336894486776656</v>
       </c>
       <c r="N21" t="n">
-        <v>0.526927939002876</v>
+        <v>0.494572529144938</v>
       </c>
       <c r="O21" t="n">
-        <v>63.749875</v>
+        <v>63.9397</v>
       </c>
       <c r="P21" t="n">
-        <v>69.74655</v>
+        <v>69.4361</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.041</v>
+        <v>74.8851</v>
       </c>
       <c r="R21" t="n">
-        <v>90.5965</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="22">
@@ -1758,22 +1752,22 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.9407196969697</v>
+        <v>-4.86919191919192</v>
       </c>
       <c r="E22" t="n">
-        <v>3.213052138202</v>
+        <v>3.17722044406817</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.93</v>
+        <v>-3.91</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.39070754716981</v>
+        <v>-4.32719665271967</v>
       </c>
       <c r="H22" t="n">
-        <v>2.260965</v>
+        <v>2.253552</v>
       </c>
       <c r="I22" t="n">
         <v>-14.99</v>
@@ -1785,19 +1779,19 @@
         <v>13.61</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.40764646771156</v>
+        <v>-1.41958800308812</v>
       </c>
       <c r="M22" t="n">
-        <v>1.40660548406434</v>
+        <v>1.45947926701729</v>
       </c>
       <c r="N22" t="n">
-        <v>0.197749689142809</v>
+        <v>0.184361029119303</v>
       </c>
       <c r="O22" t="n">
-        <v>-6.1975</v>
+        <v>-6.09</v>
       </c>
       <c r="P22" t="n">
-        <v>-3.93</v>
+        <v>-3.91</v>
       </c>
       <c r="Q22" t="n">
         <v>-2.63</v>
@@ -1814,49 +1808,49 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D23" t="n">
-        <v>96.8119428030303</v>
+        <v>96.8303451178451</v>
       </c>
       <c r="E23" t="n">
-        <v>4.73059665369475</v>
+        <v>4.67713344857674</v>
       </c>
       <c r="F23" t="n">
-        <v>96.85</v>
+        <v>96.9</v>
       </c>
       <c r="G23" t="n">
-        <v>96.6266882075472</v>
+        <v>96.641940167364</v>
       </c>
       <c r="H23" t="n">
-        <v>3.63236999999998</v>
+        <v>3.69211878000001</v>
       </c>
       <c r="I23" t="n">
-        <v>82.3144</v>
+        <v>82.3</v>
       </c>
       <c r="J23" t="n">
         <v>115.2</v>
       </c>
       <c r="K23" t="n">
-        <v>32.8856</v>
+        <v>32.9</v>
       </c>
       <c r="L23" t="n">
-        <v>0.850617160401366</v>
+        <v>0.869745788982389</v>
       </c>
       <c r="M23" t="n">
-        <v>3.19132866850116</v>
+        <v>3.24470353569853</v>
       </c>
       <c r="N23" t="n">
-        <v>0.291148097662565</v>
+        <v>0.271394809106743</v>
       </c>
       <c r="O23" t="n">
-        <v>94.2</v>
+        <v>94.211</v>
       </c>
       <c r="P23" t="n">
-        <v>96.85</v>
+        <v>96.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.7</v>
+        <v>98.6882</v>
       </c>
       <c r="R23" t="n">
         <v>115.2</v>
@@ -1870,49 +1864,49 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D24" t="n">
-        <v>84.9122450757576</v>
+        <v>84.5083188552189</v>
       </c>
       <c r="E24" t="n">
-        <v>6.50734774165129</v>
+        <v>6.42158069216039</v>
       </c>
       <c r="F24" t="n">
-        <v>83.95</v>
+        <v>83.7786</v>
       </c>
       <c r="G24" t="n">
-        <v>84.5881325471698</v>
+        <v>84.0954271966527</v>
       </c>
       <c r="H24" t="n">
-        <v>5.41148999999999</v>
+        <v>5.22082764</v>
       </c>
       <c r="I24" t="n">
-        <v>71.3899</v>
+        <v>71.4</v>
       </c>
       <c r="J24" t="n">
         <v>112.5</v>
       </c>
       <c r="K24" t="n">
-        <v>41.1101</v>
+        <v>41.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.23594681047722</v>
+        <v>1.40176784949209</v>
       </c>
       <c r="M24" t="n">
-        <v>3.59507895736238</v>
+        <v>4.15078775622366</v>
       </c>
       <c r="N24" t="n">
-        <v>0.400499567920425</v>
+        <v>0.372617904807216</v>
       </c>
       <c r="O24" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="P24" t="n">
-        <v>83.95</v>
+        <v>83.7786</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.7</v>
+        <v>87.9</v>
       </c>
       <c r="R24" t="n">
         <v>112.5</v>
@@ -1926,52 +1920,52 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D25" t="n">
-        <v>49.6691166666667</v>
+        <v>49.6869797979798</v>
       </c>
       <c r="E25" t="n">
-        <v>0.517029801035132</v>
+        <v>0.500072046967302</v>
       </c>
       <c r="F25" t="n">
-        <v>49.6164</v>
+        <v>49.6404</v>
       </c>
       <c r="G25" t="n">
-        <v>49.661708490566</v>
+        <v>49.6869535564854</v>
       </c>
       <c r="H25" t="n">
-        <v>0.45078453</v>
+        <v>0.437960040000001</v>
       </c>
       <c r="I25" t="n">
         <v>48.1734</v>
       </c>
       <c r="J25" t="n">
-        <v>51.1731</v>
+        <v>51.1584</v>
       </c>
       <c r="K25" t="n">
-        <v>2.9997</v>
+        <v>2.985</v>
       </c>
       <c r="L25" t="n">
-        <v>0.175528673800399</v>
+        <v>0.00544418083565141</v>
       </c>
       <c r="M25" t="n">
-        <v>0.586431915738046</v>
+        <v>0.31730283404959</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0318209845450811</v>
+        <v>0.0290171232483452</v>
       </c>
       <c r="O25" t="n">
-        <v>49.37525</v>
+        <v>49.4023</v>
       </c>
       <c r="P25" t="n">
-        <v>49.6164</v>
+        <v>49.6404</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.973075</v>
+        <v>50.002</v>
       </c>
       <c r="R25" t="n">
-        <v>51.1731</v>
+        <v>51.1584</v>
       </c>
     </row>
     <row r="26">
@@ -1982,22 +1976,22 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D26" t="n">
-        <v>75.4853454545455</v>
+        <v>76.1655595959596</v>
       </c>
       <c r="E26" t="n">
-        <v>8.01246769283025</v>
+        <v>8.01524195495074</v>
       </c>
       <c r="F26" t="n">
-        <v>76.5626</v>
+        <v>77.2892</v>
       </c>
       <c r="G26" t="n">
-        <v>76.0406844339623</v>
+        <v>76.7586108786611</v>
       </c>
       <c r="H26" t="n">
-        <v>7.54465488</v>
+        <v>7.47349007999999</v>
       </c>
       <c r="I26" t="n">
         <v>52.729</v>
@@ -2009,22 +2003,22 @@
         <v>37.9495</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.584593725861594</v>
+        <v>-0.637568889578318</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.137155315816888</v>
+        <v>-0.0626113125781642</v>
       </c>
       <c r="N26" t="n">
-        <v>0.493133297367105</v>
+        <v>0.46509151047853</v>
       </c>
       <c r="O26" t="n">
-        <v>71.42275</v>
+        <v>71.8166</v>
       </c>
       <c r="P26" t="n">
-        <v>76.5626</v>
+        <v>77.2892</v>
       </c>
       <c r="Q26" t="n">
-        <v>81.57665</v>
+        <v>81.9777</v>
       </c>
       <c r="R26" t="n">
         <v>90.6785</v>
@@ -2038,22 +2032,22 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D27" t="n">
-        <v>44.1346390151515</v>
+        <v>44.0661437710438</v>
       </c>
       <c r="E27" t="n">
-        <v>9.17000315081945</v>
+        <v>9.11631523523692</v>
       </c>
       <c r="F27" t="n">
         <v>44.8829</v>
       </c>
       <c r="G27" t="n">
-        <v>44.3122933962264</v>
+        <v>44.2389928870293</v>
       </c>
       <c r="H27" t="n">
-        <v>8.7021207</v>
+        <v>8.83051386</v>
       </c>
       <c r="I27" t="n">
         <v>20.9</v>
@@ -2065,22 +2059,22 @@
         <v>46.1431</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.176280739514986</v>
+        <v>-0.168389987701208</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.115816683312068</v>
+        <v>-0.0654452227398061</v>
       </c>
       <c r="N27" t="n">
-        <v>0.564374680059772</v>
+        <v>0.528982262367753</v>
       </c>
       <c r="O27" t="n">
-        <v>38.35</v>
+        <v>38.2</v>
       </c>
       <c r="P27" t="n">
         <v>44.8829</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.02805</v>
+        <v>49.9</v>
       </c>
       <c r="R27" t="n">
         <v>67.0431</v>
@@ -2094,52 +2088,52 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D28" t="n">
-        <v>55.4406795454545</v>
+        <v>55.9306996632997</v>
       </c>
       <c r="E28" t="n">
-        <v>17.356802966763</v>
+        <v>16.3910843084049</v>
       </c>
       <c r="F28" t="n">
-        <v>55.1979</v>
+        <v>56.5</v>
       </c>
       <c r="G28" t="n">
-        <v>55.7144198113208</v>
+        <v>56.4978518828452</v>
       </c>
       <c r="H28" t="n">
-        <v>20.81259054</v>
+        <v>19.12554</v>
       </c>
       <c r="I28" t="n">
         <v>13.1</v>
       </c>
       <c r="J28" t="n">
-        <v>89.7659</v>
+        <v>89.47</v>
       </c>
       <c r="K28" t="n">
-        <v>76.6659</v>
+        <v>76.37</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.113751527878338</v>
+        <v>-0.278861219801847</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.751413339535804</v>
+        <v>-0.632241441977221</v>
       </c>
       <c r="N28" t="n">
-        <v>1.06823737790668</v>
+        <v>0.951107178326447</v>
       </c>
       <c r="O28" t="n">
-        <v>41.4348</v>
+        <v>43.6</v>
       </c>
       <c r="P28" t="n">
-        <v>55.1979</v>
+        <v>56.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35</v>
+        <v>69.3</v>
       </c>
       <c r="R28" t="n">
-        <v>89.7659</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="29">
@@ -2150,22 +2144,22 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.567664772727273</v>
+        <v>-0.559414814814815</v>
       </c>
       <c r="E29" t="n">
-        <v>0.590981086732895</v>
+        <v>0.576672163689539</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.38755</v>
+        <v>-0.39</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.462543867924528</v>
+        <v>-0.460329288702929</v>
       </c>
       <c r="H29" t="n">
-        <v>0.36864849</v>
+        <v>0.37835952</v>
       </c>
       <c r="I29" t="n">
         <v>-3.5211</v>
@@ -2177,22 +2171,22 @@
         <v>3.5211</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.04538012927087</v>
+        <v>-2.02028783057361</v>
       </c>
       <c r="M29" t="n">
-        <v>5.20419793749058</v>
+        <v>5.25705634173689</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0363723715532692</v>
+        <v>0.0334619128366585</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.762325</v>
+        <v>-0.7589</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.38755</v>
+        <v>-0.39</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.160775</v>
+        <v>-0.1557</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2206,22 +2200,22 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D30" t="n">
-        <v>73.5056818181818</v>
+        <v>73.6845117845118</v>
       </c>
       <c r="E30" t="n">
-        <v>2.90562681945991</v>
+        <v>2.81894457092517</v>
       </c>
       <c r="F30" t="n">
-        <v>74.35</v>
+        <v>74.5</v>
       </c>
       <c r="G30" t="n">
-        <v>73.847641509434</v>
+        <v>74.0422594142259</v>
       </c>
       <c r="H30" t="n">
-        <v>2.14977</v>
+        <v>1.92738</v>
       </c>
       <c r="I30" t="n">
         <v>65.2</v>
@@ -2233,19 +2227,19 @@
         <v>12.8</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.9896189430625</v>
+        <v>-1.09287233757708</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0719538932775428</v>
+        <v>0.401451860423926</v>
       </c>
       <c r="N30" t="n">
-        <v>0.178828968718429</v>
+        <v>0.163571754391898</v>
       </c>
       <c r="O30" t="n">
-        <v>72.575</v>
+        <v>72.8</v>
       </c>
       <c r="P30" t="n">
-        <v>74.35</v>
+        <v>74.5</v>
       </c>
       <c r="Q30" t="n">
         <v>75.7</v>
@@ -2262,52 +2256,52 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.3167446969697</v>
+        <v>-6.45582424242424</v>
       </c>
       <c r="E31" t="n">
-        <v>2.59114325764609</v>
+        <v>2.61831786180056</v>
       </c>
       <c r="F31" t="n">
-        <v>-6.00065</v>
+        <v>-6.2256</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.14929811320755</v>
+        <v>-6.29413263598326</v>
       </c>
       <c r="H31" t="n">
-        <v>2.61589944</v>
+        <v>2.59692216</v>
       </c>
       <c r="I31" t="n">
-        <v>-15.1215</v>
+        <v>-15.2236</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.2506</v>
+        <v>-1.2502</v>
       </c>
       <c r="K31" t="n">
-        <v>13.8709</v>
+        <v>13.9734</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.678161691603759</v>
+        <v>-0.665590901711041</v>
       </c>
       <c r="M31" t="n">
-        <v>0.448568160972226</v>
+        <v>0.490963807226761</v>
       </c>
       <c r="N31" t="n">
-        <v>0.159473843462351</v>
+        <v>0.151930211976392</v>
       </c>
       <c r="O31" t="n">
-        <v>-7.8567</v>
+        <v>-7.9938</v>
       </c>
       <c r="P31" t="n">
-        <v>-6.00065</v>
+        <v>-6.2256</v>
       </c>
       <c r="Q31" t="n">
-        <v>-4.41875</v>
+        <v>-4.4847</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.2506</v>
+        <v>-1.2502</v>
       </c>
     </row>
     <row r="32">
@@ -2318,52 +2312,52 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D32" t="n">
-        <v>-158.692424621212</v>
+        <v>-159.762803703704</v>
       </c>
       <c r="E32" t="n">
-        <v>37.9936957168532</v>
+        <v>37.0683034313805</v>
       </c>
       <c r="F32" t="n">
-        <v>-152.7512</v>
+        <v>-155.0819</v>
       </c>
       <c r="G32" t="n">
-        <v>-157.574323584906</v>
+        <v>-158.744772384937</v>
       </c>
       <c r="H32" t="n">
-        <v>34.47726996</v>
+        <v>36.44245626</v>
       </c>
       <c r="I32" t="n">
-        <v>-270.3106</v>
+        <v>-269.7797</v>
       </c>
       <c r="J32" t="n">
-        <v>-66.0413</v>
+        <v>-67.4272</v>
       </c>
       <c r="K32" t="n">
-        <v>204.2693</v>
+        <v>202.3525</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.330854966570081</v>
+        <v>-0.308872918628423</v>
       </c>
       <c r="M32" t="n">
-        <v>0.00345374790612185</v>
+        <v>0.028460813388218</v>
       </c>
       <c r="N32" t="n">
-        <v>2.33835032680127</v>
+        <v>2.15092112386309</v>
       </c>
       <c r="O32" t="n">
-        <v>-185.696125</v>
+        <v>-185.0812</v>
       </c>
       <c r="P32" t="n">
-        <v>-152.7512</v>
+        <v>-155.0819</v>
       </c>
       <c r="Q32" t="n">
-        <v>-134.067375</v>
+        <v>-135.7321</v>
       </c>
       <c r="R32" t="n">
-        <v>-66.0413</v>
+        <v>-67.4272</v>
       </c>
     </row>
     <row r="33">
@@ -2374,52 +2368,52 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D33" t="n">
-        <v>-84.1626693181818</v>
+        <v>-83.8696892255892</v>
       </c>
       <c r="E33" t="n">
-        <v>24.2027779997342</v>
+        <v>23.7689097436727</v>
       </c>
       <c r="F33" t="n">
-        <v>-80.3999</v>
+        <v>-80.6495</v>
       </c>
       <c r="G33" t="n">
-        <v>-81.8531537735849</v>
+        <v>-81.7304129707113</v>
       </c>
       <c r="H33" t="n">
-        <v>23.50654887</v>
+        <v>23.2634766</v>
       </c>
       <c r="I33" t="n">
-        <v>-173.2058</v>
+        <v>-173.1977</v>
       </c>
       <c r="J33" t="n">
-        <v>-45.8065</v>
+        <v>-44.6096</v>
       </c>
       <c r="K33" t="n">
-        <v>127.3993</v>
+        <v>128.5881</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.938675547523016</v>
+        <v>-0.915031795115371</v>
       </c>
       <c r="M33" t="n">
-        <v>0.908432218117132</v>
+        <v>0.93088246220525</v>
       </c>
       <c r="N33" t="n">
-        <v>1.48957801491454</v>
+        <v>1.37921203093369</v>
       </c>
       <c r="O33" t="n">
-        <v>-98.57125</v>
+        <v>-97.1412</v>
       </c>
       <c r="P33" t="n">
-        <v>-80.3999</v>
+        <v>-80.6495</v>
       </c>
       <c r="Q33" t="n">
-        <v>-65.257375</v>
+        <v>-65.4974</v>
       </c>
       <c r="R33" t="n">
-        <v>-45.8065</v>
+        <v>-44.6096</v>
       </c>
     </row>
     <row r="34">
@@ -2430,52 +2424,52 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D34" t="n">
-        <v>-32.451240530303</v>
+        <v>-0.476010101010101</v>
       </c>
       <c r="E34" t="n">
-        <v>8.1960890080835</v>
+        <v>0.282834693804078</v>
       </c>
       <c r="F34" t="n">
-        <v>-32.6</v>
+        <v>-0.456</v>
       </c>
       <c r="G34" t="n">
-        <v>-32.3033382075472</v>
+        <v>-0.463364435146443</v>
       </c>
       <c r="H34" t="n">
-        <v>8.5227261</v>
+        <v>0.28421442</v>
       </c>
       <c r="I34" t="n">
-        <v>-48.9</v>
+        <v>-1.3995</v>
       </c>
       <c r="J34" t="n">
-        <v>-16.0183</v>
+        <v>-0.015</v>
       </c>
       <c r="K34" t="n">
-        <v>32.8817</v>
+        <v>1.3845</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.10417452739267</v>
+        <v>-0.589494145898997</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.756475361008559</v>
+        <v>0.544806794049324</v>
       </c>
       <c r="N34" t="n">
-        <v>0.504434408102159</v>
+        <v>0.0164117335067871</v>
       </c>
       <c r="O34" t="n">
-        <v>-37.6</v>
+        <v>-0.6718</v>
       </c>
       <c r="P34" t="n">
-        <v>-32.6</v>
+        <v>-0.456</v>
       </c>
       <c r="Q34" t="n">
-        <v>-26.838075</v>
+        <v>-0.292</v>
       </c>
       <c r="R34" t="n">
-        <v>-16.0183</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="35">
@@ -2486,52 +2480,52 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.471006439393939</v>
+        <v>-11.3484454545455</v>
       </c>
       <c r="E35" t="n">
-        <v>0.281130396379087</v>
+        <v>10.170130803591</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.454</v>
+        <v>-8.7377</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.45746320754717</v>
+        <v>-10.1190046025105</v>
       </c>
       <c r="H35" t="n">
-        <v>0.27339144</v>
+        <v>9.49130868</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.3995</v>
+        <v>-35.5851</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.015</v>
+        <v>-0.0256</v>
       </c>
       <c r="K35" t="n">
-        <v>1.3845</v>
+        <v>35.5595</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.621347385201182</v>
+        <v>-0.881426886936453</v>
       </c>
       <c r="M35" t="n">
-        <v>0.605315573695892</v>
+        <v>-0.391852412911617</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0173023798249563</v>
+        <v>0.590130843683985</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.65635</v>
+        <v>-17.8179</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.454</v>
+        <v>-8.7377</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.2914</v>
+        <v>-2.5363</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.015</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="36">
@@ -2542,52 +2536,52 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D36" t="n">
-        <v>-11.4803636363636</v>
+        <v>42.487263973064</v>
       </c>
       <c r="E36" t="n">
-        <v>10.2270310615598</v>
+        <v>9.33745860432311</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.7728</v>
+        <v>42</v>
       </c>
       <c r="G36" t="n">
-        <v>-10.255991509434</v>
+        <v>42.3918405857741</v>
       </c>
       <c r="H36" t="n">
-        <v>9.58597269</v>
+        <v>9.35268558</v>
       </c>
       <c r="I36" t="n">
-        <v>-35.5851</v>
+        <v>19.3</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.0256</v>
+        <v>68.5</v>
       </c>
       <c r="K36" t="n">
-        <v>35.5595</v>
+        <v>49.2</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.866318384860841</v>
+        <v>0.127924243205156</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.420874594925476</v>
+        <v>-0.206328842986629</v>
       </c>
       <c r="N36" t="n">
-        <v>0.629430250829675</v>
+        <v>0.54181430214131</v>
       </c>
       <c r="O36" t="n">
-        <v>-17.9097</v>
+        <v>35.9929</v>
       </c>
       <c r="P36" t="n">
-        <v>-8.7728</v>
+        <v>42</v>
       </c>
       <c r="Q36" t="n">
-        <v>-2.5363</v>
+        <v>48.4</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0256</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="37">
@@ -2598,52 +2592,52 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D37" t="n">
-        <v>42.0902174242424</v>
+        <v>88.7039094276094</v>
       </c>
       <c r="E37" t="n">
-        <v>9.51452846532554</v>
+        <v>5.89157685285413</v>
       </c>
       <c r="F37" t="n">
-        <v>41.3899</v>
+        <v>89.1666</v>
       </c>
       <c r="G37" t="n">
-        <v>41.9444037735849</v>
+        <v>89.1184476987448</v>
       </c>
       <c r="H37" t="n">
-        <v>9.83675448</v>
+        <v>5.83299317999999</v>
       </c>
       <c r="I37" t="n">
-        <v>19.3</v>
+        <v>69.4404</v>
       </c>
       <c r="J37" t="n">
-        <v>68.5</v>
+        <v>99.0078</v>
       </c>
       <c r="K37" t="n">
-        <v>49.2</v>
+        <v>29.5674</v>
       </c>
       <c r="L37" t="n">
-        <v>0.184013640412268</v>
+        <v>-0.613178297429181</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.197106566807049</v>
+        <v>-0.030788780327967</v>
       </c>
       <c r="N37" t="n">
-        <v>0.585578747381112</v>
+        <v>0.341863962809231</v>
       </c>
       <c r="O37" t="n">
-        <v>34.85</v>
+        <v>85.2956</v>
       </c>
       <c r="P37" t="n">
-        <v>41.3899</v>
+        <v>89.1666</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.95975</v>
+        <v>93.1994</v>
       </c>
       <c r="R37" t="n">
-        <v>68.5</v>
+        <v>99.0078</v>
       </c>
     </row>
     <row r="38">
@@ -2654,52 +2648,52 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D38" t="n">
-        <v>88.102903030303</v>
+        <v>69.5481239057239</v>
       </c>
       <c r="E38" t="n">
-        <v>5.84830532134103</v>
+        <v>10.1622636421835</v>
       </c>
       <c r="F38" t="n">
-        <v>88.5888</v>
+        <v>71.4809</v>
       </c>
       <c r="G38" t="n">
-        <v>88.4582320754717</v>
+        <v>69.7698962343096</v>
       </c>
       <c r="H38" t="n">
-        <v>5.73751373999998</v>
+        <v>11.56368696</v>
       </c>
       <c r="I38" t="n">
-        <v>69.4404</v>
+        <v>49.0076</v>
       </c>
       <c r="J38" t="n">
-        <v>99.0078</v>
+        <v>90.2528</v>
       </c>
       <c r="K38" t="n">
-        <v>29.5674</v>
+        <v>41.2452</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.550401984025053</v>
+        <v>-0.211210236650735</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0593881618113672</v>
+        <v>-1.00247614186536</v>
       </c>
       <c r="N38" t="n">
-        <v>0.359938310853116</v>
+        <v>0.589674344678371</v>
       </c>
       <c r="O38" t="n">
-        <v>84.617725</v>
+        <v>60.4836</v>
       </c>
       <c r="P38" t="n">
-        <v>88.5888</v>
+        <v>71.4809</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.4587</v>
+        <v>77.6804</v>
       </c>
       <c r="R38" t="n">
-        <v>99.0078</v>
+        <v>90.2528</v>
       </c>
     </row>
     <row r="39">
@@ -2710,52 +2704,52 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D39" t="n">
-        <v>-4750775.55059508</v>
+        <v>54.6535191919192</v>
       </c>
       <c r="E39" t="n">
-        <v>4966358.79423121</v>
+        <v>9.41698393693984</v>
       </c>
       <c r="F39" t="n">
-        <v>-3400497.14</v>
+        <v>54.88</v>
       </c>
       <c r="G39" t="n">
-        <v>-3978266.05039387</v>
+        <v>54.8957255230126</v>
       </c>
       <c r="H39" t="n">
-        <v>4749115.29015714</v>
+        <v>9.75269106</v>
       </c>
       <c r="I39" t="n">
-        <v>-19915997.62</v>
+        <v>30.92</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>75.38</v>
       </c>
       <c r="K39" t="n">
-        <v>19915997.62</v>
+        <v>44.46</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.06780866747433</v>
+        <v>-0.217616300743979</v>
       </c>
       <c r="M39" t="n">
-        <v>0.35375987281147</v>
+        <v>-0.485315738497623</v>
       </c>
       <c r="N39" t="n">
-        <v>305658.25436012</v>
+        <v>0.546428829971649</v>
       </c>
       <c r="O39" t="n">
-        <v>-7803441.333875</v>
+        <v>46.7496</v>
       </c>
       <c r="P39" t="n">
-        <v>-3400497.14</v>
+        <v>54.88</v>
       </c>
       <c r="Q39" t="n">
-        <v>-247881.13</v>
+        <v>61.3372</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>75.38</v>
       </c>
     </row>
     <row r="40">
@@ -2766,52 +2760,52 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D40" t="n">
-        <v>69.3691272727273</v>
+        <v>36.0491582491583</v>
       </c>
       <c r="E40" t="n">
-        <v>9.90212991143337</v>
+        <v>11.149427674313</v>
       </c>
       <c r="F40" t="n">
-        <v>70.5869</v>
+        <v>32.4</v>
       </c>
       <c r="G40" t="n">
-        <v>69.5550504716981</v>
+        <v>35.2167364016736</v>
       </c>
       <c r="H40" t="n">
-        <v>11.64033738</v>
+        <v>10.22994</v>
       </c>
       <c r="I40" t="n">
-        <v>49.0076</v>
+        <v>18.1</v>
       </c>
       <c r="J40" t="n">
-        <v>90.2528</v>
+        <v>67.1</v>
       </c>
       <c r="K40" t="n">
-        <v>41.2452</v>
+        <v>49</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.184283582929009</v>
+        <v>0.671068936551444</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.966890422085326</v>
+        <v>-0.44510124223405</v>
       </c>
       <c r="N40" t="n">
-        <v>0.609433967334691</v>
+        <v>0.646955411597334</v>
       </c>
       <c r="O40" t="n">
-        <v>61.44355</v>
+        <v>27.8</v>
       </c>
       <c r="P40" t="n">
-        <v>70.5869</v>
+        <v>32.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>77.03115</v>
+        <v>45.4</v>
       </c>
       <c r="R40" t="n">
-        <v>90.2528</v>
+        <v>67.1</v>
       </c>
     </row>
     <row r="41">
@@ -2822,52 +2816,52 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D41" t="n">
-        <v>54.8786242424242</v>
+        <v>0.42603265993266</v>
       </c>
       <c r="E41" t="n">
-        <v>9.70640982622799</v>
+        <v>0.121136180531579</v>
       </c>
       <c r="F41" t="n">
-        <v>55.76</v>
+        <v>0.4325</v>
       </c>
       <c r="G41" t="n">
-        <v>55.1853566037736</v>
+        <v>0.425156066945607</v>
       </c>
       <c r="H41" t="n">
-        <v>11.356716</v>
+        <v>0.15359736</v>
       </c>
       <c r="I41" t="n">
-        <v>30.92</v>
+        <v>0.2104</v>
       </c>
       <c r="J41" t="n">
-        <v>75.38</v>
+        <v>0.6596</v>
       </c>
       <c r="K41" t="n">
-        <v>44.46</v>
+        <v>0.4492</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.262628309816379</v>
+        <v>0.0728406463284118</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.545672018105025</v>
+        <v>-1.12154959994005</v>
       </c>
       <c r="N41" t="n">
-        <v>0.597388228783424</v>
+        <v>0.00702903411945449</v>
       </c>
       <c r="O41" t="n">
-        <v>46.744925</v>
+        <v>0.3231</v>
       </c>
       <c r="P41" t="n">
-        <v>55.76</v>
+        <v>0.4325</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.445</v>
+        <v>0.5289</v>
       </c>
       <c r="R41" t="n">
-        <v>75.38</v>
+        <v>0.6596</v>
       </c>
     </row>
     <row r="42">
@@ -2878,52 +2872,52 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D42" t="n">
-        <v>34.8106060606061</v>
+        <v>-65.8834333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>11.0391095798395</v>
+        <v>6.23915596768679</v>
       </c>
       <c r="F42" t="n">
-        <v>31.3</v>
+        <v>-65.8823</v>
       </c>
       <c r="G42" t="n">
-        <v>33.6943396226415</v>
+        <v>-65.7512966527197</v>
       </c>
       <c r="H42" t="n">
-        <v>8.37669</v>
+        <v>6.97548474</v>
       </c>
       <c r="I42" t="n">
-        <v>18.1</v>
+        <v>-84.3815</v>
       </c>
       <c r="J42" t="n">
-        <v>67.1</v>
+        <v>-49.9746</v>
       </c>
       <c r="K42" t="n">
-        <v>49</v>
+        <v>34.4069</v>
       </c>
       <c r="L42" t="n">
-        <v>0.932100392722318</v>
+        <v>-0.208652323601447</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0527788758284409</v>
+        <v>-0.124197002516689</v>
       </c>
       <c r="N42" t="n">
-        <v>0.679410228633341</v>
+        <v>0.36203254866564</v>
       </c>
       <c r="O42" t="n">
-        <v>27.375</v>
+        <v>-70.2028</v>
       </c>
       <c r="P42" t="n">
-        <v>31.3</v>
+        <v>-65.8823</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.4</v>
+        <v>-61.1058</v>
       </c>
       <c r="R42" t="n">
-        <v>67.1</v>
+        <v>-49.9746</v>
       </c>
     </row>
     <row r="43">
@@ -2934,52 +2928,52 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D43" t="n">
-        <v>0.423991666666667</v>
+        <v>-21.609437037037</v>
       </c>
       <c r="E43" t="n">
-        <v>0.127357828908489</v>
+        <v>6.43470510857855</v>
       </c>
       <c r="F43" t="n">
-        <v>0.42225</v>
+        <v>-19.9554</v>
       </c>
       <c r="G43" t="n">
-        <v>0.42258679245283</v>
+        <v>-20.627450209205</v>
       </c>
       <c r="H43" t="n">
-        <v>0.17442789</v>
+        <v>4.75603254</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2104</v>
+        <v>-43.1356</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6596</v>
+        <v>-11.4882</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4492</v>
+        <v>31.6474</v>
       </c>
       <c r="L43" t="n">
-        <v>0.110576218328235</v>
+        <v>-1.3659736752096</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.2740527459239</v>
+        <v>1.61303253868443</v>
       </c>
       <c r="N43" t="n">
-        <v>0.00783833252411833</v>
+        <v>0.373379460689169</v>
       </c>
       <c r="O43" t="n">
-        <v>0.309</v>
+        <v>-24.0417</v>
       </c>
       <c r="P43" t="n">
-        <v>0.42225</v>
+        <v>-19.9554</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.53975</v>
+        <v>-17.1656</v>
       </c>
       <c r="R43" t="n">
-        <v>0.6596</v>
+        <v>-11.4882</v>
       </c>
     </row>
     <row r="44">
@@ -2990,52 +2984,52 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D44" t="n">
-        <v>-66.046778030303</v>
+        <v>-16.4656565656566</v>
       </c>
       <c r="E44" t="n">
-        <v>6.28189748802747</v>
+        <v>2.23494187675322</v>
       </c>
       <c r="F44" t="n">
-        <v>-65.9616</v>
+        <v>-16.7</v>
       </c>
       <c r="G44" t="n">
-        <v>-65.9122169811321</v>
+        <v>-16.5246861924686</v>
       </c>
       <c r="H44" t="n">
-        <v>6.96147416999999</v>
+        <v>2.37216</v>
       </c>
       <c r="I44" t="n">
-        <v>-84.3815</v>
+        <v>-22</v>
       </c>
       <c r="J44" t="n">
-        <v>-49.9746</v>
+        <v>-9.7</v>
       </c>
       <c r="K44" t="n">
-        <v>34.4069</v>
+        <v>12.3</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.224264298918137</v>
+        <v>0.268150247720743</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.094722614938084</v>
+        <v>-0.22339895592094</v>
       </c>
       <c r="N44" t="n">
-        <v>0.386624063990313</v>
+        <v>0.129684481034143</v>
       </c>
       <c r="O44" t="n">
-        <v>-70.413575</v>
+        <v>-18.1</v>
       </c>
       <c r="P44" t="n">
-        <v>-65.9616</v>
+        <v>-16.7</v>
       </c>
       <c r="Q44" t="n">
-        <v>-61.171575</v>
+        <v>-14.9</v>
       </c>
       <c r="R44" t="n">
-        <v>-49.9746</v>
+        <v>-9.7</v>
       </c>
     </row>
     <row r="45">
@@ -3046,52 +3040,52 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D45" t="n">
-        <v>-20.3692397727273</v>
+        <v>-24735.1805609428</v>
       </c>
       <c r="E45" t="n">
-        <v>3.34082184823496</v>
+        <v>10376.9517683916</v>
       </c>
       <c r="F45" t="n">
-        <v>-19.9853</v>
+        <v>-23365</v>
       </c>
       <c r="G45" t="n">
-        <v>-20.1758283018868</v>
+        <v>-23511.2023740586</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3373326</v>
+        <v>8023.8312</v>
       </c>
       <c r="I45" t="n">
-        <v>-28.9961</v>
+        <v>-62160</v>
       </c>
       <c r="J45" t="n">
-        <v>-12.5186</v>
+        <v>-8226.0171</v>
       </c>
       <c r="K45" t="n">
-        <v>16.4775</v>
+        <v>53933.9829</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.470900139469799</v>
+        <v>-1.33854263134668</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.23001406076509</v>
+        <v>2.39027938035667</v>
       </c>
       <c r="N45" t="n">
-        <v>0.205613371197786</v>
+        <v>602.131813268982</v>
       </c>
       <c r="O45" t="n">
-        <v>-22.47725</v>
+        <v>-29144</v>
       </c>
       <c r="P45" t="n">
-        <v>-19.9853</v>
+        <v>-23365</v>
       </c>
       <c r="Q45" t="n">
-        <v>-17.819225</v>
+        <v>-18353.7793</v>
       </c>
       <c r="R45" t="n">
-        <v>-12.5186</v>
+        <v>-8226.0171</v>
       </c>
     </row>
     <row r="46">
@@ -3102,52 +3096,52 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D46" t="n">
-        <v>-16.7007575757576</v>
+        <v>-55.9100868686869</v>
       </c>
       <c r="E46" t="n">
-        <v>2.17736353680897</v>
+        <v>13.3522086225664</v>
       </c>
       <c r="F46" t="n">
-        <v>-17</v>
+        <v>-55.1753</v>
       </c>
       <c r="G46" t="n">
-        <v>-16.7688679245283</v>
+        <v>-55.5415552301255</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2239</v>
+        <v>16.47272382</v>
       </c>
       <c r="I46" t="n">
-        <v>-22</v>
+        <v>-83.3681</v>
       </c>
       <c r="J46" t="n">
-        <v>-9.7</v>
+        <v>-34.1787</v>
       </c>
       <c r="K46" t="n">
-        <v>12.3</v>
+        <v>49.1894</v>
       </c>
       <c r="L46" t="n">
-        <v>0.343572309133296</v>
+        <v>-0.17108438350602</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0897119341073926</v>
+        <v>-1.08285681971386</v>
       </c>
       <c r="N46" t="n">
-        <v>0.134007462074925</v>
+        <v>0.774773726282605</v>
       </c>
       <c r="O46" t="n">
-        <v>-18.225</v>
+        <v>-66.9081</v>
       </c>
       <c r="P46" t="n">
-        <v>-17</v>
+        <v>-55.1753</v>
       </c>
       <c r="Q46" t="n">
-        <v>-15.1</v>
+        <v>-45.3822</v>
       </c>
       <c r="R46" t="n">
-        <v>-9.7</v>
+        <v>-34.1787</v>
       </c>
     </row>
     <row r="47">
@@ -3158,52 +3152,52 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D47" t="n">
-        <v>-24740.2826765152</v>
+        <v>-2.6703063973064</v>
       </c>
       <c r="E47" t="n">
-        <v>10764.3706479411</v>
+        <v>2.53416227636781</v>
       </c>
       <c r="F47" t="n">
-        <v>-23213.9551</v>
+        <v>-2.08</v>
       </c>
       <c r="G47" t="n">
-        <v>-23406.435695283</v>
+        <v>-2.20018326359833</v>
       </c>
       <c r="H47" t="n">
-        <v>8661.3492</v>
+        <v>1.319514</v>
       </c>
       <c r="I47" t="n">
-        <v>-62160</v>
+        <v>-23.7029</v>
       </c>
       <c r="J47" t="n">
-        <v>-8226.0171</v>
+        <v>-0.35</v>
       </c>
       <c r="K47" t="n">
-        <v>53933.9829</v>
+        <v>23.3529</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.32666738917535</v>
+        <v>-3.90341758110866</v>
       </c>
       <c r="M47" t="n">
-        <v>2.1658132866006</v>
+        <v>23.1225711252195</v>
       </c>
       <c r="N47" t="n">
-        <v>662.501216254619</v>
+        <v>0.147047009627155</v>
       </c>
       <c r="O47" t="n">
-        <v>-29183.197275</v>
+        <v>-3.21</v>
       </c>
       <c r="P47" t="n">
-        <v>-23213.9551</v>
+        <v>-2.08</v>
       </c>
       <c r="Q47" t="n">
-        <v>-18004.5</v>
+        <v>-1.2</v>
       </c>
       <c r="R47" t="n">
-        <v>-8226.0171</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="48">
@@ -3214,52 +3208,52 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D48" t="n">
-        <v>-51.8897727272727</v>
+        <v>66.9983164983165</v>
       </c>
       <c r="E48" t="n">
-        <v>11.5864616136168</v>
+        <v>4.60070101820906</v>
       </c>
       <c r="F48" t="n">
-        <v>-51.05</v>
+        <v>67.4</v>
       </c>
       <c r="G48" t="n">
-        <v>-51.6943396226415</v>
+        <v>67.1577405857741</v>
       </c>
       <c r="H48" t="n">
-        <v>13.71405</v>
+        <v>4.89258000000002</v>
       </c>
       <c r="I48" t="n">
-        <v>-75.1</v>
+        <v>53.1</v>
       </c>
       <c r="J48" t="n">
-        <v>-30.5</v>
+        <v>76.8</v>
       </c>
       <c r="K48" t="n">
-        <v>44.6</v>
+        <v>23.7</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.160289795716721</v>
+        <v>-0.361978367704692</v>
       </c>
       <c r="M48" t="n">
-        <v>-1.05008694245321</v>
+        <v>-0.326575887990088</v>
       </c>
       <c r="N48" t="n">
-        <v>0.71309741759745</v>
+        <v>0.266959749667608</v>
       </c>
       <c r="O48" t="n">
-        <v>-61.925</v>
+        <v>63.8</v>
       </c>
       <c r="P48" t="n">
-        <v>-51.05</v>
+        <v>67.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>-42.675</v>
+        <v>70.5</v>
       </c>
       <c r="R48" t="n">
-        <v>-30.5</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="49">
@@ -3270,52 +3264,52 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.7553446969697</v>
+        <v>0.480778451178451</v>
       </c>
       <c r="E49" t="n">
-        <v>2.64018373138785</v>
+        <v>0.0907947600525407</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.08</v>
+        <v>0.4848</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.2611891509434</v>
+        <v>0.482318410041841</v>
       </c>
       <c r="H49" t="n">
-        <v>1.363992</v>
+        <v>0.07249914</v>
       </c>
       <c r="I49" t="n">
-        <v>-23.7029</v>
+        <v>0.1786</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K49" t="n">
-        <v>23.3529</v>
+        <v>0.5214</v>
       </c>
       <c r="L49" t="n">
-        <v>-3.78721017863392</v>
+        <v>-0.313239527679006</v>
       </c>
       <c r="M49" t="n">
-        <v>21.4155419637952</v>
+        <v>0.592188006723787</v>
       </c>
       <c r="N49" t="n">
-        <v>0.162492075977954</v>
+        <v>0.00526844633433544</v>
       </c>
       <c r="O49" t="n">
-        <v>-3.21</v>
+        <v>0.4286</v>
       </c>
       <c r="P49" t="n">
-        <v>-2.08</v>
+        <v>0.4848</v>
       </c>
       <c r="Q49" t="n">
-        <v>-1.2</v>
+        <v>0.5333</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.35</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="50">
@@ -3326,52 +3320,52 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D50" t="n">
-        <v>66.8583333333333</v>
+        <v>-38.6065306397306</v>
       </c>
       <c r="E50" t="n">
-        <v>4.68481150193031</v>
+        <v>8.45126155594919</v>
       </c>
       <c r="F50" t="n">
-        <v>67.45</v>
+        <v>-37.435</v>
       </c>
       <c r="G50" t="n">
-        <v>67.0169811320755</v>
+        <v>-38.1850016736402</v>
       </c>
       <c r="H50" t="n">
-        <v>4.96670999999999</v>
+        <v>7.75548059999999</v>
       </c>
       <c r="I50" t="n">
-        <v>53.1</v>
+        <v>-57.8446</v>
       </c>
       <c r="J50" t="n">
-        <v>77.9</v>
+        <v>-19.8052</v>
       </c>
       <c r="K50" t="n">
-        <v>24.8</v>
+        <v>38.0394</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.361585785377469</v>
+        <v>-0.480592812122333</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.371576277705754</v>
+        <v>-0.270288308745541</v>
       </c>
       <c r="N50" t="n">
-        <v>0.288330216364864</v>
+        <v>0.490391933842713</v>
       </c>
       <c r="O50" t="n">
-        <v>63.1</v>
+        <v>-43.142</v>
       </c>
       <c r="P50" t="n">
-        <v>67.45</v>
+        <v>-37.435</v>
       </c>
       <c r="Q50" t="n">
-        <v>70.3</v>
+        <v>-32.479</v>
       </c>
       <c r="R50" t="n">
-        <v>77.9</v>
+        <v>-19.8052</v>
       </c>
     </row>
     <row r="51">
@@ -3382,52 +3376,52 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D51" t="n">
-        <v>47.3937329545454</v>
+        <v>-12.6209636363636</v>
       </c>
       <c r="E51" t="n">
-        <v>9.18681808351271</v>
+        <v>4.55806457670687</v>
       </c>
       <c r="F51" t="n">
-        <v>48</v>
+        <v>-11.7983</v>
       </c>
       <c r="G51" t="n">
-        <v>47.4766561320755</v>
+        <v>-12.1227112970711</v>
       </c>
       <c r="H51" t="n">
-        <v>7.90715058</v>
+        <v>3.20286078</v>
       </c>
       <c r="I51" t="n">
-        <v>17.8571</v>
+        <v>-31.8414</v>
       </c>
       <c r="J51" t="n">
-        <v>70</v>
+        <v>-0.9885</v>
       </c>
       <c r="K51" t="n">
-        <v>52.1429</v>
+        <v>30.8529</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.239532465442772</v>
+        <v>-1.22399037054443</v>
       </c>
       <c r="M51" t="n">
-        <v>0.545600490850862</v>
+        <v>2.09730384494672</v>
       </c>
       <c r="N51" t="n">
-        <v>0.565409567627738</v>
+        <v>0.264485732402611</v>
       </c>
       <c r="O51" t="n">
-        <v>42.144225</v>
+        <v>-14.3664</v>
       </c>
       <c r="P51" t="n">
-        <v>48</v>
+        <v>-11.7983</v>
       </c>
       <c r="Q51" t="n">
-        <v>52.043475</v>
+        <v>-9.7958</v>
       </c>
       <c r="R51" t="n">
-        <v>70</v>
+        <v>-0.9885</v>
       </c>
     </row>
     <row r="52">
@@ -3438,52 +3432,52 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D52" t="n">
-        <v>-49.0980484848485</v>
+        <v>-20.7818599326599</v>
       </c>
       <c r="E52" t="n">
-        <v>13.626609632105</v>
+        <v>7.95002514601097</v>
       </c>
       <c r="F52" t="n">
-        <v>-47.67315</v>
+        <v>-19.9884</v>
       </c>
       <c r="G52" t="n">
-        <v>-47.9886188679245</v>
+        <v>-20.22499958159</v>
       </c>
       <c r="H52" t="n">
-        <v>13.41775239</v>
+        <v>8.15148306</v>
       </c>
       <c r="I52" t="n">
-        <v>-90.9091</v>
+        <v>-47.2233</v>
       </c>
       <c r="J52" t="n">
-        <v>-25</v>
+        <v>-7.4217</v>
       </c>
       <c r="K52" t="n">
-        <v>65.9091</v>
+        <v>39.8016</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.727934179820631</v>
+        <v>-0.619524039324929</v>
       </c>
       <c r="M52" t="n">
-        <v>0.536893181575784</v>
+        <v>0.00592426417875691</v>
       </c>
       <c r="N52" t="n">
-        <v>0.838659848304571</v>
+        <v>0.461307247402148</v>
       </c>
       <c r="O52" t="n">
-        <v>-57.318775</v>
+        <v>-25.2361</v>
       </c>
       <c r="P52" t="n">
-        <v>-47.67315</v>
+        <v>-19.9884</v>
       </c>
       <c r="Q52" t="n">
-        <v>-39.3275</v>
+        <v>-14.4325</v>
       </c>
       <c r="R52" t="n">
-        <v>-25</v>
+        <v>-7.4217</v>
       </c>
     </row>
     <row r="53">
@@ -3494,52 +3488,52 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D53" t="n">
-        <v>-12.7225503787879</v>
+        <v>74.1335343434343</v>
       </c>
       <c r="E53" t="n">
-        <v>4.59378240898941</v>
+        <v>16.8731191900947</v>
       </c>
       <c r="F53" t="n">
-        <v>-11.87905</v>
+        <v>73</v>
       </c>
       <c r="G53" t="n">
-        <v>-12.2221603773585</v>
+        <v>74.2860815899582</v>
       </c>
       <c r="H53" t="n">
-        <v>3.16735251</v>
+        <v>17.64294</v>
       </c>
       <c r="I53" t="n">
-        <v>-31.8414</v>
+        <v>31.0977</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.9885</v>
+        <v>112.4</v>
       </c>
       <c r="K53" t="n">
-        <v>30.8529</v>
+        <v>81.3023</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.22913456254027</v>
+        <v>-0.102572709859358</v>
       </c>
       <c r="M53" t="n">
-        <v>2.14735511314325</v>
+        <v>-0.383752621359286</v>
       </c>
       <c r="N53" t="n">
-        <v>0.282727762978569</v>
+        <v>0.979077679090927</v>
       </c>
       <c r="O53" t="n">
-        <v>-14.4253</v>
+        <v>63.292</v>
       </c>
       <c r="P53" t="n">
-        <v>-11.87905</v>
+        <v>73</v>
       </c>
       <c r="Q53" t="n">
-        <v>-9.8646</v>
+        <v>87.1455</v>
       </c>
       <c r="R53" t="n">
-        <v>-0.9885</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="54">
@@ -3550,52 +3544,52 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D54" t="n">
-        <v>-21.3381507575758</v>
+        <v>29.6049784511785</v>
       </c>
       <c r="E54" t="n">
-        <v>7.93416147566815</v>
+        <v>9.02211591148161</v>
       </c>
       <c r="F54" t="n">
-        <v>-20.8227</v>
+        <v>28.7187</v>
       </c>
       <c r="G54" t="n">
-        <v>-20.8248108490566</v>
+        <v>29.0128535564854</v>
       </c>
       <c r="H54" t="n">
-        <v>7.56103761</v>
+        <v>7.04175696</v>
       </c>
       <c r="I54" t="n">
-        <v>-47.2233</v>
+        <v>12.7308</v>
       </c>
       <c r="J54" t="n">
-        <v>-7.4217</v>
+        <v>72.3984</v>
       </c>
       <c r="K54" t="n">
-        <v>39.8016</v>
+        <v>59.6676</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.581006780605314</v>
+        <v>1.84981283486726</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.000755875235152637</v>
+        <v>6.72875506552719</v>
       </c>
       <c r="N54" t="n">
-        <v>0.488313882855388</v>
+        <v>0.523516263210441</v>
       </c>
       <c r="O54" t="n">
-        <v>-25.604575</v>
+        <v>25.1924</v>
       </c>
       <c r="P54" t="n">
-        <v>-20.8227</v>
+        <v>28.7187</v>
       </c>
       <c r="Q54" t="n">
-        <v>-15.6039</v>
+        <v>34.0926</v>
       </c>
       <c r="R54" t="n">
-        <v>-7.4217</v>
+        <v>72.3984</v>
       </c>
     </row>
     <row r="55">
@@ -3606,52 +3600,52 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D55" t="n">
-        <v>73.8543352272727</v>
+        <v>9.31784511784512</v>
       </c>
       <c r="E55" t="n">
-        <v>16.7079793374215</v>
+        <v>0.869974799408668</v>
       </c>
       <c r="F55" t="n">
-        <v>72.98325</v>
+        <v>9.44</v>
       </c>
       <c r="G55" t="n">
-        <v>74.0164301886793</v>
+        <v>9.37761506276151</v>
       </c>
       <c r="H55" t="n">
-        <v>17.30824305</v>
+        <v>0.726474</v>
       </c>
       <c r="I55" t="n">
-        <v>31.0977</v>
+        <v>6.92</v>
       </c>
       <c r="J55" t="n">
-        <v>107.7952</v>
+        <v>11.32</v>
       </c>
       <c r="K55" t="n">
-        <v>76.6975</v>
+        <v>4.4</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.121334136619806</v>
+        <v>-0.59705044760874</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.399226400765468</v>
+        <v>0.286980380581982</v>
       </c>
       <c r="N55" t="n">
-        <v>1.02830504394755</v>
+        <v>0.0504810579405298</v>
       </c>
       <c r="O55" t="n">
-        <v>62.931125</v>
+        <v>8.85</v>
       </c>
       <c r="P55" t="n">
-        <v>72.98325</v>
+        <v>9.44</v>
       </c>
       <c r="Q55" t="n">
-        <v>86.37335</v>
+        <v>9.89</v>
       </c>
       <c r="R55" t="n">
-        <v>107.7952</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="56">
@@ -3662,52 +3656,52 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D56" t="n">
-        <v>0.295097727272727</v>
+        <v>54.1782717171717</v>
       </c>
       <c r="E56" t="n">
-        <v>0.089242433483061</v>
+        <v>3.42493915956144</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2867</v>
+        <v>54.3535</v>
       </c>
       <c r="G56" t="n">
-        <v>0.289362264150943</v>
+        <v>54.1692539748954</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0696822</v>
+        <v>3.46794966</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1273</v>
+        <v>45.4225</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7022</v>
+        <v>63.4259</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5749</v>
+        <v>18.0034</v>
       </c>
       <c r="L56" t="n">
-        <v>1.79229943007353</v>
+        <v>0.00427605709019463</v>
       </c>
       <c r="M56" t="n">
-        <v>6.41632795508045</v>
+        <v>-0.357616277649567</v>
       </c>
       <c r="N56" t="n">
-        <v>0.00549249209802695</v>
+        <v>0.198735126895777</v>
       </c>
       <c r="O56" t="n">
-        <v>0.250875</v>
+        <v>51.9207</v>
       </c>
       <c r="P56" t="n">
-        <v>0.2867</v>
+        <v>54.3535</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.3407</v>
+        <v>56.5026</v>
       </c>
       <c r="R56" t="n">
-        <v>0.7022</v>
+        <v>63.4259</v>
       </c>
     </row>
     <row r="57">
@@ -3718,52 +3712,52 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D57" t="n">
-        <v>9.27386363636364</v>
+        <v>51.2415505050505</v>
       </c>
       <c r="E57" t="n">
-        <v>0.869026943910832</v>
+        <v>2.07739050931303</v>
       </c>
       <c r="F57" t="n">
-        <v>9.405</v>
+        <v>51.1206</v>
       </c>
       <c r="G57" t="n">
-        <v>9.33061320754717</v>
+        <v>51.2372121338912</v>
       </c>
       <c r="H57" t="n">
-        <v>0.719060999999999</v>
+        <v>2.39054423999999</v>
       </c>
       <c r="I57" t="n">
-        <v>6.92</v>
+        <v>46.4473</v>
       </c>
       <c r="J57" t="n">
-        <v>11.32</v>
+        <v>55.6705</v>
       </c>
       <c r="K57" t="n">
-        <v>4.4</v>
+        <v>9.2232</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.578571387127531</v>
+        <v>0.0378531735792955</v>
       </c>
       <c r="M57" t="n">
-        <v>0.281817627737126</v>
+        <v>-0.792349558370194</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0534849111135986</v>
+        <v>0.120542423455275</v>
       </c>
       <c r="O57" t="n">
-        <v>8.85</v>
+        <v>49.6172</v>
       </c>
       <c r="P57" t="n">
-        <v>9.405</v>
+        <v>51.1206</v>
       </c>
       <c r="Q57" t="n">
-        <v>9.85</v>
+        <v>52.8655</v>
       </c>
       <c r="R57" t="n">
-        <v>11.32</v>
+        <v>55.6705</v>
       </c>
     </row>
     <row r="58">
@@ -3774,164 +3768,52 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D58" t="n">
-        <v>54.0234295454545</v>
+        <v>1.9286494949495</v>
       </c>
       <c r="E58" t="n">
-        <v>3.41770418457599</v>
+        <v>1.13316157959982</v>
       </c>
       <c r="F58" t="n">
-        <v>54.231</v>
+        <v>1.7548</v>
       </c>
       <c r="G58" t="n">
-        <v>54.0165712264151</v>
+        <v>1.79042259414226</v>
       </c>
       <c r="H58" t="n">
-        <v>3.55431111</v>
+        <v>0.85293978</v>
       </c>
       <c r="I58" t="n">
-        <v>45.4225</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>63.4259</v>
+        <v>7.3738</v>
       </c>
       <c r="K58" t="n">
-        <v>18.0034</v>
+        <v>7.3738</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0144053215604079</v>
+        <v>1.52396886084538</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.483789671087606</v>
+        <v>3.45206579886989</v>
       </c>
       <c r="N58" t="n">
-        <v>0.210345151902882</v>
+        <v>0.0657527038652643</v>
       </c>
       <c r="O58" t="n">
-        <v>51.56205</v>
+        <v>1.1956</v>
       </c>
       <c r="P58" t="n">
-        <v>54.231</v>
+        <v>1.7548</v>
       </c>
       <c r="Q58" t="n">
-        <v>56.44575</v>
+        <v>2.3301</v>
       </c>
       <c r="R58" t="n">
-        <v>63.4259</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="n">
-        <v>264</v>
-      </c>
-      <c r="D59" t="n">
-        <v>50.9918178030303</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.0080210626218</v>
-      </c>
-      <c r="F59" t="n">
-        <v>50.7883</v>
-      </c>
-      <c r="G59" t="n">
-        <v>50.9639183962264</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2.18965194</v>
-      </c>
-      <c r="I59" t="n">
-        <v>46.4473</v>
-      </c>
-      <c r="J59" t="n">
-        <v>55.6705</v>
-      </c>
-      <c r="K59" t="n">
-        <v>9.2232</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.133859612785014</v>
-      </c>
-      <c r="M59" t="n">
-        <v>-0.655272765585396</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.123585153258011</v>
-      </c>
-      <c r="O59" t="n">
-        <v>49.44635</v>
-      </c>
-      <c r="P59" t="n">
-        <v>50.7883</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>52.39085</v>
-      </c>
-      <c r="R59" t="n">
-        <v>55.6705</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="n">
-        <v>264</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.84432083333333</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1.08347538540617</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.63775</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.70985896226415</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.80861004</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6.9811</v>
-      </c>
-      <c r="K60" t="n">
-        <v>6.9811</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.51545861021079</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3.29285883098088</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.0666833003145264</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.132775</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.63775</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>2.20235</v>
-      </c>
-      <c r="R60" t="n">
-        <v>6.9811</v>
+        <v>7.3738</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/04_ips_stats.xlsx
+++ b/03_ips_clean/04_ips_stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">indicador</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">ind_0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_0258</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0335</t>
@@ -632,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>9.53797530784039</v>
+        <v>9.536364571477</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
@@ -662,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.21429185897397</v>
+        <v>-1.21308509560849</v>
       </c>
       <c r="N2" t="n">
-        <v>0.55344946138406</v>
+        <v>0.524959592211547</v>
       </c>
       <c r="O2" t="n">
         <v>9</v>
@@ -688,52 +691,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D3" t="n">
-        <v>2019</v>
+        <v>2019.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2.58634668774107</v>
+        <v>2.87664318048693</v>
       </c>
       <c r="F3" t="n">
-        <v>2019</v>
+        <v>2019.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2019</v>
+        <v>2019.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9652</v>
+        <v>3.7065</v>
       </c>
       <c r="I3" t="n">
         <v>2015</v>
       </c>
       <c r="J3" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.24189912593953</v>
+        <v>-1.2349882850544</v>
       </c>
       <c r="N3" t="n">
-        <v>0.150075056296916</v>
+        <v>0.158353995345698</v>
       </c>
       <c r="O3" t="n">
         <v>2017</v>
       </c>
       <c r="P3" t="n">
-        <v>2019</v>
+        <v>2019.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="R3" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="4">
@@ -744,13 +747,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>9.53797530784039</v>
+        <v>9.536364571477</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -774,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.21429185897397</v>
+        <v>-1.21308509560849</v>
       </c>
       <c r="N4" t="n">
-        <v>0.55344946138406</v>
+        <v>0.524959592211547</v>
       </c>
       <c r="O4" t="n">
         <v>9</v>
@@ -800,52 +803,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D5" t="n">
-        <v>-20.9848484848485</v>
+        <v>-20.3406603030303</v>
       </c>
       <c r="E5" t="n">
-        <v>6.79125078491343</v>
+        <v>6.96213896524174</v>
       </c>
       <c r="F5" t="n">
-        <v>-19.9</v>
+        <v>-19.45</v>
       </c>
       <c r="G5" t="n">
-        <v>-20.163179916318</v>
+        <v>-19.6066397727273</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1891</v>
+        <v>5.85627</v>
       </c>
       <c r="I5" t="n">
         <v>-46.8</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.7</v>
+        <v>-7.9677</v>
       </c>
       <c r="K5" t="n">
-        <v>37.1</v>
+        <v>38.8323</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.36004863661683</v>
+        <v>-1.22210345878076</v>
       </c>
       <c r="M5" t="n">
-        <v>2.51856844981192</v>
+        <v>2.25187311344837</v>
       </c>
       <c r="N5" t="n">
-        <v>0.394068339215007</v>
+        <v>0.383253136425274</v>
       </c>
       <c r="O5" t="n">
-        <v>-24</v>
+        <v>-23.3</v>
       </c>
       <c r="P5" t="n">
-        <v>-19.9</v>
+        <v>-19.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>-16.6</v>
+        <v>-15.4</v>
       </c>
       <c r="R5" t="n">
-        <v>-9.7</v>
+        <v>-7.9677</v>
       </c>
     </row>
     <row r="6">
@@ -856,52 +859,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D6" t="n">
-        <v>-36.6089892255892</v>
+        <v>-35.9276136363636</v>
       </c>
       <c r="E6" t="n">
-        <v>14.4628631658537</v>
+        <v>14.1118053748051</v>
       </c>
       <c r="F6" t="n">
-        <v>-33.911</v>
+        <v>-33.2939</v>
       </c>
       <c r="G6" t="n">
-        <v>-35.7006573221757</v>
+        <v>-35.1541757575758</v>
       </c>
       <c r="H6" t="n">
-        <v>13.1261991</v>
+        <v>12.8771223</v>
       </c>
       <c r="I6" t="n">
-        <v>-82.5526</v>
+        <v>-78.3005</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-7.4794</v>
       </c>
       <c r="K6" t="n">
-        <v>82.5526</v>
+        <v>70.8211</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.634832272017393</v>
+        <v>-0.533763252139421</v>
       </c>
       <c r="M6" t="n">
-        <v>0.487849452176598</v>
+        <v>0.0257212255883319</v>
       </c>
       <c r="N6" t="n">
-        <v>0.839220439439939</v>
+        <v>0.776829318908793</v>
       </c>
       <c r="O6" t="n">
-        <v>-45.2887</v>
+        <v>-45.085425</v>
       </c>
       <c r="P6" t="n">
-        <v>-33.911</v>
+        <v>-33.2939</v>
       </c>
       <c r="Q6" t="n">
-        <v>-27.047</v>
+        <v>-26.601375</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-7.4794</v>
       </c>
     </row>
     <row r="7">
@@ -912,22 +915,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.1135612794613</v>
+        <v>-9.93947575757576</v>
       </c>
       <c r="E7" t="n">
-        <v>1.86556884747738</v>
+        <v>1.88788633055608</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.8966</v>
+        <v>-9.763</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.0051924686192</v>
+        <v>-9.81640378787879</v>
       </c>
       <c r="H7" t="n">
-        <v>1.75866012</v>
+        <v>1.82300496</v>
       </c>
       <c r="I7" t="n">
         <v>-15.9327</v>
@@ -939,22 +942,22 @@
         <v>10.3235</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.553125861200182</v>
+        <v>-0.577457633118637</v>
       </c>
       <c r="M7" t="n">
-        <v>0.269650352443848</v>
+        <v>0.275528304554683</v>
       </c>
       <c r="N7" t="n">
-        <v>0.108251283997612</v>
+        <v>0.10392472213098</v>
       </c>
       <c r="O7" t="n">
-        <v>-11.2132</v>
+        <v>-11.057775</v>
       </c>
       <c r="P7" t="n">
-        <v>-9.8966</v>
+        <v>-9.763</v>
       </c>
       <c r="Q7" t="n">
-        <v>-8.7753</v>
+        <v>-8.566075</v>
       </c>
       <c r="R7" t="n">
         <v>-5.6092</v>
@@ -968,49 +971,49 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D8" t="n">
-        <v>-82.218668013468</v>
+        <v>-78.7018315151515</v>
       </c>
       <c r="E8" t="n">
-        <v>79.9808022353178</v>
+        <v>76.7104210826005</v>
       </c>
       <c r="F8" t="n">
-        <v>-43.3288</v>
+        <v>-43.37935</v>
       </c>
       <c r="G8" t="n">
-        <v>-66.5912715481171</v>
+        <v>-62.4362162878788</v>
       </c>
       <c r="H8" t="n">
-        <v>19.577733</v>
+        <v>18.77505336</v>
       </c>
       <c r="I8" t="n">
-        <v>-401.0262</v>
+        <v>-401.0477</v>
       </c>
       <c r="J8" t="n">
         <v>-18.2297</v>
       </c>
       <c r="K8" t="n">
-        <v>382.7965</v>
+        <v>382.818</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.65300806603531</v>
+        <v>-1.81226492782895</v>
       </c>
       <c r="M8" t="n">
-        <v>1.77202695205839</v>
+        <v>2.40635825318441</v>
       </c>
       <c r="N8" t="n">
-        <v>4.64095685819345</v>
+        <v>4.22276970097642</v>
       </c>
       <c r="O8" t="n">
-        <v>-88.1324</v>
+        <v>-74.808875</v>
       </c>
       <c r="P8" t="n">
-        <v>-43.3288</v>
+        <v>-43.37935</v>
       </c>
       <c r="Q8" t="n">
-        <v>-33.7198</v>
+        <v>-33.96905</v>
       </c>
       <c r="R8" t="n">
         <v>-18.2297</v>
@@ -1024,52 +1027,52 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D9" t="n">
-        <v>75.1603902356902</v>
+        <v>76.0949993939394</v>
       </c>
       <c r="E9" t="n">
-        <v>16.3048599284453</v>
+        <v>16.4275294320476</v>
       </c>
       <c r="F9" t="n">
-        <v>78.6328</v>
+        <v>80.29655</v>
       </c>
       <c r="G9" t="n">
-        <v>77.0491774058577</v>
+        <v>78.1944950757576</v>
       </c>
       <c r="H9" t="n">
-        <v>16.35811884</v>
+        <v>14.83141149</v>
       </c>
       <c r="I9" t="n">
-        <v>26.6576</v>
+        <v>23.438</v>
       </c>
       <c r="J9" t="n">
-        <v>97.6</v>
+        <v>97.5903</v>
       </c>
       <c r="K9" t="n">
-        <v>70.9424</v>
+        <v>74.1523</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.91722371053686</v>
+        <v>-1.00627682268664</v>
       </c>
       <c r="M9" t="n">
-        <v>0.320442828499686</v>
+        <v>0.445083630806872</v>
       </c>
       <c r="N9" t="n">
-        <v>0.946103932343249</v>
+        <v>0.904305732761561</v>
       </c>
       <c r="O9" t="n">
-        <v>66.2601</v>
+        <v>67.272</v>
       </c>
       <c r="P9" t="n">
-        <v>78.6328</v>
+        <v>80.29655</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.3283</v>
+        <v>88.3991</v>
       </c>
       <c r="R9" t="n">
-        <v>97.6</v>
+        <v>97.5903</v>
       </c>
     </row>
     <row r="10">
@@ -1080,22 +1083,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D10" t="n">
-        <v>65.4856952861953</v>
+        <v>65.3735506060606</v>
       </c>
       <c r="E10" t="n">
-        <v>24.023443606492</v>
+        <v>24.0130749591537</v>
       </c>
       <c r="F10" t="n">
-        <v>73.543</v>
+        <v>73.97435</v>
       </c>
       <c r="G10" t="n">
-        <v>67.0539125523013</v>
+        <v>66.9681363636364</v>
       </c>
       <c r="H10" t="n">
-        <v>26.98969518</v>
+        <v>26.69184084</v>
       </c>
       <c r="I10" t="n">
         <v>10.6389</v>
@@ -1107,22 +1110,22 @@
         <v>87.5903</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.438574912323125</v>
+        <v>-0.432517206996202</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.12828870193741</v>
+        <v>-1.13998794859227</v>
       </c>
       <c r="N10" t="n">
-        <v>1.39398158366734</v>
+        <v>1.32187627096457</v>
       </c>
       <c r="O10" t="n">
-        <v>46.2657</v>
+        <v>46.233225</v>
       </c>
       <c r="P10" t="n">
-        <v>73.543</v>
+        <v>73.97435</v>
       </c>
       <c r="Q10" t="n">
-        <v>87.092</v>
+        <v>87.0753</v>
       </c>
       <c r="R10" t="n">
         <v>98.2292</v>
@@ -1136,52 +1139,52 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D11" t="n">
-        <v>91.806295959596</v>
+        <v>92.0715596969697</v>
       </c>
       <c r="E11" t="n">
-        <v>3.23375537258361</v>
+        <v>3.24079934553751</v>
       </c>
       <c r="F11" t="n">
-        <v>92.0779</v>
+        <v>92.44605</v>
       </c>
       <c r="G11" t="n">
-        <v>92.051879497908</v>
+        <v>92.3348170454545</v>
       </c>
       <c r="H11" t="n">
-        <v>3.34771079999999</v>
+        <v>3.13762638</v>
       </c>
       <c r="I11" t="n">
         <v>79.8893</v>
       </c>
       <c r="J11" t="n">
-        <v>97.5492</v>
+        <v>97.6187</v>
       </c>
       <c r="K11" t="n">
-        <v>17.6599</v>
+        <v>17.7294</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.798121230696568</v>
+        <v>-0.835539819288176</v>
       </c>
       <c r="M11" t="n">
-        <v>0.735705896965445</v>
+        <v>0.774522174350693</v>
       </c>
       <c r="N11" t="n">
-        <v>0.187641518397833</v>
+        <v>0.178400132474101</v>
       </c>
       <c r="O11" t="n">
-        <v>89.9094</v>
+        <v>90.23395</v>
       </c>
       <c r="P11" t="n">
-        <v>92.0779</v>
+        <v>92.44605</v>
       </c>
       <c r="Q11" t="n">
-        <v>94.3359</v>
+        <v>94.5322</v>
       </c>
       <c r="R11" t="n">
-        <v>97.5492</v>
+        <v>97.6187</v>
       </c>
     </row>
     <row r="12">
@@ -1192,52 +1195,52 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.46697272727273</v>
+        <v>-1.40118606060606</v>
       </c>
       <c r="E12" t="n">
-        <v>1.43056263273558</v>
+        <v>1.30447972753966</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9843</v>
+        <v>-0.9089</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.20517949790795</v>
+        <v>-1.16443371212121</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9251424</v>
+        <v>0.83292468</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.7443</v>
+        <v>-8.8947</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.001</v>
+        <v>-0.1149</v>
       </c>
       <c r="K12" t="n">
-        <v>8.7433</v>
+        <v>8.7798</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.96653555253961</v>
+        <v>-1.94437370693752</v>
       </c>
       <c r="M12" t="n">
-        <v>4.78544595400961</v>
+        <v>4.86753826255126</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0830096632681407</v>
+        <v>0.0718092456181536</v>
       </c>
       <c r="O12" t="n">
-        <v>-1.9291</v>
+        <v>-2.0131</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.9843</v>
+        <v>-0.9089</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.4793</v>
+        <v>-0.486025</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.001</v>
+        <v>-0.1149</v>
       </c>
     </row>
     <row r="13">
@@ -1248,52 +1251,52 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.52112558922559</v>
+        <v>-2.72857</v>
       </c>
       <c r="E13" t="n">
-        <v>2.64619084178887</v>
+        <v>2.62409905104689</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.6158</v>
+        <v>-1.85425</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.95256736401674</v>
+        <v>-2.15688257575758</v>
       </c>
       <c r="H13" t="n">
-        <v>1.46599488</v>
+        <v>1.32299811</v>
       </c>
       <c r="I13" t="n">
-        <v>-14.6154</v>
+        <v>-11.8208</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0426</v>
+        <v>-0.1091</v>
       </c>
       <c r="K13" t="n">
-        <v>14.5728</v>
+        <v>11.7117</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.17785472001736</v>
+        <v>-1.9677596379228</v>
       </c>
       <c r="M13" t="n">
-        <v>4.70464086958925</v>
+        <v>3.33740609334957</v>
       </c>
       <c r="N13" t="n">
-        <v>0.153547566316681</v>
+        <v>0.144451898565254</v>
       </c>
       <c r="O13" t="n">
-        <v>-2.9961</v>
+        <v>-3.278</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.6158</v>
+        <v>-1.85425</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.8506</v>
+        <v>-1.1066</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0426</v>
+        <v>-0.1091</v>
       </c>
     </row>
     <row r="14">
@@ -1304,52 +1307,52 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D14" t="n">
-        <v>-14.398101010101</v>
+        <v>-14.8012215151515</v>
       </c>
       <c r="E14" t="n">
-        <v>14.4353802482999</v>
+        <v>14.4717296584446</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.5059</v>
+        <v>-8.64785</v>
       </c>
       <c r="G14" t="n">
-        <v>-12.0045037656904</v>
+        <v>-12.4279132575758</v>
       </c>
       <c r="H14" t="n">
-        <v>9.68775318</v>
+        <v>9.15120024</v>
       </c>
       <c r="I14" t="n">
-        <v>-80.3336</v>
+        <v>-57.4105</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0332</v>
+        <v>-0.0999</v>
       </c>
       <c r="K14" t="n">
-        <v>80.3004</v>
+        <v>57.3106</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.37113039796134</v>
+        <v>-1.24351692974161</v>
       </c>
       <c r="M14" t="n">
-        <v>1.43108251242455</v>
+        <v>0.588719089870754</v>
       </c>
       <c r="N14" t="n">
-        <v>0.83762571881774</v>
+        <v>0.796642498632597</v>
       </c>
       <c r="O14" t="n">
-        <v>-21.931</v>
+        <v>-21.807</v>
       </c>
       <c r="P14" t="n">
-        <v>-8.5059</v>
+        <v>-8.64785</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4.3781</v>
+        <v>-4.404725</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0332</v>
+        <v>-0.0999</v>
       </c>
     </row>
     <row r="15">
@@ -1360,52 +1363,52 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.90090572390572</v>
+        <v>-4.73710909090909</v>
       </c>
       <c r="E15" t="n">
-        <v>3.01702239369465</v>
+        <v>2.99208022836738</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.1087</v>
+        <v>-3.6933</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.4752820083682</v>
+        <v>-4.29849621212121</v>
       </c>
       <c r="H15" t="n">
-        <v>2.41233846</v>
+        <v>2.26452324</v>
       </c>
       <c r="I15" t="n">
         <v>-16.8404</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.9948</v>
+        <v>-0.7158</v>
       </c>
       <c r="K15" t="n">
-        <v>15.8456</v>
+        <v>16.1246</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.28759633894116</v>
+        <v>-1.31155594528785</v>
       </c>
       <c r="M15" t="n">
-        <v>1.45722188056904</v>
+        <v>1.55337223881499</v>
       </c>
       <c r="N15" t="n">
-        <v>0.175065395420071</v>
+        <v>0.164708595689175</v>
       </c>
       <c r="O15" t="n">
-        <v>-6.3727</v>
+        <v>-6.1634</v>
       </c>
       <c r="P15" t="n">
-        <v>-4.1087</v>
+        <v>-3.6933</v>
       </c>
       <c r="Q15" t="n">
-        <v>-2.6543</v>
+        <v>-2.493475</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.9948</v>
+        <v>-0.7158</v>
       </c>
     </row>
     <row r="16">
@@ -1416,52 +1419,52 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D16" t="n">
-        <v>-27.7336754208754</v>
+        <v>-27.0078478787879</v>
       </c>
       <c r="E16" t="n">
-        <v>24.5055735731118</v>
+        <v>23.5600130665859</v>
       </c>
       <c r="F16" t="n">
-        <v>-18.5631</v>
+        <v>-18.3091</v>
       </c>
       <c r="G16" t="n">
-        <v>-23.4530652719665</v>
+        <v>-22.921821969697</v>
       </c>
       <c r="H16" t="n">
-        <v>13.63591698</v>
+        <v>13.86905583</v>
       </c>
       <c r="I16" t="n">
-        <v>-118.7071</v>
+        <v>-114.3776</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.9959</v>
+        <v>-1.9418</v>
       </c>
       <c r="K16" t="n">
-        <v>116.7112</v>
+        <v>112.4358</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.58513039893668</v>
+        <v>-1.54504375212315</v>
       </c>
       <c r="M16" t="n">
-        <v>2.09036878030475</v>
+        <v>1.97054058328831</v>
       </c>
       <c r="N16" t="n">
-        <v>1.42195760181907</v>
+        <v>1.29693603461074</v>
       </c>
       <c r="O16" t="n">
-        <v>-36.4629</v>
+        <v>-34.70525</v>
       </c>
       <c r="P16" t="n">
-        <v>-18.5631</v>
+        <v>-18.3091</v>
       </c>
       <c r="Q16" t="n">
-        <v>-10.7747</v>
+        <v>-10.29545</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.9959</v>
+        <v>-1.9418</v>
       </c>
     </row>
     <row r="17">
@@ -1472,52 +1475,52 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D17" t="n">
-        <v>-14.3834111111111</v>
+        <v>-14.4577712121212</v>
       </c>
       <c r="E17" t="n">
-        <v>5.0202551322635</v>
+        <v>5.01829435856741</v>
       </c>
       <c r="F17" t="n">
-        <v>-14.3402</v>
+        <v>-14.5123</v>
       </c>
       <c r="G17" t="n">
-        <v>-14.2325163179916</v>
+        <v>-14.3016507575758</v>
       </c>
       <c r="H17" t="n">
-        <v>4.7710068</v>
+        <v>4.79072538</v>
       </c>
       <c r="I17" t="n">
-        <v>-28.3759</v>
+        <v>-28.693</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.9589</v>
+        <v>-3.928</v>
       </c>
       <c r="K17" t="n">
-        <v>24.417</v>
+        <v>24.765</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.267792325294935</v>
+        <v>-0.268609439807358</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.235928599607804</v>
+        <v>-0.212043951694378</v>
       </c>
       <c r="N17" t="n">
-        <v>0.291304748574664</v>
+        <v>0.276248012576038</v>
       </c>
       <c r="O17" t="n">
-        <v>-17.3662</v>
+        <v>-17.587525</v>
       </c>
       <c r="P17" t="n">
-        <v>-14.3402</v>
+        <v>-14.5123</v>
       </c>
       <c r="Q17" t="n">
-        <v>-11.0119</v>
+        <v>-11.052075</v>
       </c>
       <c r="R17" t="n">
-        <v>-3.9589</v>
+        <v>-3.928</v>
       </c>
     </row>
     <row r="18">
@@ -1528,22 +1531,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.86793602693603</v>
+        <v>-2.89389090909091</v>
       </c>
       <c r="E18" t="n">
-        <v>1.02605621550679</v>
+        <v>1.01891499607083</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.845</v>
+        <v>-2.875</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.83200418410042</v>
+        <v>-2.86293181818182</v>
       </c>
       <c r="H18" t="n">
-        <v>0.956277</v>
+        <v>0.9318141</v>
       </c>
       <c r="I18" t="n">
         <v>-5</v>
@@ -1555,22 +1558,22 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.263595189566171</v>
+        <v>-0.225221075532218</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.536534944098344</v>
+        <v>-0.524752862109154</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0595378202913985</v>
+        <v>0.0560894245208925</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.458</v>
+        <v>-3.47</v>
       </c>
       <c r="P18" t="n">
-        <v>-2.845</v>
+        <v>-2.875</v>
       </c>
       <c r="Q18" t="n">
-        <v>-2.2</v>
+        <v>-2.20625</v>
       </c>
       <c r="R18" t="n">
         <v>-1</v>
@@ -1584,22 +1587,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.77738451178451</v>
+        <v>-2.78471878787879</v>
       </c>
       <c r="E19" t="n">
-        <v>1.06822879984269</v>
+        <v>1.06231480228773</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.617</v>
+        <v>-2.607</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.69351966527197</v>
+        <v>-2.70285681818182</v>
       </c>
       <c r="H19" t="n">
-        <v>1.1282586</v>
+        <v>1.1260347</v>
       </c>
       <c r="I19" t="n">
         <v>-5</v>
@@ -1611,22 +1614,22 @@
         <v>3.959</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.552794684531022</v>
+        <v>-0.537979638804788</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.666463892554968</v>
+        <v>-0.664415450995533</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0619849218336614</v>
+        <v>0.0584785052238083</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.44</v>
+        <v>-3.4565</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.617</v>
+        <v>-2.607</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.915</v>
+        <v>-1.93025</v>
       </c>
       <c r="R19" t="n">
         <v>-1.041</v>
@@ -1640,22 +1643,22 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D20" t="n">
-        <v>-70.2619528619529</v>
+        <v>-70.0654545454545</v>
       </c>
       <c r="E20" t="n">
-        <v>14.5325729278465</v>
+        <v>14.7179982224914</v>
       </c>
       <c r="F20" t="n">
-        <v>-73.2</v>
+        <v>-73.3</v>
       </c>
       <c r="G20" t="n">
-        <v>-71.4673640167364</v>
+        <v>-71.392803030303</v>
       </c>
       <c r="H20" t="n">
-        <v>15.86382</v>
+        <v>15.49317</v>
       </c>
       <c r="I20" t="n">
         <v>-92.4</v>
@@ -1667,22 +1670,22 @@
         <v>65.8</v>
       </c>
       <c r="L20" t="n">
-        <v>0.730901982304792</v>
+        <v>0.764832975356431</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0974660904014222</v>
+        <v>0.11582584526641</v>
       </c>
       <c r="N20" t="n">
-        <v>0.843265410094915</v>
+        <v>0.810199136907859</v>
       </c>
       <c r="O20" t="n">
-        <v>-81.7</v>
+        <v>-81.375</v>
       </c>
       <c r="P20" t="n">
-        <v>-73.2</v>
+        <v>-73.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>-60.4</v>
+        <v>-60.425</v>
       </c>
       <c r="R20" t="n">
         <v>-26.6</v>
@@ -1696,52 +1699,52 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D21" t="n">
-        <v>69.7882612794613</v>
+        <v>69.3615860606061</v>
       </c>
       <c r="E21" t="n">
-        <v>8.52330863078955</v>
+        <v>7.4309977278611</v>
       </c>
       <c r="F21" t="n">
-        <v>69.4361</v>
+        <v>69.3581</v>
       </c>
       <c r="G21" t="n">
-        <v>69.6987966527197</v>
+        <v>69.1489488636364</v>
       </c>
       <c r="H21" t="n">
-        <v>8.14896263999999</v>
+        <v>6.88808547</v>
       </c>
       <c r="I21" t="n">
-        <v>49.4</v>
+        <v>49.8227</v>
       </c>
       <c r="J21" t="n">
-        <v>90.2</v>
+        <v>88.6972</v>
       </c>
       <c r="K21" t="n">
-        <v>40.8</v>
+        <v>38.8745</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0828307072544337</v>
+        <v>0.204046762841908</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.336894486776656</v>
+        <v>-0.0794041638804264</v>
       </c>
       <c r="N21" t="n">
-        <v>0.494572529144938</v>
+        <v>0.40906296185557</v>
       </c>
       <c r="O21" t="n">
-        <v>63.9397</v>
+        <v>64.425725</v>
       </c>
       <c r="P21" t="n">
-        <v>69.4361</v>
+        <v>69.3581</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.8851</v>
+        <v>73.917975</v>
       </c>
       <c r="R21" t="n">
-        <v>90.2</v>
+        <v>88.6972</v>
       </c>
     </row>
     <row r="22">
@@ -1752,52 +1755,52 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.86919191919192</v>
+        <v>-4.65512121212121</v>
       </c>
       <c r="E22" t="n">
-        <v>3.17722044406817</v>
+        <v>3.05886476207749</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.91</v>
+        <v>-3.72</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.32719665271967</v>
+        <v>-4.12469696969697</v>
       </c>
       <c r="H22" t="n">
-        <v>2.253552</v>
+        <v>2.201661</v>
       </c>
       <c r="I22" t="n">
-        <v>-14.99</v>
+        <v>-14.74</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.38</v>
+        <v>-1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>13.61</v>
+        <v>13.54</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.41958800308812</v>
+        <v>-1.45229587221135</v>
       </c>
       <c r="M22" t="n">
-        <v>1.45947926701729</v>
+        <v>1.60501818955196</v>
       </c>
       <c r="N22" t="n">
-        <v>0.184361029119303</v>
+        <v>0.168384963273459</v>
       </c>
       <c r="O22" t="n">
-        <v>-6.09</v>
+        <v>-5.83</v>
       </c>
       <c r="P22" t="n">
-        <v>-3.91</v>
+        <v>-3.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>-2.63</v>
+        <v>-2.575</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.38</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="23">
@@ -1808,52 +1811,52 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D23" t="n">
-        <v>96.8303451178451</v>
+        <v>94.8629090909091</v>
       </c>
       <c r="E23" t="n">
-        <v>4.67713344857674</v>
+        <v>3.43582020366212</v>
       </c>
       <c r="F23" t="n">
-        <v>96.9</v>
+        <v>94.61465</v>
       </c>
       <c r="G23" t="n">
-        <v>96.641940167364</v>
+        <v>94.50355</v>
       </c>
       <c r="H23" t="n">
-        <v>3.69211878000001</v>
+        <v>2.84392332</v>
       </c>
       <c r="I23" t="n">
-        <v>82.3</v>
+        <v>86.8735</v>
       </c>
       <c r="J23" t="n">
-        <v>115.2</v>
+        <v>110.8502</v>
       </c>
       <c r="K23" t="n">
-        <v>32.9</v>
+        <v>23.9767</v>
       </c>
       <c r="L23" t="n">
-        <v>0.869745788982389</v>
+        <v>1.35686157245146</v>
       </c>
       <c r="M23" t="n">
-        <v>3.24470353569853</v>
+        <v>3.38408161265372</v>
       </c>
       <c r="N23" t="n">
-        <v>0.271394809106743</v>
+        <v>0.189135677386053</v>
       </c>
       <c r="O23" t="n">
-        <v>94.211</v>
+        <v>92.370625</v>
       </c>
       <c r="P23" t="n">
-        <v>96.9</v>
+        <v>94.61465</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.6882</v>
+        <v>96.226</v>
       </c>
       <c r="R23" t="n">
-        <v>115.2</v>
+        <v>110.8502</v>
       </c>
     </row>
     <row r="24">
@@ -1864,52 +1867,52 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D24" t="n">
-        <v>84.5083188552189</v>
+        <v>82.2203221212121</v>
       </c>
       <c r="E24" t="n">
-        <v>6.42158069216039</v>
+        <v>5.55508899508447</v>
       </c>
       <c r="F24" t="n">
-        <v>83.7786</v>
+        <v>81.73365</v>
       </c>
       <c r="G24" t="n">
-        <v>84.0954271966527</v>
+        <v>81.8889382575758</v>
       </c>
       <c r="H24" t="n">
-        <v>5.22082764</v>
+        <v>3.80702028</v>
       </c>
       <c r="I24" t="n">
-        <v>71.4</v>
+        <v>61.3057</v>
       </c>
       <c r="J24" t="n">
-        <v>112.5</v>
+        <v>106.4956</v>
       </c>
       <c r="K24" t="n">
-        <v>41.1</v>
+        <v>45.1899</v>
       </c>
       <c r="L24" t="n">
-        <v>1.40176784949209</v>
+        <v>1.24701686247072</v>
       </c>
       <c r="M24" t="n">
-        <v>4.15078775622366</v>
+        <v>5.02557245635926</v>
       </c>
       <c r="N24" t="n">
-        <v>0.372617904807216</v>
+        <v>0.30579758478201</v>
       </c>
       <c r="O24" t="n">
-        <v>80.7</v>
+        <v>79.482925</v>
       </c>
       <c r="P24" t="n">
-        <v>83.7786</v>
+        <v>81.73365</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.9</v>
+        <v>84.4684</v>
       </c>
       <c r="R24" t="n">
-        <v>112.5</v>
+        <v>106.4956</v>
       </c>
     </row>
     <row r="25">
@@ -1920,22 +1923,22 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D25" t="n">
-        <v>49.6869797979798</v>
+        <v>49.7287451515151</v>
       </c>
       <c r="E25" t="n">
-        <v>0.500072046967302</v>
+        <v>0.505384256160198</v>
       </c>
       <c r="F25" t="n">
-        <v>49.6404</v>
+        <v>49.6804</v>
       </c>
       <c r="G25" t="n">
-        <v>49.6869535564854</v>
+        <v>49.7317579545455</v>
       </c>
       <c r="H25" t="n">
-        <v>0.437960040000001</v>
+        <v>0.480436529999994</v>
       </c>
       <c r="I25" t="n">
         <v>48.1734</v>
@@ -1947,22 +1950,22 @@
         <v>2.985</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00544418083565141</v>
+        <v>-0.0719756501883902</v>
       </c>
       <c r="M25" t="n">
-        <v>0.31730283404959</v>
+        <v>0.132385136175607</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0290171232483452</v>
+        <v>0.0278204876748859</v>
       </c>
       <c r="O25" t="n">
-        <v>49.4023</v>
+        <v>49.41815</v>
       </c>
       <c r="P25" t="n">
-        <v>49.6404</v>
+        <v>49.6804</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.002</v>
+        <v>50.1157</v>
       </c>
       <c r="R25" t="n">
         <v>51.1584</v>
@@ -1976,52 +1979,52 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D26" t="n">
-        <v>76.1655595959596</v>
+        <v>76.7747915151515</v>
       </c>
       <c r="E26" t="n">
-        <v>8.01524195495074</v>
+        <v>8.02018890699838</v>
       </c>
       <c r="F26" t="n">
-        <v>77.2892</v>
+        <v>77.886</v>
       </c>
       <c r="G26" t="n">
-        <v>76.7586108786611</v>
+        <v>77.4412965909091</v>
       </c>
       <c r="H26" t="n">
-        <v>7.47349007999999</v>
+        <v>7.52034024</v>
       </c>
       <c r="I26" t="n">
         <v>52.729</v>
       </c>
       <c r="J26" t="n">
-        <v>90.6785</v>
+        <v>90.77</v>
       </c>
       <c r="K26" t="n">
-        <v>37.9495</v>
+        <v>38.041</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.637568889578318</v>
+        <v>-0.696991289445103</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0626113125781642</v>
+        <v>0.00299966358007175</v>
       </c>
       <c r="N26" t="n">
-        <v>0.46509151047853</v>
+        <v>0.441496868803681</v>
       </c>
       <c r="O26" t="n">
-        <v>71.8166</v>
+        <v>72.298475</v>
       </c>
       <c r="P26" t="n">
-        <v>77.2892</v>
+        <v>77.886</v>
       </c>
       <c r="Q26" t="n">
-        <v>81.9777</v>
+        <v>82.72275</v>
       </c>
       <c r="R26" t="n">
-        <v>90.6785</v>
+        <v>90.77</v>
       </c>
     </row>
     <row r="27">
@@ -2032,22 +2035,22 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D27" t="n">
-        <v>44.0661437710438</v>
+        <v>43.9968627272727</v>
       </c>
       <c r="E27" t="n">
-        <v>9.11631523523692</v>
+        <v>8.9888918874954</v>
       </c>
       <c r="F27" t="n">
-        <v>44.8829</v>
+        <v>44.8</v>
       </c>
       <c r="G27" t="n">
-        <v>44.2389928870293</v>
+        <v>44.1793731060606</v>
       </c>
       <c r="H27" t="n">
-        <v>8.83051386</v>
+        <v>8.45082</v>
       </c>
       <c r="I27" t="n">
         <v>20.9</v>
@@ -2059,22 +2062,22 @@
         <v>46.1431</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.168389987701208</v>
+        <v>-0.168546702905179</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0654452227398061</v>
+        <v>-0.0285489025646135</v>
       </c>
       <c r="N27" t="n">
-        <v>0.528982262367753</v>
+        <v>0.494822212838537</v>
       </c>
       <c r="O27" t="n">
-        <v>38.2</v>
+        <v>38.40895</v>
       </c>
       <c r="P27" t="n">
-        <v>44.8829</v>
+        <v>44.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.9</v>
+        <v>49.72345</v>
       </c>
       <c r="R27" t="n">
         <v>67.0431</v>
@@ -2088,22 +2091,22 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D28" t="n">
-        <v>55.9306996632997</v>
+        <v>57.6497206060606</v>
       </c>
       <c r="E28" t="n">
-        <v>16.3910843084049</v>
+        <v>16.6192026983308</v>
       </c>
       <c r="F28" t="n">
-        <v>56.5</v>
+        <v>58.315</v>
       </c>
       <c r="G28" t="n">
-        <v>56.4978518828452</v>
+        <v>58.4058352272727</v>
       </c>
       <c r="H28" t="n">
-        <v>19.12554</v>
+        <v>19.607385</v>
       </c>
       <c r="I28" t="n">
         <v>13.1</v>
@@ -2115,22 +2118,22 @@
         <v>76.37</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.278861219801847</v>
+        <v>-0.36387592844646</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.632241441977221</v>
+        <v>-0.625091734927144</v>
       </c>
       <c r="N28" t="n">
-        <v>0.951107178326447</v>
+        <v>0.914856998807623</v>
       </c>
       <c r="O28" t="n">
-        <v>43.6</v>
+        <v>46.2</v>
       </c>
       <c r="P28" t="n">
-        <v>56.5</v>
+        <v>58.315</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.3</v>
+        <v>71.6575</v>
       </c>
       <c r="R28" t="n">
         <v>89.47</v>
@@ -2144,22 +2147,22 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.559414814814815</v>
+        <v>-0.552815151515151</v>
       </c>
       <c r="E29" t="n">
-        <v>0.576672163689539</v>
+        <v>0.562156033527287</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.39</v>
+        <v>-0.40035</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.460329288702929</v>
+        <v>-0.455701893939394</v>
       </c>
       <c r="H29" t="n">
-        <v>0.37835952</v>
+        <v>0.38762577</v>
       </c>
       <c r="I29" t="n">
         <v>-3.5211</v>
@@ -2171,22 +2174,22 @@
         <v>3.5211</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.02028783057361</v>
+        <v>-2.03671019223432</v>
       </c>
       <c r="M29" t="n">
-        <v>5.25705634173689</v>
+        <v>5.44269744033406</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0334619128366585</v>
+        <v>0.0309456711630351</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.7589</v>
+        <v>-0.7572</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.39</v>
+        <v>-0.40035</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.1557</v>
+        <v>-0.160125</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2200,19 +2203,19 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D30" t="n">
-        <v>73.6845117845118</v>
+        <v>73.8469696969697</v>
       </c>
       <c r="E30" t="n">
-        <v>2.81894457092517</v>
+        <v>2.7485735287323</v>
       </c>
       <c r="F30" t="n">
         <v>74.5</v>
       </c>
       <c r="G30" t="n">
-        <v>74.0422594142259</v>
+        <v>74.2261363636364</v>
       </c>
       <c r="H30" t="n">
         <v>1.92738</v>
@@ -2227,22 +2230,22 @@
         <v>12.8</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.09287233757708</v>
+        <v>-1.17928209705242</v>
       </c>
       <c r="M30" t="n">
-        <v>0.401451860423926</v>
+        <v>0.71032267352976</v>
       </c>
       <c r="N30" t="n">
-        <v>0.163571754391898</v>
+        <v>0.151303993045988</v>
       </c>
       <c r="O30" t="n">
-        <v>72.8</v>
+        <v>73</v>
       </c>
       <c r="P30" t="n">
         <v>74.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="R30" t="n">
         <v>78</v>
@@ -2256,52 +2259,52 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.45582424242424</v>
+        <v>-6.46551515151515</v>
       </c>
       <c r="E31" t="n">
-        <v>2.61831786180056</v>
+        <v>2.63721752970426</v>
       </c>
       <c r="F31" t="n">
-        <v>-6.2256</v>
+        <v>-6.2234</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.29413263598326</v>
+        <v>-6.29290643939394</v>
       </c>
       <c r="H31" t="n">
-        <v>2.59692216</v>
+        <v>2.58928677</v>
       </c>
       <c r="I31" t="n">
-        <v>-15.2236</v>
+        <v>-15.1215</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.2502</v>
+        <v>-1.2506</v>
       </c>
       <c r="K31" t="n">
-        <v>13.9734</v>
+        <v>13.8709</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.665590901711041</v>
+        <v>-0.66738219885687</v>
       </c>
       <c r="M31" t="n">
-        <v>0.490963807226761</v>
+        <v>0.464393672566433</v>
       </c>
       <c r="N31" t="n">
-        <v>0.151930211976392</v>
+        <v>0.145174047048022</v>
       </c>
       <c r="O31" t="n">
-        <v>-7.9938</v>
+        <v>-7.975625</v>
       </c>
       <c r="P31" t="n">
-        <v>-6.2256</v>
+        <v>-6.2234</v>
       </c>
       <c r="Q31" t="n">
-        <v>-4.4847</v>
+        <v>-4.50775</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.2502</v>
+        <v>-1.2506</v>
       </c>
     </row>
     <row r="32">
@@ -2312,52 +2315,52 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D32" t="n">
-        <v>-159.762803703704</v>
+        <v>-160.667117272727</v>
       </c>
       <c r="E32" t="n">
-        <v>37.0683034313805</v>
+        <v>36.6274022328115</v>
       </c>
       <c r="F32" t="n">
-        <v>-155.0819</v>
+        <v>-156.58135</v>
       </c>
       <c r="G32" t="n">
-        <v>-158.744772384937</v>
+        <v>-160.053910606061</v>
       </c>
       <c r="H32" t="n">
-        <v>36.44245626</v>
+        <v>36.07721775</v>
       </c>
       <c r="I32" t="n">
-        <v>-269.7797</v>
+        <v>-270.3106</v>
       </c>
       <c r="J32" t="n">
-        <v>-67.4272</v>
+        <v>-66.0413</v>
       </c>
       <c r="K32" t="n">
-        <v>202.3525</v>
+        <v>204.2693</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.308872918628423</v>
+        <v>-0.21108136027799</v>
       </c>
       <c r="M32" t="n">
-        <v>0.028460813388218</v>
+        <v>0.0196359418970267</v>
       </c>
       <c r="N32" t="n">
-        <v>2.15092112386309</v>
+        <v>2.01627213345169</v>
       </c>
       <c r="O32" t="n">
-        <v>-185.0812</v>
+        <v>-185.629425</v>
       </c>
       <c r="P32" t="n">
-        <v>-155.0819</v>
+        <v>-156.58135</v>
       </c>
       <c r="Q32" t="n">
-        <v>-135.7321</v>
+        <v>-137.341525</v>
       </c>
       <c r="R32" t="n">
-        <v>-67.4272</v>
+        <v>-66.0413</v>
       </c>
     </row>
     <row r="33">
@@ -2368,52 +2371,52 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D33" t="n">
-        <v>-83.8696892255892</v>
+        <v>-83.1021836363636</v>
       </c>
       <c r="E33" t="n">
-        <v>23.7689097436727</v>
+        <v>23.553951639878</v>
       </c>
       <c r="F33" t="n">
-        <v>-80.6495</v>
+        <v>-80.30775</v>
       </c>
       <c r="G33" t="n">
-        <v>-81.7304129707113</v>
+        <v>-81.0204393939394</v>
       </c>
       <c r="H33" t="n">
-        <v>23.2634766</v>
+        <v>23.16214089</v>
       </c>
       <c r="I33" t="n">
-        <v>-173.1977</v>
+        <v>-173.2058</v>
       </c>
       <c r="J33" t="n">
-        <v>-44.6096</v>
+        <v>-43.5601</v>
       </c>
       <c r="K33" t="n">
-        <v>128.5881</v>
+        <v>129.6457</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.915031795115371</v>
+        <v>-0.89361967932753</v>
       </c>
       <c r="M33" t="n">
-        <v>0.93088246220525</v>
+        <v>0.926275155193653</v>
       </c>
       <c r="N33" t="n">
-        <v>1.37921203093369</v>
+        <v>1.29660236405222</v>
       </c>
       <c r="O33" t="n">
-        <v>-97.1412</v>
+        <v>-96.33195</v>
       </c>
       <c r="P33" t="n">
-        <v>-80.6495</v>
+        <v>-80.30775</v>
       </c>
       <c r="Q33" t="n">
-        <v>-65.4974</v>
+        <v>-64.78045</v>
       </c>
       <c r="R33" t="n">
-        <v>-44.6096</v>
+        <v>-43.5601</v>
       </c>
     </row>
     <row r="34">
@@ -2424,52 +2427,52 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.476010101010101</v>
+        <v>-47.7392815151515</v>
       </c>
       <c r="E34" t="n">
-        <v>0.282834693804078</v>
+        <v>28.2829291116149</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.456</v>
+        <v>-45.6442</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.463364435146443</v>
+        <v>-46.5089606060606</v>
       </c>
       <c r="H34" t="n">
-        <v>0.28421442</v>
+        <v>28.46784738</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.3995</v>
+        <v>-139.9472</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.015</v>
+        <v>-1.5034</v>
       </c>
       <c r="K34" t="n">
-        <v>1.3845</v>
+        <v>138.4438</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.589494145898997</v>
+        <v>-0.576754093827907</v>
       </c>
       <c r="M34" t="n">
-        <v>0.544806794049324</v>
+        <v>0.51857653831747</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0164117335067871</v>
+        <v>1.55692400617628</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.6718</v>
+        <v>-68.54005</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.456</v>
+        <v>-45.6442</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.292</v>
+        <v>-29.101425</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.015</v>
+        <v>-1.5034</v>
       </c>
     </row>
     <row r="35">
@@ -2480,22 +2483,22 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D35" t="n">
-        <v>-11.3484454545455</v>
+        <v>-11.2470536363636</v>
       </c>
       <c r="E35" t="n">
-        <v>10.170130803591</v>
+        <v>10.1031764877616</v>
       </c>
       <c r="F35" t="n">
-        <v>-8.7377</v>
+        <v>-8.6067</v>
       </c>
       <c r="G35" t="n">
-        <v>-10.1190046025105</v>
+        <v>-9.9792893939394</v>
       </c>
       <c r="H35" t="n">
-        <v>9.49130868</v>
+        <v>9.41732694</v>
       </c>
       <c r="I35" t="n">
         <v>-35.5851</v>
@@ -2507,22 +2510,22 @@
         <v>35.5595</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.881426886936453</v>
+        <v>-0.886496888767403</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.391852412911617</v>
+        <v>-0.36971442195058</v>
       </c>
       <c r="N35" t="n">
-        <v>0.590130843683985</v>
+        <v>0.556161561285107</v>
       </c>
       <c r="O35" t="n">
-        <v>-17.8179</v>
+        <v>-17.783525</v>
       </c>
       <c r="P35" t="n">
-        <v>-8.7377</v>
+        <v>-8.6067</v>
       </c>
       <c r="Q35" t="n">
-        <v>-2.5363</v>
+        <v>-2.515</v>
       </c>
       <c r="R35" t="n">
         <v>-0.0256</v>
@@ -2536,22 +2539,22 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D36" t="n">
-        <v>42.487263973064</v>
+        <v>42.8049012121212</v>
       </c>
       <c r="E36" t="n">
-        <v>9.33745860432311</v>
+        <v>9.1810656935444</v>
       </c>
       <c r="F36" t="n">
-        <v>42</v>
+        <v>42.4</v>
       </c>
       <c r="G36" t="n">
-        <v>42.3918405857741</v>
+        <v>42.7378265151515</v>
       </c>
       <c r="H36" t="n">
-        <v>9.35268558</v>
+        <v>9.48864</v>
       </c>
       <c r="I36" t="n">
         <v>19.3</v>
@@ -2563,22 +2566,22 @@
         <v>49.2</v>
       </c>
       <c r="L36" t="n">
-        <v>0.127924243205156</v>
+        <v>0.0859834039414818</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.206328842986629</v>
+        <v>-0.206494522849875</v>
       </c>
       <c r="N36" t="n">
-        <v>0.54181430214131</v>
+        <v>0.505401032691855</v>
       </c>
       <c r="O36" t="n">
-        <v>35.9929</v>
+        <v>36.8</v>
       </c>
       <c r="P36" t="n">
-        <v>42</v>
+        <v>42.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>48.4</v>
+        <v>49.7</v>
       </c>
       <c r="R36" t="n">
         <v>68.5</v>
@@ -2592,22 +2595,22 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D37" t="n">
-        <v>88.7039094276094</v>
+        <v>89.5539454545455</v>
       </c>
       <c r="E37" t="n">
-        <v>5.89157685285413</v>
+        <v>6.16669030796924</v>
       </c>
       <c r="F37" t="n">
-        <v>89.1666</v>
+        <v>89.9238</v>
       </c>
       <c r="G37" t="n">
-        <v>89.1184476987448</v>
+        <v>90.0172208333333</v>
       </c>
       <c r="H37" t="n">
-        <v>5.83299317999999</v>
+        <v>6.06976439999999</v>
       </c>
       <c r="I37" t="n">
         <v>69.4404</v>
@@ -2619,22 +2622,22 @@
         <v>29.5674</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.613178297429181</v>
+        <v>-0.607333081876844</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.030788780327967</v>
+        <v>-0.123131274577219</v>
       </c>
       <c r="N37" t="n">
-        <v>0.341863962809231</v>
+        <v>0.339465128991503</v>
       </c>
       <c r="O37" t="n">
-        <v>85.2956</v>
+        <v>86.1011</v>
       </c>
       <c r="P37" t="n">
-        <v>89.1666</v>
+        <v>89.9238</v>
       </c>
       <c r="Q37" t="n">
-        <v>93.1994</v>
+        <v>94.4601</v>
       </c>
       <c r="R37" t="n">
         <v>99.0078</v>
@@ -2648,52 +2651,52 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D38" t="n">
-        <v>69.5481239057239</v>
+        <v>61.9189393939394</v>
       </c>
       <c r="E38" t="n">
-        <v>10.1622636421835</v>
+        <v>25.9626147562436</v>
       </c>
       <c r="F38" t="n">
-        <v>71.4809</v>
+        <v>63.7</v>
       </c>
       <c r="G38" t="n">
-        <v>69.7698962343096</v>
+        <v>63.4976136363636</v>
       </c>
       <c r="H38" t="n">
-        <v>11.56368696</v>
+        <v>32.39481</v>
       </c>
       <c r="I38" t="n">
-        <v>49.0076</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>90.2528</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>41.2452</v>
+        <v>95.5</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.211210236650735</v>
+        <v>-0.397835180697507</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.00247614186536</v>
+        <v>-0.69432359100689</v>
       </c>
       <c r="N38" t="n">
-        <v>0.589674344678371</v>
+        <v>1.42919490472796</v>
       </c>
       <c r="O38" t="n">
-        <v>60.4836</v>
+        <v>44.2</v>
       </c>
       <c r="P38" t="n">
-        <v>71.4809</v>
+        <v>63.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>77.6804</v>
+        <v>86.45</v>
       </c>
       <c r="R38" t="n">
-        <v>90.2528</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -2704,52 +2707,52 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D39" t="n">
-        <v>54.6535191919192</v>
+        <v>70.0592851515152</v>
       </c>
       <c r="E39" t="n">
-        <v>9.41698393693984</v>
+        <v>10.0567801522954</v>
       </c>
       <c r="F39" t="n">
-        <v>54.88</v>
+        <v>71.9007</v>
       </c>
       <c r="G39" t="n">
-        <v>54.8957255230126</v>
+        <v>70.3617821969697</v>
       </c>
       <c r="H39" t="n">
-        <v>9.75269106</v>
+        <v>11.29259355</v>
       </c>
       <c r="I39" t="n">
-        <v>30.92</v>
+        <v>49.0076</v>
       </c>
       <c r="J39" t="n">
-        <v>75.38</v>
+        <v>90.2528</v>
       </c>
       <c r="K39" t="n">
-        <v>44.46</v>
+        <v>41.2452</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.217616300743979</v>
+        <v>-0.275830908397301</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.485315738497623</v>
+        <v>-0.925408731795857</v>
       </c>
       <c r="N39" t="n">
-        <v>0.546428829971649</v>
+        <v>0.55360752707596</v>
       </c>
       <c r="O39" t="n">
-        <v>46.7496</v>
+        <v>62.228925</v>
       </c>
       <c r="P39" t="n">
-        <v>54.88</v>
+        <v>71.9007</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.3372</v>
+        <v>77.785375</v>
       </c>
       <c r="R39" t="n">
-        <v>75.38</v>
+        <v>90.2528</v>
       </c>
     </row>
     <row r="40">
@@ -2760,52 +2763,52 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D40" t="n">
-        <v>36.0491582491583</v>
+        <v>55.2293090909091</v>
       </c>
       <c r="E40" t="n">
-        <v>11.149427674313</v>
+        <v>9.25474756053771</v>
       </c>
       <c r="F40" t="n">
-        <v>32.4</v>
+        <v>56.2335</v>
       </c>
       <c r="G40" t="n">
-        <v>35.2167364016736</v>
+        <v>55.550146969697</v>
       </c>
       <c r="H40" t="n">
-        <v>10.22994</v>
+        <v>9.48997434</v>
       </c>
       <c r="I40" t="n">
-        <v>18.1</v>
+        <v>30.92</v>
       </c>
       <c r="J40" t="n">
-        <v>67.1</v>
+        <v>75.38</v>
       </c>
       <c r="K40" t="n">
-        <v>49</v>
+        <v>44.46</v>
       </c>
       <c r="L40" t="n">
-        <v>0.671068936551444</v>
+        <v>-0.301295911095699</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.44510124223405</v>
+        <v>-0.384324837169404</v>
       </c>
       <c r="N40" t="n">
-        <v>0.646955411597334</v>
+        <v>0.50945708597718</v>
       </c>
       <c r="O40" t="n">
-        <v>27.8</v>
+        <v>49.6957</v>
       </c>
       <c r="P40" t="n">
-        <v>32.4</v>
+        <v>56.2335</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.4</v>
+        <v>62.12</v>
       </c>
       <c r="R40" t="n">
-        <v>67.1</v>
+        <v>75.38</v>
       </c>
     </row>
     <row r="41">
@@ -2816,52 +2819,52 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D41" t="n">
-        <v>0.42603265993266</v>
+        <v>37.04</v>
       </c>
       <c r="E41" t="n">
-        <v>0.121136180531579</v>
+        <v>11.1378093156861</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4325</v>
+        <v>33.7</v>
       </c>
       <c r="G41" t="n">
-        <v>0.425156066945607</v>
+        <v>36.4102272727273</v>
       </c>
       <c r="H41" t="n">
-        <v>0.15359736</v>
+        <v>11.8608</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2104</v>
+        <v>18.1</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6596</v>
+        <v>67.1</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4492</v>
+        <v>49</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0728406463284118</v>
+        <v>0.48117916102857</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.12154959994005</v>
+        <v>-0.69265707708026</v>
       </c>
       <c r="N41" t="n">
-        <v>0.00702903411945449</v>
+        <v>0.61311622397286</v>
       </c>
       <c r="O41" t="n">
-        <v>0.3231</v>
+        <v>28.1</v>
       </c>
       <c r="P41" t="n">
-        <v>0.4325</v>
+        <v>33.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.5289</v>
+        <v>46.2</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6596</v>
+        <v>67.1</v>
       </c>
     </row>
     <row r="42">
@@ -2872,52 +2875,52 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D42" t="n">
-        <v>-65.8834333333333</v>
+        <v>0.427665454545455</v>
       </c>
       <c r="E42" t="n">
-        <v>6.23915596768679</v>
+        <v>0.115896779174596</v>
       </c>
       <c r="F42" t="n">
-        <v>-65.8823</v>
+        <v>0.4333</v>
       </c>
       <c r="G42" t="n">
-        <v>-65.7512966527197</v>
+        <v>0.42709393939394</v>
       </c>
       <c r="H42" t="n">
-        <v>6.97548474</v>
+        <v>0.14321916</v>
       </c>
       <c r="I42" t="n">
-        <v>-84.3815</v>
+        <v>0.2104</v>
       </c>
       <c r="J42" t="n">
-        <v>-49.9746</v>
+        <v>0.6596</v>
       </c>
       <c r="K42" t="n">
-        <v>34.4069</v>
+        <v>0.4492</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.208652323601447</v>
+        <v>0.0410343509981233</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.124197002516689</v>
+        <v>-0.975083010382072</v>
       </c>
       <c r="N42" t="n">
-        <v>0.36203254866564</v>
+        <v>0.00637990771830407</v>
       </c>
       <c r="O42" t="n">
-        <v>-70.2028</v>
+        <v>0.3318</v>
       </c>
       <c r="P42" t="n">
-        <v>-65.8823</v>
+        <v>0.4333</v>
       </c>
       <c r="Q42" t="n">
-        <v>-61.1058</v>
+        <v>0.5192</v>
       </c>
       <c r="R42" t="n">
-        <v>-49.9746</v>
+        <v>0.6596</v>
       </c>
     </row>
     <row r="43">
@@ -2928,52 +2931,52 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D43" t="n">
-        <v>-21.609437037037</v>
+        <v>-65.7527575757576</v>
       </c>
       <c r="E43" t="n">
-        <v>6.43470510857855</v>
+        <v>6.20167068644561</v>
       </c>
       <c r="F43" t="n">
-        <v>-19.9554</v>
+        <v>-65.8823</v>
       </c>
       <c r="G43" t="n">
-        <v>-20.627450209205</v>
+        <v>-65.6227833333333</v>
       </c>
       <c r="H43" t="n">
-        <v>4.75603254</v>
+        <v>6.97548474</v>
       </c>
       <c r="I43" t="n">
-        <v>-43.1356</v>
+        <v>-84.3815</v>
       </c>
       <c r="J43" t="n">
-        <v>-11.4882</v>
+        <v>-49.9746</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6474</v>
+        <v>34.4069</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.3659736752096</v>
+        <v>-0.19436389305461</v>
       </c>
       <c r="M43" t="n">
-        <v>1.61303253868443</v>
+        <v>-0.153428321475583</v>
       </c>
       <c r="N43" t="n">
-        <v>0.373379460689169</v>
+        <v>0.341390735451147</v>
       </c>
       <c r="O43" t="n">
-        <v>-24.0417</v>
+        <v>-69.8566</v>
       </c>
       <c r="P43" t="n">
-        <v>-19.9554</v>
+        <v>-65.8823</v>
       </c>
       <c r="Q43" t="n">
-        <v>-17.1656</v>
+        <v>-61.1016</v>
       </c>
       <c r="R43" t="n">
-        <v>-11.4882</v>
+        <v>-49.9746</v>
       </c>
     </row>
     <row r="44">
@@ -2984,52 +2987,52 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D44" t="n">
-        <v>-16.4656565656566</v>
+        <v>-21.3283924242424</v>
       </c>
       <c r="E44" t="n">
-        <v>2.23494187675322</v>
+        <v>6.46054769851876</v>
       </c>
       <c r="F44" t="n">
-        <v>-16.7</v>
+        <v>-19.6511</v>
       </c>
       <c r="G44" t="n">
-        <v>-16.5246861924686</v>
+        <v>-20.3463412878788</v>
       </c>
       <c r="H44" t="n">
-        <v>2.37216</v>
+        <v>4.90132734</v>
       </c>
       <c r="I44" t="n">
-        <v>-22</v>
+        <v>-43.1356</v>
       </c>
       <c r="J44" t="n">
-        <v>-9.7</v>
+        <v>-11.1764</v>
       </c>
       <c r="K44" t="n">
-        <v>12.3</v>
+        <v>31.9592</v>
       </c>
       <c r="L44" t="n">
-        <v>0.268150247720743</v>
+        <v>-1.35538427615727</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.22339895592094</v>
+        <v>1.60567052547896</v>
       </c>
       <c r="N44" t="n">
-        <v>0.129684481034143</v>
+        <v>0.355641445946983</v>
       </c>
       <c r="O44" t="n">
-        <v>-18.1</v>
+        <v>-23.795875</v>
       </c>
       <c r="P44" t="n">
-        <v>-16.7</v>
+        <v>-19.6511</v>
       </c>
       <c r="Q44" t="n">
-        <v>-14.9</v>
+        <v>-16.93045</v>
       </c>
       <c r="R44" t="n">
-        <v>-9.7</v>
+        <v>-11.1764</v>
       </c>
     </row>
     <row r="45">
@@ -3040,52 +3043,52 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D45" t="n">
-        <v>-24735.1805609428</v>
+        <v>-16.2515151515152</v>
       </c>
       <c r="E45" t="n">
-        <v>10376.9517683916</v>
+        <v>2.30023405867615</v>
       </c>
       <c r="F45" t="n">
-        <v>-23365</v>
+        <v>-16.5</v>
       </c>
       <c r="G45" t="n">
-        <v>-23511.2023740586</v>
+        <v>-16.3159090909091</v>
       </c>
       <c r="H45" t="n">
-        <v>8023.8312</v>
+        <v>2.52042</v>
       </c>
       <c r="I45" t="n">
-        <v>-62160</v>
+        <v>-22</v>
       </c>
       <c r="J45" t="n">
-        <v>-8226.0171</v>
+        <v>-9.7</v>
       </c>
       <c r="K45" t="n">
-        <v>53933.9829</v>
+        <v>12.3</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.33854263134668</v>
+        <v>0.235338461786372</v>
       </c>
       <c r="M45" t="n">
-        <v>2.39027938035667</v>
+        <v>-0.292819008606518</v>
       </c>
       <c r="N45" t="n">
-        <v>602.131813268982</v>
+        <v>0.126623717495599</v>
       </c>
       <c r="O45" t="n">
-        <v>-29144</v>
+        <v>-17.975</v>
       </c>
       <c r="P45" t="n">
-        <v>-23365</v>
+        <v>-16.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>-18353.7793</v>
+        <v>-14.625</v>
       </c>
       <c r="R45" t="n">
-        <v>-8226.0171</v>
+        <v>-9.7</v>
       </c>
     </row>
     <row r="46">
@@ -3096,52 +3099,52 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D46" t="n">
-        <v>-55.9100868686869</v>
+        <v>-24731.0988684848</v>
       </c>
       <c r="E46" t="n">
-        <v>13.3522086225664</v>
+        <v>10056.5218393896</v>
       </c>
       <c r="F46" t="n">
-        <v>-55.1753</v>
+        <v>-23742</v>
       </c>
       <c r="G46" t="n">
-        <v>-55.5415552301255</v>
+        <v>-23586.2674526515</v>
       </c>
       <c r="H46" t="n">
-        <v>16.47272382</v>
+        <v>7887.6062055</v>
       </c>
       <c r="I46" t="n">
-        <v>-83.3681</v>
+        <v>-62160</v>
       </c>
       <c r="J46" t="n">
-        <v>-34.1787</v>
+        <v>-8226.0171</v>
       </c>
       <c r="K46" t="n">
-        <v>49.1894</v>
+        <v>53933.9829</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.17108438350602</v>
+        <v>-1.34533522926528</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.08285681971386</v>
+        <v>2.57410652742956</v>
       </c>
       <c r="N46" t="n">
-        <v>0.774773726282605</v>
+        <v>553.593307418493</v>
       </c>
       <c r="O46" t="n">
-        <v>-66.9081</v>
+        <v>-28905</v>
       </c>
       <c r="P46" t="n">
-        <v>-55.1753</v>
+        <v>-23742</v>
       </c>
       <c r="Q46" t="n">
-        <v>-45.3822</v>
+        <v>-18421.8825</v>
       </c>
       <c r="R46" t="n">
-        <v>-34.1787</v>
+        <v>-8226.0171</v>
       </c>
     </row>
     <row r="47">
@@ -3152,52 +3155,52 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.6703063973064</v>
+        <v>-55.7663833333333</v>
       </c>
       <c r="E47" t="n">
-        <v>2.53416227636781</v>
+        <v>13.3759273173702</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.08</v>
+        <v>-55.12785</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.20018326359833</v>
+        <v>-55.3942833333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1.319514</v>
+        <v>16.69896858</v>
       </c>
       <c r="I47" t="n">
-        <v>-23.7029</v>
+        <v>-83.3681</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.35</v>
+        <v>-33.2857</v>
       </c>
       <c r="K47" t="n">
-        <v>23.3529</v>
+        <v>50.0824</v>
       </c>
       <c r="L47" t="n">
-        <v>-3.90341758110866</v>
+        <v>-0.170708153545746</v>
       </c>
       <c r="M47" t="n">
-        <v>23.1225711252195</v>
+        <v>-1.09219811337216</v>
       </c>
       <c r="N47" t="n">
-        <v>0.147047009627155</v>
+        <v>0.73632056506942</v>
       </c>
       <c r="O47" t="n">
-        <v>-3.21</v>
+        <v>-67.06995</v>
       </c>
       <c r="P47" t="n">
-        <v>-2.08</v>
+        <v>-55.12785</v>
       </c>
       <c r="Q47" t="n">
-        <v>-1.2</v>
+        <v>-44.904</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.35</v>
+        <v>-33.2857</v>
       </c>
     </row>
     <row r="48">
@@ -3208,52 +3211,52 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D48" t="n">
-        <v>66.9983164983165</v>
+        <v>-6.92188424242424</v>
       </c>
       <c r="E48" t="n">
-        <v>4.60070101820906</v>
+        <v>4.07608435298369</v>
       </c>
       <c r="F48" t="n">
-        <v>67.4</v>
+        <v>-5.6539</v>
       </c>
       <c r="G48" t="n">
-        <v>67.1577405857741</v>
+        <v>-6.19929621212121</v>
       </c>
       <c r="H48" t="n">
-        <v>4.89258000000002</v>
+        <v>2.10929502</v>
       </c>
       <c r="I48" t="n">
-        <v>53.1</v>
+        <v>-23.7029</v>
       </c>
       <c r="J48" t="n">
-        <v>76.8</v>
+        <v>-1.9611</v>
       </c>
       <c r="K48" t="n">
-        <v>23.7</v>
+        <v>21.7418</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.361978367704692</v>
+        <v>-2.30167867509842</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.326575887990088</v>
+        <v>6.04384412356781</v>
       </c>
       <c r="N48" t="n">
-        <v>0.266959749667608</v>
+        <v>0.224381058811679</v>
       </c>
       <c r="O48" t="n">
-        <v>63.8</v>
+        <v>-7.8776</v>
       </c>
       <c r="P48" t="n">
-        <v>67.4</v>
+        <v>-5.6539</v>
       </c>
       <c r="Q48" t="n">
-        <v>70.5</v>
+        <v>-4.5681</v>
       </c>
       <c r="R48" t="n">
-        <v>76.8</v>
+        <v>-1.9611</v>
       </c>
     </row>
     <row r="49">
@@ -3264,52 +3267,52 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D49" t="n">
-        <v>0.480778451178451</v>
+        <v>67.0639393939394</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0907947600525407</v>
+        <v>4.59662915967496</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4848</v>
+        <v>67.65</v>
       </c>
       <c r="G49" t="n">
-        <v>0.482318410041841</v>
+        <v>67.225</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07249914</v>
+        <v>4.89258</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1786</v>
+        <v>53.1</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7</v>
+        <v>76.8</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5214</v>
+        <v>23.7</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.313239527679006</v>
+        <v>-0.353941386944776</v>
       </c>
       <c r="M49" t="n">
-        <v>0.592188006723787</v>
+        <v>-0.402201371411401</v>
       </c>
       <c r="N49" t="n">
-        <v>0.00526844633433544</v>
+        <v>0.253036107326268</v>
       </c>
       <c r="O49" t="n">
-        <v>0.4286</v>
+        <v>63.8</v>
       </c>
       <c r="P49" t="n">
-        <v>0.4848</v>
+        <v>67.65</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.5333</v>
+        <v>70.575</v>
       </c>
       <c r="R49" t="n">
-        <v>0.7</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="50">
@@ -3320,52 +3323,52 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D50" t="n">
-        <v>-38.6065306397306</v>
+        <v>0.486340606060606</v>
       </c>
       <c r="E50" t="n">
-        <v>8.45126155594919</v>
+        <v>0.0889054905440137</v>
       </c>
       <c r="F50" t="n">
-        <v>-37.435</v>
+        <v>0.5</v>
       </c>
       <c r="G50" t="n">
-        <v>-38.1850016736402</v>
+        <v>0.488592803030303</v>
       </c>
       <c r="H50" t="n">
-        <v>7.75548059999999</v>
+        <v>0.08243256</v>
       </c>
       <c r="I50" t="n">
-        <v>-57.8446</v>
+        <v>0.1786</v>
       </c>
       <c r="J50" t="n">
-        <v>-19.8052</v>
+        <v>0.7</v>
       </c>
       <c r="K50" t="n">
-        <v>38.0394</v>
+        <v>0.5214</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.480592812122333</v>
+        <v>-0.401089705987769</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.270288308745541</v>
+        <v>0.723506013539081</v>
       </c>
       <c r="N50" t="n">
-        <v>0.490391933842713</v>
+        <v>0.00489408618048717</v>
       </c>
       <c r="O50" t="n">
-        <v>-43.142</v>
+        <v>0.439</v>
       </c>
       <c r="P50" t="n">
-        <v>-37.435</v>
+        <v>0.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>-32.479</v>
+        <v>0.5333</v>
       </c>
       <c r="R50" t="n">
-        <v>-19.8052</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="51">
@@ -3376,52 +3379,52 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D51" t="n">
-        <v>-12.6209636363636</v>
+        <v>-38.8629915151515</v>
       </c>
       <c r="E51" t="n">
-        <v>4.55806457670687</v>
+        <v>9.08919276818981</v>
       </c>
       <c r="F51" t="n">
-        <v>-11.7983</v>
+        <v>-37.788</v>
       </c>
       <c r="G51" t="n">
-        <v>-12.1227112970711</v>
+        <v>-38.6216234848485</v>
       </c>
       <c r="H51" t="n">
-        <v>3.20286078</v>
+        <v>7.8711234</v>
       </c>
       <c r="I51" t="n">
-        <v>-31.8414</v>
+        <v>-63.7931</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.9885</v>
+        <v>-16.6667</v>
       </c>
       <c r="K51" t="n">
-        <v>30.8529</v>
+        <v>47.1264</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.22399037054443</v>
+        <v>-0.283686480500538</v>
       </c>
       <c r="M51" t="n">
-        <v>2.09730384494672</v>
+        <v>-0.0523036492743056</v>
       </c>
       <c r="N51" t="n">
-        <v>0.264485732402611</v>
+        <v>0.500343594601277</v>
       </c>
       <c r="O51" t="n">
-        <v>-14.3664</v>
+        <v>-43.15475</v>
       </c>
       <c r="P51" t="n">
-        <v>-11.7983</v>
+        <v>-37.788</v>
       </c>
       <c r="Q51" t="n">
-        <v>-9.7958</v>
+        <v>-33.413</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.9885</v>
+        <v>-16.6667</v>
       </c>
     </row>
     <row r="52">
@@ -3432,52 +3435,52 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D52" t="n">
-        <v>-20.7818599326599</v>
+        <v>-12.4558042424242</v>
       </c>
       <c r="E52" t="n">
-        <v>7.95002514601097</v>
+        <v>4.58176221324343</v>
       </c>
       <c r="F52" t="n">
-        <v>-19.9884</v>
+        <v>-11.62845</v>
       </c>
       <c r="G52" t="n">
-        <v>-20.22499958159</v>
+        <v>-11.9458886363636</v>
       </c>
       <c r="H52" t="n">
-        <v>8.15148306</v>
+        <v>3.45468039</v>
       </c>
       <c r="I52" t="n">
-        <v>-47.2233</v>
+        <v>-31.8414</v>
       </c>
       <c r="J52" t="n">
-        <v>-7.4217</v>
+        <v>-0.9885</v>
       </c>
       <c r="K52" t="n">
-        <v>39.8016</v>
+        <v>30.8529</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.619524039324929</v>
+        <v>-1.22777274253122</v>
       </c>
       <c r="M52" t="n">
-        <v>0.00592426417875691</v>
+        <v>2.08271192445303</v>
       </c>
       <c r="N52" t="n">
-        <v>0.461307247402148</v>
+        <v>0.252217708860309</v>
       </c>
       <c r="O52" t="n">
-        <v>-25.2361</v>
+        <v>-14.2746</v>
       </c>
       <c r="P52" t="n">
-        <v>-19.9884</v>
+        <v>-11.62845</v>
       </c>
       <c r="Q52" t="n">
-        <v>-14.4325</v>
+        <v>-9.6766</v>
       </c>
       <c r="R52" t="n">
-        <v>-7.4217</v>
+        <v>-0.9885</v>
       </c>
     </row>
     <row r="53">
@@ -3488,52 +3491,52 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D53" t="n">
-        <v>74.1335343434343</v>
+        <v>-19.5467957575758</v>
       </c>
       <c r="E53" t="n">
-        <v>16.8731191900947</v>
+        <v>8.4591501811408</v>
       </c>
       <c r="F53" t="n">
-        <v>73</v>
+        <v>-18.548</v>
       </c>
       <c r="G53" t="n">
-        <v>74.2860815899582</v>
+        <v>-19.0069981060606</v>
       </c>
       <c r="H53" t="n">
-        <v>17.64294</v>
+        <v>8.50797423</v>
       </c>
       <c r="I53" t="n">
-        <v>31.0977</v>
+        <v>-47.2233</v>
       </c>
       <c r="J53" t="n">
-        <v>112.4</v>
+        <v>-3.2283</v>
       </c>
       <c r="K53" t="n">
-        <v>81.3023</v>
+        <v>43.995</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.102572709859358</v>
+        <v>-0.541996816810619</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.383752621359286</v>
+        <v>-0.113698947508995</v>
       </c>
       <c r="N53" t="n">
-        <v>0.979077679090927</v>
+        <v>0.465660891659906</v>
       </c>
       <c r="O53" t="n">
-        <v>63.292</v>
+        <v>-24.8237</v>
       </c>
       <c r="P53" t="n">
-        <v>73</v>
+        <v>-18.548</v>
       </c>
       <c r="Q53" t="n">
-        <v>87.1455</v>
+        <v>-13.171025</v>
       </c>
       <c r="R53" t="n">
-        <v>112.4</v>
+        <v>-3.2283</v>
       </c>
     </row>
     <row r="54">
@@ -3544,52 +3547,52 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D54" t="n">
-        <v>29.6049784511785</v>
+        <v>74.2335142424242</v>
       </c>
       <c r="E54" t="n">
-        <v>9.02211591148161</v>
+        <v>16.9415801280771</v>
       </c>
       <c r="F54" t="n">
-        <v>28.7187</v>
+        <v>72.96815</v>
       </c>
       <c r="G54" t="n">
-        <v>29.0128535564854</v>
+        <v>74.3261303030303</v>
       </c>
       <c r="H54" t="n">
-        <v>7.04175696</v>
+        <v>17.7912</v>
       </c>
       <c r="I54" t="n">
-        <v>12.7308</v>
+        <v>31.0977</v>
       </c>
       <c r="J54" t="n">
-        <v>72.3984</v>
+        <v>112.4</v>
       </c>
       <c r="K54" t="n">
-        <v>59.6676</v>
+        <v>81.3023</v>
       </c>
       <c r="L54" t="n">
-        <v>1.84981283486726</v>
+        <v>-0.0756616076720067</v>
       </c>
       <c r="M54" t="n">
-        <v>6.72875506552719</v>
+        <v>-0.408306651899545</v>
       </c>
       <c r="N54" t="n">
-        <v>0.523516263210441</v>
+        <v>0.932603292249887</v>
       </c>
       <c r="O54" t="n">
-        <v>25.1924</v>
+        <v>63.061375</v>
       </c>
       <c r="P54" t="n">
-        <v>28.7187</v>
+        <v>72.96815</v>
       </c>
       <c r="Q54" t="n">
-        <v>34.0926</v>
+        <v>87.21825</v>
       </c>
       <c r="R54" t="n">
-        <v>72.3984</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="55">
@@ -3600,52 +3603,52 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D55" t="n">
-        <v>9.31784511784512</v>
+        <v>0.288481515151515</v>
       </c>
       <c r="E55" t="n">
-        <v>0.869974799408668</v>
+        <v>0.083772530648861</v>
       </c>
       <c r="F55" t="n">
-        <v>9.44</v>
+        <v>0.28465</v>
       </c>
       <c r="G55" t="n">
-        <v>9.37761506276151</v>
+        <v>0.283259090909091</v>
       </c>
       <c r="H55" t="n">
-        <v>0.726474</v>
+        <v>0.06108312</v>
       </c>
       <c r="I55" t="n">
-        <v>6.92</v>
+        <v>0.1263</v>
       </c>
       <c r="J55" t="n">
-        <v>11.32</v>
+        <v>0.6888</v>
       </c>
       <c r="K55" t="n">
-        <v>4.4</v>
+        <v>0.5625</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.59705044760874</v>
+        <v>1.72467226471225</v>
       </c>
       <c r="M55" t="n">
-        <v>0.286980380581982</v>
+        <v>6.23622492162662</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0504810579405298</v>
+        <v>0.00461152603786667</v>
       </c>
       <c r="O55" t="n">
-        <v>8.85</v>
+        <v>0.243875</v>
       </c>
       <c r="P55" t="n">
-        <v>9.44</v>
+        <v>0.28465</v>
       </c>
       <c r="Q55" t="n">
-        <v>9.89</v>
+        <v>0.3271</v>
       </c>
       <c r="R55" t="n">
-        <v>11.32</v>
+        <v>0.6888</v>
       </c>
     </row>
     <row r="56">
@@ -3656,52 +3659,52 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D56" t="n">
-        <v>54.1782717171717</v>
+        <v>9.39528393939394</v>
       </c>
       <c r="E56" t="n">
-        <v>3.42493915956144</v>
+        <v>0.848995207766912</v>
       </c>
       <c r="F56" t="n">
-        <v>54.3535</v>
+        <v>9.52525</v>
       </c>
       <c r="G56" t="n">
-        <v>54.1692539748954</v>
+        <v>9.4592053030303</v>
       </c>
       <c r="H56" t="n">
-        <v>3.46794966</v>
+        <v>0.79252383</v>
       </c>
       <c r="I56" t="n">
-        <v>45.4225</v>
+        <v>6.7387</v>
       </c>
       <c r="J56" t="n">
-        <v>63.4259</v>
+        <v>11.4738</v>
       </c>
       <c r="K56" t="n">
-        <v>18.0034</v>
+        <v>4.7351</v>
       </c>
       <c r="L56" t="n">
-        <v>0.00427605709019463</v>
+        <v>-0.657322111690071</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.357616277649567</v>
+        <v>0.254718132849428</v>
       </c>
       <c r="N56" t="n">
-        <v>0.198735126895777</v>
+        <v>0.0467356480258648</v>
       </c>
       <c r="O56" t="n">
-        <v>51.9207</v>
+        <v>8.921</v>
       </c>
       <c r="P56" t="n">
-        <v>54.3535</v>
+        <v>9.52525</v>
       </c>
       <c r="Q56" t="n">
-        <v>56.5026</v>
+        <v>9.989125</v>
       </c>
       <c r="R56" t="n">
-        <v>63.4259</v>
+        <v>11.4738</v>
       </c>
     </row>
     <row r="57">
@@ -3712,52 +3715,52 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D57" t="n">
-        <v>51.2415505050505</v>
+        <v>54.04288</v>
       </c>
       <c r="E57" t="n">
-        <v>2.07739050931303</v>
+        <v>3.48814689119498</v>
       </c>
       <c r="F57" t="n">
-        <v>51.1206</v>
+        <v>54.26135</v>
       </c>
       <c r="G57" t="n">
-        <v>51.2372121338912</v>
+        <v>54.0564140151515</v>
       </c>
       <c r="H57" t="n">
-        <v>2.39054423999999</v>
+        <v>3.51265005</v>
       </c>
       <c r="I57" t="n">
-        <v>46.4473</v>
+        <v>44.5714</v>
       </c>
       <c r="J57" t="n">
-        <v>55.6705</v>
+        <v>63.4259</v>
       </c>
       <c r="K57" t="n">
-        <v>9.2232</v>
+        <v>18.8545</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0378531735792955</v>
+        <v>-0.054006174272749</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.792349558370194</v>
+        <v>-0.343784019700756</v>
       </c>
       <c r="N57" t="n">
-        <v>0.120542423455275</v>
+        <v>0.192016166732192</v>
       </c>
       <c r="O57" t="n">
-        <v>49.6172</v>
+        <v>51.62875</v>
       </c>
       <c r="P57" t="n">
-        <v>51.1206</v>
+        <v>54.26135</v>
       </c>
       <c r="Q57" t="n">
-        <v>52.8655</v>
+        <v>56.49985</v>
       </c>
       <c r="R57" t="n">
-        <v>55.6705</v>
+        <v>63.4259</v>
       </c>
     </row>
     <row r="58">
@@ -3768,51 +3771,107 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D58" t="n">
-        <v>1.9286494949495</v>
+        <v>51.0329281818182</v>
       </c>
       <c r="E58" t="n">
-        <v>1.13316157959982</v>
+        <v>2.10351689438142</v>
       </c>
       <c r="F58" t="n">
-        <v>1.7548</v>
+        <v>50.8146</v>
       </c>
       <c r="G58" t="n">
-        <v>1.79042259414226</v>
+        <v>51.0018162878788</v>
       </c>
       <c r="H58" t="n">
-        <v>0.85293978</v>
+        <v>2.3432493</v>
       </c>
       <c r="I58" t="n">
+        <v>46.1664</v>
+      </c>
+      <c r="J58" t="n">
+        <v>55.6705</v>
+      </c>
+      <c r="K58" t="n">
+        <v>9.50409999999999</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.134652439578302</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.791602499106035</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.115794794002254</v>
+      </c>
+      <c r="O58" t="n">
+        <v>49.39455</v>
+      </c>
+      <c r="P58" t="n">
+        <v>50.8146</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>52.723775</v>
+      </c>
+      <c r="R58" t="n">
+        <v>55.6705</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="n">
+        <v>330</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.00044454545455</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.17013343750442</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.7752</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.85823181818182</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.87095337</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J59" t="n">
         <v>7.3738</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K59" t="n">
         <v>7.3738</v>
       </c>
-      <c r="L58" t="n">
-        <v>1.52396886084538</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3.45206579886989</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.0657527038652643</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.1956</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.7548</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.3301</v>
-      </c>
-      <c r="R58" t="n">
+      <c r="L59" t="n">
+        <v>1.50498160893801</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.37059434693408</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0644137257527557</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.2181</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.7752</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.5164</v>
+      </c>
+      <c r="R59" t="n">
         <v>7.3738</v>
       </c>
     </row>
